--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z231"/>
+  <dimension ref="A1:Z234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 9277-2023</t>
+          <t>A 48101-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44980</v>
+        <v>45933</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,20 +1217,20 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
@@ -1241,389 +1241,389 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Plattsäv</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 33610-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45841.61888888889</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Lundbräsma</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 17546-2021</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44299</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 55928-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45973.43586805555</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 9277-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 48101-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45933</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Plattsäv</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 55928-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45973.43586805555</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 17546-2021</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44299</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 33610-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45841.61888888889</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Lundbräsma</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44421.5517824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44245</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44595</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44595</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>44659</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>44728.73445601852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44714</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44268</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3518,14 +3518,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 68932-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>44530.4952662037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 38210-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45043</v>
+        <v>44812</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 40164-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45883</v>
+        <v>44818</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38210-2022</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44812</v>
+        <v>45469</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 68932-2021</t>
+          <t>A 18017-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44530.4952662037</v>
+        <v>45420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3765,8 +3765,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3803,14 +3808,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40164-2022</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44818</v>
+        <v>45435</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3823,7 +3828,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3860,14 +3865,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29255-2025</t>
+          <t>A 18616-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45824.38359953704</v>
+        <v>45763.50706018518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3880,7 +3885,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3917,14 +3922,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 42301-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>45180.44994212963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3937,7 +3942,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3974,14 +3979,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 40264-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45272</v>
+        <v>45554.63769675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3994,7 +3999,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.6</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4031,14 +4036,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 59842-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45797</v>
+        <v>44908</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4050,13 +4055,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4093,14 +4093,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4150,14 +4150,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4207,14 +4207,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 42301-2023</t>
+          <t>A 31128-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45180.44994212963</v>
+        <v>45113.69722222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4264,14 +4264,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 60086-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>45642.54302083333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4321,14 +4321,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 7974-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>45707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4378,14 +4378,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 1567-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>44937.60682870371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4435,14 +4435,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 8701-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>44978.35130787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4492,14 +4492,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 26084-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>45091</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4511,13 +4511,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4554,14 +4549,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 59842-2022</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44908</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4569,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4611,14 +4606,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45398</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4632,11 +4627,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4673,14 +4668,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>45462</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4693,7 +4688,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4730,14 +4725,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>45398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4749,8 +4744,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4787,14 +4787,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 29255-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>45824.38359953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4844,14 +4844,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 25407-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>45800.6600925926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4901,14 +4901,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 25219-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>45800</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4958,14 +4958,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45149</v>
+        <v>44895</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.4</v>
+        <v>4.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5015,14 +5015,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39365-2025</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45889.5662962963</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5034,13 +5034,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5077,14 +5072,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39367-2025</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45889.57412037037</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,13 +5091,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5139,14 +5129,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45890</v>
+        <v>45272</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5158,13 +5148,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>7.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5201,14 +5186,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 25222-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45109</v>
+        <v>45800.47864583333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5221,7 +5206,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5258,14 +5243,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5278,7 +5263,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5315,14 +5300,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5335,7 +5320,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5379,7 +5364,7 @@
         <v>45111.60162037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,14 +5414,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>45883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5449,7 +5434,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5486,14 +5471,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 39365-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45889.5662962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5505,8 +5490,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5543,14 +5533,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 39367-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45959</v>
+        <v>45889.57412037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5562,8 +5552,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5600,14 +5595,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5615,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>6.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5657,14 +5652,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45959</v>
+        <v>45797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5676,8 +5671,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5714,14 +5714,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44895</v>
+        <v>45890</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5733,8 +5733,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5771,14 +5776,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5796,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5828,14 +5833,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44496</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5847,8 +5852,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5885,14 +5895,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45469</v>
+        <v>44946</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5915,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5942,14 +5952,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44895</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5999,14 +6009,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6018,13 +6028,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6061,14 +6066,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6082,11 +6087,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6123,14 +6128,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>45820.439375</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6142,8 +6147,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6180,14 +6190,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46037.566875</v>
+        <v>45043</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6200,7 +6210,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6237,14 +6247,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>45385</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6256,13 +6266,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6299,14 +6304,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6320,11 +6325,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6361,14 +6366,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6380,13 +6385,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6423,14 +6423,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45086</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,8 +6442,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6480,14 +6485,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6501,11 +6506,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6542,14 +6547,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6561,8 +6566,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6599,14 +6609,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6620,11 +6630,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6661,14 +6671,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6682,11 +6692,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6723,14 +6733,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,14 +6790,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6800,7 +6810,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6837,14 +6847,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6857,7 +6867,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6894,14 +6904,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 48106-2025</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45933</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6914,7 +6924,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6951,14 +6961,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6971,7 +6981,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7008,14 +7018,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7028,7 +7038,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7065,14 +7075,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 48106-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>45933</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7085,7 +7095,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7122,14 +7132,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7142,7 +7152,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7179,14 +7189,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7199,7 +7209,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7236,14 +7246,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>44953</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7256,7 +7266,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7293,14 +7303,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7312,13 +7322,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7355,14 +7360,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 7233-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45408.386875</v>
+        <v>44970.6025</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,13 +7379,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7417,14 +7417,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7436,13 +7436,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7479,14 +7474,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>44860.390625</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7498,13 +7493,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7541,14 +7531,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>45091</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7560,13 +7550,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7603,14 +7588,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7623,7 +7608,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.8</v>
+        <v>0.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7660,14 +7645,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7679,8 +7664,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7717,14 +7707,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>45196</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7727,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7774,14 +7764,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 60233-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>45258</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7784,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7831,14 +7821,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 18616-2025</t>
+          <t>A 20721-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45763.50706018518</v>
+        <v>45776.50532407407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7851,7 +7841,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7888,14 +7878,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 40264-2024</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45554.63769675926</v>
+        <v>44687</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7907,8 +7897,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7945,14 +7940,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 13509-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>45387.68763888889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7965,7 +7960,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>10.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8002,14 +7997,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 20063-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>45772</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8022,7 +8017,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8059,14 +8054,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>45707</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,13 +8073,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>3.7</v>
+        <v>7.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8121,14 +8111,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45707</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8141,7 +8131,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>7.3</v>
+        <v>2.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8178,14 +8168,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>44827</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8198,7 +8188,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8235,14 +8225,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>45492</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8255,7 +8245,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8292,14 +8282,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>45098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8311,8 +8301,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8349,14 +8344,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45492</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8369,7 +8364,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8406,14 +8401,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45099</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8426,7 +8421,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8463,14 +8458,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44497</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8483,7 +8478,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8520,14 +8515,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44957</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8539,8 +8534,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8577,14 +8577,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>45628</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8634,14 +8634,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60086-2024</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45642.54302083333</v>
+        <v>45086</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8691,14 +8691,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 7233-2023</t>
+          <t>A 17705-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44970.6025</v>
+        <v>45758.43197916666</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8710,8 +8710,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8748,14 +8753,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 17709-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>45758.43493055556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8767,8 +8772,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8805,14 +8815,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8825,7 +8835,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8862,14 +8872,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8881,13 +8891,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8924,14 +8929,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 31128-2023</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45113.69722222222</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8944,7 +8949,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8981,14 +8986,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45170</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9000,13 +9005,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>5.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9043,14 +9043,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9100,14 +9100,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45462</v>
+        <v>45959</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9157,14 +9157,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>45959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9214,14 +9214,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45469</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,8 +9233,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9271,14 +9276,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 12747-2024</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45384.54314814815</v>
+        <v>44433</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9291,7 +9296,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9328,14 +9333,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9353,7 +9358,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9390,14 +9395,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9410,7 +9415,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9447,14 +9452,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>45448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9466,8 +9471,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9504,14 +9514,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 46190-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45098</v>
+        <v>45196</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9523,13 +9533,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9566,14 +9571,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 48985-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44832</v>
+        <v>44860</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9586,7 +9591,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9623,14 +9628,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44386</v>
+        <v>44701</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9643,7 +9648,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9680,14 +9685,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45091</v>
+        <v>44698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9700,7 +9705,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9737,14 +9742,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>46037.566875</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9756,13 +9761,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9799,14 +9799,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9856,14 +9856,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45196</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,8 +9875,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9913,14 +9918,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45043</v>
+        <v>44497</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9933,7 +9938,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9970,14 +9975,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9989,8 +9994,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10027,14 +10037,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10047,7 +10057,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10084,14 +10094,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 26084-2023</t>
+          <t>A 52383-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45091</v>
+        <v>45224.81199074074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10104,7 +10114,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10141,14 +10151,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 18017-2024</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45420</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,13 +10170,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10203,14 +10208,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44701</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10223,7 +10228,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10260,14 +10265,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44698</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10280,7 +10285,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10317,14 +10322,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45223</v>
+        <v>45408.386875</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10336,8 +10341,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10374,14 +10384,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10404,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10431,14 +10441,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10461,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10488,14 +10498,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45313.3825</v>
+        <v>45356</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10508,7 +10518,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10545,14 +10555,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45448</v>
+        <v>45469</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,13 +10574,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10607,14 +10612,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 12747-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44687</v>
+        <v>45384.54314814815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10627,7 +10632,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10664,14 +10669,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 46190-2023</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45196</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10684,7 +10689,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10721,14 +10726,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44827</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10741,7 +10746,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10778,14 +10783,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>45149</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10835,14 +10840,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10855,7 +10860,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10892,14 +10897,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44909</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10911,8 +10916,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10949,14 +10959,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45385</v>
+        <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10969,7 +10979,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11006,14 +11016,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44995</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11025,8 +11035,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>13.5</v>
+        <v>2.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11063,14 +11078,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11083,7 +11098,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11120,14 +11135,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 50043-2023</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45215.49396990741</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11140,7 +11155,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11177,14 +11192,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11197,7 +11212,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11234,14 +11249,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44812</v>
+        <v>44895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11254,7 +11269,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11291,14 +11306,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45140</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11311,7 +11326,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11348,14 +11363,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>44832</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11368,7 +11383,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11405,14 +11420,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>45170</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11424,8 +11439,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11462,14 +11482,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 52383-2023</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45224.81199074074</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11482,7 +11502,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11519,14 +11539,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>45469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11539,7 +11559,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11576,14 +11596,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 18734-2023</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45043</v>
+        <v>45313.3825</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11596,7 +11616,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11633,14 +11653,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 1567-2023</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44937.60682870371</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11653,7 +11673,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11690,14 +11710,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>46059.60475694444</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11710,7 +11730,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.7</v>
+        <v>8.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11747,14 +11767,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45435</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11767,7 +11787,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11804,14 +11824,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44433</v>
+        <v>44687</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11824,7 +11844,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11861,14 +11881,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>45043</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11881,7 +11901,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11918,14 +11938,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45469</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11938,7 +11958,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11975,14 +11995,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 50043-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>45215.49396990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11995,7 +12015,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>21.6</v>
+        <v>0.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12032,14 +12052,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>44957</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12052,7 +12072,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12089,14 +12109,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45156</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12109,7 +12129,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12146,14 +12166,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45621.559375</v>
+        <v>44496</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12166,7 +12186,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12203,14 +12223,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12223,7 +12243,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12260,14 +12280,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12280,7 +12300,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12317,14 +12337,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45356</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12337,7 +12357,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12374,14 +12394,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12394,7 +12414,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12431,14 +12451,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 18734-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44743</v>
+        <v>45043</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12451,7 +12471,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12488,14 +12508,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 48985-2022</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44860</v>
+        <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12508,7 +12528,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12545,14 +12565,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45628</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12565,7 +12585,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12602,14 +12622,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 8701-2023</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44978.35130787037</v>
+        <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12622,7 +12642,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>13.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12659,14 +12679,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45448</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12678,13 +12698,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12721,14 +12736,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 7974-2025</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45707</v>
+        <v>44743</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12741,7 +12756,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12778,14 +12793,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12797,13 +12812,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12840,14 +12850,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>44812</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12859,13 +12869,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12902,14 +12907,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45313</v>
+        <v>45621.559375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12922,7 +12927,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>11.7</v>
+        <v>4.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12959,14 +12964,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12978,13 +12983,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>4.8</v>
+        <v>21.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13021,14 +13021,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 59841-2024</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45639.67075231481</v>
+        <v>45223</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13078,14 +13078,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 49435-2024</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45595.85221064815</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13135,14 +13135,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 58683-2024</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45635.61765046296</v>
+        <v>44909</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>9.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13192,14 +13192,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45716</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13211,13 +13211,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13254,14 +13249,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13273,13 +13268,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13316,14 +13306,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 25222-2025</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45800.47864583333</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13336,7 +13326,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13373,14 +13363,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 25219-2025</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45800</v>
+        <v>45448</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13392,8 +13382,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13430,14 +13425,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 25407-2025</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45800.6600925926</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13449,8 +13444,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13487,14 +13487,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13544,14 +13544,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44946</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>7.3</v>
+        <v>1.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13601,14 +13601,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>45156</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13620,13 +13620,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13663,14 +13658,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45820.439375</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13682,13 +13677,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13725,14 +13715,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13745,7 +13735,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13782,14 +13772,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13802,7 +13792,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13839,14 +13829,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44953</v>
+        <v>45109</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13859,7 +13849,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13896,14 +13886,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>45313</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13916,7 +13906,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>11.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13953,14 +13943,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 20721-2025</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45776.50532407407</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13973,7 +13963,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14010,14 +14000,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44687</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14029,13 +14019,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14072,14 +14057,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 60233-2023</t>
+          <t>A 42752-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45258</v>
+        <v>45566.49165509259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14091,8 +14076,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14129,14 +14119,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 13509-2024</t>
+          <t>A 59841-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45387.68763888889</v>
+        <v>45639.67075231481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14149,7 +14139,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>10.7</v>
+        <v>4.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14183,17 +14173,17 @@
       </c>
       <c r="R230" s="2" t="inlineStr"/>
     </row>
-    <row r="231">
+    <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 20063-2025</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45772</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14206,7 +14196,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14239,6 +14229,187 @@
         <v>0</v>
       </c>
       <c r="R231" s="2" t="inlineStr"/>
+    </row>
+    <row r="232" ht="15" customHeight="1">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>A 49435-2024</t>
+        </is>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>45595.85221064815</v>
+      </c>
+      <c r="C232" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233" ht="15" customHeight="1">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>A 9756-2025</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>45716.47010416666</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" s="2" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>A 9752-2025</t>
+        </is>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45933</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45841.61888888889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44299</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45973.43586805555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44421.5517824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44245</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44595</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44595</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>44659</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>44728.73445601852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44714</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44268</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44530.4952662037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44812</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44818</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45469</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>45420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>45435</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>45763.50706018518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45180.44994212963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>45554.63769675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44908</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45110.43502314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>45110.43634259259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>45113.69722222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>45642.54302083333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>45707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44937.60682870371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44978.35130787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>45091</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>45309.47417824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>45699.38159722222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>45462</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>45398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>45824.38359953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>45800.6600925926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>45800</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44895</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44887.2725462963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44887.28344907407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>45272</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>45800.47864583333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>45687.39320601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>45687.39540509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45111.60162037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>45883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>45889.5662962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45889.57412037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44973.66755787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45890</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45469.65163194444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45890.37663194445</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44946</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>45817.64803240741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45902.42136574074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>45820.38222222222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>45820.439375</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>45043</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45385</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45918.38085648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>45492.47263888889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>45667.3833912037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45924.61878472222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45924.71409722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45924.65844907407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45924.70355324074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>45299.4187037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45281.40021990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45929.57181712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45839.57116898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45932.88050925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44615.3561574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>45933</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>45839.57383101852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>45933.30924768518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>44953</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45840.47387731481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44970.6025</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44856.37269675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44860.390625</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45091</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45335.56065972222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45945.60101851852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45196</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45258</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45776.50532407407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44687</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>45387.68763888889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>45772</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>45707</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>45713.79837962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>44827</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>45492</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>45098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44990.82427083333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45621.56515046296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45958.51211805556</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45960.36168981482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>45628</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45086</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45758.43197916666</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>45758.43493055556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44937.60599537037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>45713.80175925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>45974.58690972222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>45874.96774305555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>45978.42547453703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>45959</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>45959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44587.34189814814</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44433</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>45566.49253472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>45299.41960648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>45448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45196</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44860</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44701</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>46037.566875</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44363.47548611111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>46001.27658564815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44497</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>45539.40431712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>45763.49371527778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>45224.81199074074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>45145.64420138889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>46034.63483796296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>46034.62398148148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>45408.386875</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>46035.57903935185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>46035.57438657407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45356</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>45469</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45384.54314814815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>46035.58709490741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>45149.40692129629</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>45149</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>46009.30550925926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>46008.37989583334</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>46008.6137037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>46052.4284375</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>45281.40106481482</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>46052.43122685186</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44844.36292824074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44832</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>45170</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45469.55256944444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>45313.3825</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>46059.61744212963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>46059.60475694444</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>46059.61849537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44687</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45043</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44321.5434375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45215.49396990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44957</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45022.54587962963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44496</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45096.62655092592</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45110.42650462963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45110.43378472222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>45719.66662037037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45043</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>45314.46743055555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>45370.39414351852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44743</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44812</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>45621.559375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45091.61202546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>45223</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44894.49025462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44909</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>45288.49311342592</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45096.44828703703</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45224.80859953703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>45448</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>45175.64809027778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45110.43747685185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45514.46949074074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45156</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44995.44972222222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>44642.5922337963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>45335.54832175926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45109</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45313</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45288.40486111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>45593.41236111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45566.49165509259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>45639.67075231481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45635.61765046296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45595.85221064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45716.47010416666</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45716</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45933</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45841.61888888889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44299</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45973.43586805555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44421.5517824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44245</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44595</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44595</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>44659</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>44728.73445601852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44714</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44268</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44530.4952662037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44812</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44818</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45469</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>45420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>45435</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>45763.50706018518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45180.44994212963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>45554.63769675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44908</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45110.43502314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>45110.43634259259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>45113.69722222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>45642.54302083333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>45707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44937.60682870371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44978.35130787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>45091</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>45309.47417824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>45699.38159722222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>45462</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>45398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>45824.38359953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>45800.6600925926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>45800</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44895</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44887.2725462963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44887.28344907407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>45272</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>45800.47864583333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>45687.39320601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>45687.39540509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45111.60162037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>45883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>45889.5662962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45889.57412037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44973.66755787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45890</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45469.65163194444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45890.37663194445</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44946</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>45817.64803240741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45902.42136574074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>45820.38222222222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>45820.439375</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>45043</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45385</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45918.38085648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>45492.47263888889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>45667.3833912037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45924.61878472222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45924.71409722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45924.65844907407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45924.70355324074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>45299.4187037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45281.40021990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45929.57181712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45839.57116898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45932.88050925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44615.3561574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>45933</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>45839.57383101852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>45933.30924768518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>44953</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45840.47387731481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44970.6025</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44856.37269675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44860.390625</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45091</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45335.56065972222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45945.60101851852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45196</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45258</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45776.50532407407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44687</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>45387.68763888889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>45772</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>45707</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>45713.79837962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>44827</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>45492</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>45098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44990.82427083333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45621.56515046296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45958.51211805556</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45960.36168981482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>45628</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45086</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45758.43197916666</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>45758.43493055556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44937.60599537037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>45713.80175925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>45974.58690972222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>45874.96774305555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>45978.42547453703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>45959</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>45959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44587.34189814814</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44433</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>45566.49253472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>45299.41960648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>45448</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45196</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44860</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44701</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>46037.566875</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44363.47548611111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>46001.27658564815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44497</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>45539.40431712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>45763.49371527778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>45224.81199074074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>45145.64420138889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>46034.63483796296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>46034.62398148148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>45408.386875</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>46035.57903935185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>46035.57438657407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45356</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>45469</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45384.54314814815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>46035.58709490741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>45149.40692129629</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>45149</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>46009.30550925926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>46008.37989583334</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>46008.6137037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>46052.4284375</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>45281.40106481482</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>46052.43122685186</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44844.36292824074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44832</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>45170</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45469.55256944444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>45313.3825</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>46059.61744212963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>46059.60475694444</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>46059.61849537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44687</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45043</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44321.5434375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45215.49396990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44957</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45022.54587962963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44496</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45096.62655092592</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45110.42650462963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45110.43378472222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>45719.66662037037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45043</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>45314.46743055555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>45370.39414351852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44743</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44812</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>45621.559375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45091.61202546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>45223</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44894.49025462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44909</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>45288.49311342592</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45096.44828703703</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45224.80859953703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>45448</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>45175.64809027778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45110.43747685185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45514.46949074074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45156</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44995.44972222222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>44642.5922337963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>45335.54832175926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45109</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45313</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45288.40486111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>45593.41236111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45566.49165509259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>45639.67075231481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45635.61765046296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45595.85221064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45716.47010416666</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45716</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 48101-2025</t>
+          <t>A 9277-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45933</v>
+        <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1241,41 +1241,41 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Plattsäv</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         <v>45841.61888888889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,14 +1367,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 17546-2021</t>
+          <t>A 48101-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44299</v>
+        <v>45933</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,20 +1387,20 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -1411,41 +1411,41 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Plattsäv</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
         <v>45973.43586805555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,14 +1542,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 9277-2023</t>
+          <t>A 17546-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44980</v>
+        <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,31 +1596,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,14 +1741,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 35607-2022</t>
+          <t>A 40946-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44799</v>
+        <v>44421.5517824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1798,14 +1798,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 40946-2021</t>
+          <t>A 35607-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44421.5517824074</v>
+        <v>44799</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44245</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44595</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44595</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>44659</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>44728.73445601852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44714</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44268</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3518,14 +3518,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 68932-2021</t>
+          <t>A 38210-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44530.4952662037</v>
+        <v>44812</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38210-2022</t>
+          <t>A 68932-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44812</v>
+        <v>44530.4952662037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>44818</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,14 +3689,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45469</v>
+        <v>45272</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 18017-2024</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45420</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3765,13 +3765,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3808,14 +3803,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45435</v>
+        <v>45398</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3827,8 +3822,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3865,14 +3865,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18616-2025</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45763.50706018518</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3922,14 +3922,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 42301-2023</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45180.44994212963</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3979,14 +3979,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40264-2024</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45554.63769675926</v>
+        <v>44860.390625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4036,14 +4036,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59842-2022</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44908</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4093,14 +4093,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>44895</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4150,14 +4150,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4207,14 +4207,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31128-2023</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45113.69722222222</v>
+        <v>44496</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4264,14 +4264,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60086-2024</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45642.54302083333</v>
+        <v>45469</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4321,14 +4321,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7974-2025</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45707</v>
+        <v>44895</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4378,14 +4378,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1567-2023</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44937.60682870371</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4435,14 +4435,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8701-2023</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44978.35130787037</v>
+        <v>45086</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4492,14 +4492,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26084-2023</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45091</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4509,6 +4509,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -4549,14 +4554,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4574,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4606,14 +4611,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>44946</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4625,13 +4630,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4668,14 +4668,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45462</v>
+        <v>45408.386875</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4687,8 +4687,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4725,14 +4730,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45398</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4746,7 +4751,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -4787,14 +4792,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 29255-2025</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45824.38359953704</v>
+        <v>45820.439375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4806,8 +4811,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4844,14 +4854,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25407-2025</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45800.6600925926</v>
+        <v>45883</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4864,7 +4874,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4901,14 +4911,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25219-2025</t>
+          <t>A 42752-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45800</v>
+        <v>45566.49165509259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4920,8 +4930,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>6.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4958,14 +4973,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44895</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4978,7 +4993,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5015,14 +5030,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 18616-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>45763.50706018518</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5035,7 +5050,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5072,14 +5087,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 29255-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>45824.38359953704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5092,7 +5107,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5129,14 +5144,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45272</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5149,7 +5164,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5186,14 +5201,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25222-2025</t>
+          <t>A 40264-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45800.47864583333</v>
+        <v>45554.63769675926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5206,7 +5221,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5243,14 +5258,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>45797</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5262,8 +5277,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5300,14 +5320,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5340,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5357,14 +5377,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30479-2023</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45111.60162037037</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5377,7 +5397,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5414,14 +5434,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45883</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5433,8 +5453,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5478,7 +5503,7 @@
         <v>45889.5662962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5540,7 +5565,7 @@
         <v>45889.57412037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,14 +5620,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>45890</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5614,8 +5639,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5652,14 +5682,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45797</v>
+        <v>45707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5671,13 +5701,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>7.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5714,14 +5739,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45890</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5733,13 +5758,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5776,14 +5796,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5796,7 +5816,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5833,14 +5853,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>44953</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5850,11 +5870,6 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -5895,14 +5910,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44946</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5930,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5952,14 +5967,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5987,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6009,14 +6024,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6029,7 +6044,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6066,14 +6081,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>45099</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6085,13 +6100,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6128,14 +6138,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45820.439375</v>
+        <v>44497</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6147,13 +6157,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6190,14 +6195,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45043</v>
+        <v>44957</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6215,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6247,14 +6252,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45385</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6267,7 +6272,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6304,14 +6309,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 20721-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>45776.50532407407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6323,13 +6328,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6366,14 +6366,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>44687</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,8 +6385,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6423,14 +6428,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 60233-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>45258</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,13 +6447,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6485,14 +6485,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 60086-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45642.54302083333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6504,13 +6504,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6547,14 +6542,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 13509-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>45387.68763888889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6566,13 +6561,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>10.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6609,14 +6599,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 20063-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>45772</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6628,13 +6618,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6671,14 +6656,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 7233-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>44970.6025</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6690,13 +6675,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6733,14 +6713,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6753,7 +6733,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6790,14 +6770,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 31128-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>45113.69722222222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6810,7 +6790,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6847,14 +6827,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6866,8 +6846,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6904,14 +6889,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6923,8 +6908,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6961,14 +6951,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6980,8 +6970,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7018,14 +7013,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7038,7 +7033,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7075,14 +7070,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 48106-2025</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45933</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7095,7 +7090,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7132,14 +7127,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45098</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7151,8 +7146,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7189,14 +7189,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7208,8 +7208,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7246,14 +7251,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44953</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7265,8 +7270,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7303,14 +7313,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7322,8 +7332,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7360,14 +7375,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 7233-2023</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44970.6025</v>
+        <v>44832</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7380,7 +7395,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7417,14 +7432,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>44386</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7437,7 +7452,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7474,14 +7489,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45091</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7494,7 +7509,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7531,14 +7546,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45091</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7550,8 +7565,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7588,14 +7608,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7608,7 +7628,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7645,14 +7665,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,13 +7684,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7707,14 +7722,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45196</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7727,7 +7742,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7764,14 +7779,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60233-2023</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45258</v>
+        <v>45043</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7784,7 +7799,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7821,14 +7836,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 20721-2025</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45776.50532407407</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7841,7 +7856,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7878,14 +7893,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44687</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7897,13 +7912,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7940,14 +7950,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 13509-2024</t>
+          <t>A 48106-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45387.68763888889</v>
+        <v>45933</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7960,7 +7970,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>10.7</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7997,14 +8007,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 20063-2025</t>
+          <t>A 42301-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45772</v>
+        <v>45180.44994212963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8017,7 +8027,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8054,14 +8064,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45707</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8074,7 +8084,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>7.3</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8111,14 +8121,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8131,7 +8141,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8168,14 +8178,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44827</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8188,7 +8198,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8225,14 +8235,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45492</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8244,8 +8254,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8282,14 +8297,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 59842-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45098</v>
+        <v>44908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8301,13 +8316,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8344,14 +8354,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8364,7 +8374,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8401,14 +8411,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8421,7 +8431,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8458,14 +8468,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8478,7 +8488,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8515,14 +8525,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>45149</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8534,13 +8544,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8577,14 +8582,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45628</v>
+        <v>45109</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8597,7 +8602,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8634,14 +8639,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45086</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8654,7 +8659,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8691,14 +8696,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8710,13 +8715,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8753,14 +8753,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 30479-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>45111.60162037037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8772,13 +8772,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8815,14 +8810,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8835,7 +8830,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8872,14 +8867,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,8 +8886,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8929,14 +8929,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8986,14 +8986,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9043,14 +9043,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>45492</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9100,14 +9100,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45959</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9157,14 +9157,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45959</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9214,14 +9214,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9235,11 +9235,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9276,14 +9276,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44433</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9333,14 +9333,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>45170</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,11 +9354,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9395,14 +9395,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9452,14 +9452,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45448</v>
+        <v>45462</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,13 +9471,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9514,14 +9509,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 46190-2023</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45196</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9534,7 +9529,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9571,14 +9566,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48985-2022</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44860</v>
+        <v>45469</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9591,7 +9586,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9628,14 +9623,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 12747-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44701</v>
+        <v>45384.54314814815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9648,7 +9643,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9685,14 +9680,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44698</v>
+        <v>45959</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9705,7 +9700,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9742,14 +9737,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46037.566875</v>
+        <v>45959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9762,7 +9757,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9799,14 +9794,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9819,7 +9814,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9856,14 +9851,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>45196</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,13 +9870,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9918,14 +9908,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44497</v>
+        <v>45043</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9938,7 +9928,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9975,14 +9965,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9994,13 +9984,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>8.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10037,14 +10022,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 26084-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>45091</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10057,7 +10042,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10094,14 +10079,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 52383-2023</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45224.81199074074</v>
+        <v>46037.566875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10114,7 +10099,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10151,14 +10136,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10170,8 +10155,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10208,14 +10198,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 18017-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>45420</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,8 +10217,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10265,14 +10260,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10284,8 +10279,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10322,14 +10322,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45408.386875</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10341,13 +10341,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10384,14 +10379,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>44701</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10404,7 +10399,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10441,14 +10436,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10461,7 +10456,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10498,14 +10493,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45356</v>
+        <v>44698</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10518,7 +10513,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10555,14 +10550,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45469</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10570,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10612,14 +10607,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 12747-2024</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45384.54314814815</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10627,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10669,14 +10664,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10689,7 +10684,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10726,14 +10721,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10745,8 +10740,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10783,14 +10783,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45149</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10802,8 +10802,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10840,14 +10845,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>45223</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10860,7 +10865,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10897,14 +10902,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10916,13 +10921,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10959,14 +10959,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44386</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11016,14 +11016,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11035,13 +11035,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11078,14 +11073,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11098,7 +11093,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11135,14 +11130,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11155,7 +11150,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11192,14 +11187,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>45313.3825</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11212,7 +11207,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11249,14 +11244,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44895</v>
+        <v>45448</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11268,8 +11263,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11306,14 +11306,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>44687</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11363,14 +11363,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44832</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11420,14 +11420,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 46190-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45170</v>
+        <v>45196</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11439,13 +11439,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11482,14 +11477,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>44827</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11502,7 +11497,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11539,14 +11534,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45469</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11559,7 +11554,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11596,14 +11591,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45313.3825</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11616,7 +11611,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11653,14 +11648,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 7530-2026</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46059.61744212963</v>
+        <v>46059</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11673,7 +11668,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.6</v>
+        <v>8.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11710,14 +11705,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 7522-2026</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46059.60475694444</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11730,7 +11725,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>8.4</v>
+        <v>4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11767,14 +11762,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 7531-2026</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46059.61849537037</v>
+        <v>44909</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11787,7 +11782,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11824,14 +11819,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44687</v>
+        <v>45385</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11881,14 +11876,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45043</v>
+        <v>44995</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11901,7 +11896,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.7</v>
+        <v>13.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11938,14 +11933,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11958,7 +11953,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12002,7 +11997,7 @@
         <v>45215.49396990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12052,14 +12047,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44957</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12072,7 +12067,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12109,14 +12104,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12129,7 +12124,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12166,14 +12161,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44496</v>
+        <v>45140</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12186,7 +12181,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12223,14 +12218,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12243,7 +12238,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12280,14 +12275,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12300,7 +12295,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12337,14 +12332,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 52383-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>45224.81199074074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12357,7 +12352,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12394,14 +12389,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12414,7 +12409,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12458,7 +12453,7 @@
         <v>45043</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12508,14 +12503,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 1567-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45140</v>
+        <v>44937.60682870371</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12528,7 +12523,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12565,14 +12560,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12585,7 +12580,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12622,14 +12617,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44995</v>
+        <v>45435</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12642,7 +12637,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>13.5</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12679,14 +12674,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>44433</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12699,7 +12694,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12736,14 +12731,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44743</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12756,7 +12751,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12793,14 +12788,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45099</v>
+        <v>45469</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12813,7 +12808,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12850,14 +12845,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44812</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12870,7 +12865,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.8</v>
+        <v>21.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12907,14 +12902,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45621.559375</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12927,7 +12922,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.4</v>
+        <v>0.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12964,14 +12959,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>45156</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12984,7 +12979,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>21.6</v>
+        <v>2.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13021,14 +13016,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45223</v>
+        <v>45621.559375</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13041,7 +13036,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13078,14 +13073,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13098,7 +13093,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13135,14 +13130,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44909</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13155,7 +13150,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13192,14 +13187,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>45356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13212,7 +13207,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13249,14 +13244,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13269,7 +13264,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13306,14 +13301,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13326,7 +13321,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13363,14 +13358,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 48985-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45448</v>
+        <v>44860</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13380,11 +13375,6 @@
       <c r="E217" t="inlineStr">
         <is>
           <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G217" t="n">
@@ -13425,14 +13415,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>45628</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13444,13 +13434,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13487,14 +13472,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 8701-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>44978.35130787037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13507,7 +13492,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13544,14 +13529,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>45448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13563,8 +13548,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13601,14 +13591,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 7974-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45156</v>
+        <v>45707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13621,7 +13611,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13658,14 +13648,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 17705-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>45758.43197916666</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13677,8 +13667,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13715,14 +13710,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 17709-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>45758.43493055556</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13734,8 +13729,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13772,14 +13772,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>45313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>11.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13829,14 +13829,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45109</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13848,8 +13848,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13886,14 +13891,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 59841-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45313</v>
+        <v>45639.67075231481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13906,7 +13911,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>11.7</v>
+        <v>4.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13943,14 +13948,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 49435-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>45595.85221064815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13963,7 +13968,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14000,14 +14005,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14020,7 +14025,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14057,14 +14062,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 9752-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>45716</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14082,7 +14087,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14119,14 +14124,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 59841-2024</t>
+          <t>A 9756-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45639.67075231481</v>
+        <v>45716.47010416666</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14138,8 +14143,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14176,14 +14186,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58683-2024</t>
+          <t>A 25222-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45635.61765046296</v>
+        <v>45800.47864583333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14196,7 +14206,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>9.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14233,14 +14243,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 49435-2024</t>
+          <t>A 25219-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45595.85221064815</v>
+        <v>45800</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14253,7 +14263,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14290,14 +14300,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 25407-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>45800.6600925926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14309,13 +14319,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14352,14 +14357,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45716</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14371,13 +14376,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 9277-2023</t>
+          <t>A 48101-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44980</v>
+        <v>45933</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,20 +1217,20 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
@@ -1241,41 +1241,41 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Plattsäv</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         <v>45841.61888888889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,14 +1367,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 48101-2025</t>
+          <t>A 17546-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45933</v>
+        <v>44299</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,19 +1387,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1411,41 +1411,41 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Plattsäv</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
         <v>45973.43586805555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,14 +1542,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 17546-2021</t>
+          <t>A 9277-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44299</v>
+        <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,31 +1596,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,14 +1741,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 40946-2021</t>
+          <t>A 35607-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44421.5517824074</v>
+        <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1798,14 +1798,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 35607-2022</t>
+          <t>A 40946-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44799</v>
+        <v>44421.5517824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44245</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44595</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44595</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>44659</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>44728.73445601852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44714</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44268</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44812</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44530.4952662037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44818</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,14 +3689,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45272</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 18017-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>45420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3765,8 +3765,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3803,14 +3808,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 18616-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45398</v>
+        <v>45763.50706018518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3822,13 +3827,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3865,14 +3865,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 42301-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>45180.44994212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3922,14 +3922,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>45469</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3979,14 +3979,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4036,14 +4036,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>45448</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4055,8 +4055,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4093,14 +4098,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44895</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4112,8 +4117,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4150,14 +4160,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 29255-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>45824.38359953704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4180,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4207,14 +4217,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44496</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4237,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4264,14 +4274,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 40264-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45469</v>
+        <v>45554.63769675926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4294,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4321,14 +4331,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44895</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4351,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4378,14 +4388,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4408,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4435,14 +4445,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45086</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4465,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4492,14 +4502,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 59842-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>44908</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4511,13 +4521,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4554,14 +4559,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>45883</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4579,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4611,14 +4616,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 31128-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44946</v>
+        <v>45113.69722222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4636,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4668,14 +4673,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45408.386875</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4687,13 +4692,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4730,14 +4730,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 39365-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>45889.5662962963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4792,14 +4792,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 39367-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45820.439375</v>
+        <v>45889.57412037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4854,14 +4854,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45883</v>
+        <v>45156</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4911,14 +4911,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 7974-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>45707</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4930,13 +4930,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4973,14 +4968,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4993,7 +4988,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5030,14 +5025,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18616-2025</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45763.50706018518</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5050,7 +5045,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5087,14 +5082,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 29255-2025</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45824.38359953704</v>
+        <v>45797</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5106,8 +5101,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5144,14 +5144,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 8701-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>44978.35130787037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5201,14 +5201,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40264-2024</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45554.63769675926</v>
+        <v>45890</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5220,8 +5220,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5258,14 +5263,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 60086-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45797</v>
+        <v>45642.54302083333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5277,13 +5282,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5320,14 +5320,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,8 +5339,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5377,14 +5382,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5397,7 +5402,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5434,14 +5439,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>45109</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,13 +5458,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5496,14 +5496,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39365-2025</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45889.5662962963</v>
+        <v>45313</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5515,13 +5515,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>11.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5558,14 +5553,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39367-2025</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45889.57412037037</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,13 +5572,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5620,14 +5610,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45890</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5639,13 +5629,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5682,14 +5667,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 1567-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45707</v>
+        <v>44937.60682870371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5702,7 +5687,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5739,14 +5724,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5759,7 +5744,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5796,14 +5781,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 26084-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45091</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5816,7 +5801,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5853,14 +5838,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 42752-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44953</v>
+        <v>45566.49165509259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5872,8 +5857,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5910,14 +5900,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 59841-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>45639.67075231481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5930,7 +5920,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5967,14 +5957,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5987,7 +5977,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6024,14 +6014,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6044,7 +6034,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6081,14 +6071,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 49435-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45099</v>
+        <v>45595.85221064815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6101,7 +6091,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6138,14 +6128,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44497</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,8 +6147,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6195,14 +6190,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 9756-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44957</v>
+        <v>45716.47010416666</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,8 +6209,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6252,14 +6252,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>45462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6309,14 +6309,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20721-2025</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45776.50532407407</v>
+        <v>45398</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,8 +6328,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6366,14 +6371,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 9752-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44687</v>
+        <v>45716</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6387,11 +6392,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6428,14 +6433,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60233-2023</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45258</v>
+        <v>44895</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6448,7 +6453,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6485,14 +6490,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 60086-2024</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45642.54302083333</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6505,7 +6510,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6542,14 +6547,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13509-2024</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45387.68763888889</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6562,7 +6567,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>10.7</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6599,14 +6604,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 20063-2025</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45772</v>
+        <v>45272</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6619,7 +6624,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6656,14 +6661,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7233-2023</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44970.6025</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6676,7 +6681,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6713,14 +6718,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 30479-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>45111.60162037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6733,7 +6738,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6770,14 +6775,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 31128-2023</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45113.69722222222</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6789,8 +6794,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6827,14 +6837,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6846,13 +6856,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6889,14 +6894,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,13 +6913,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6951,14 +6951,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 25407-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45800.6600925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6970,13 +6970,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7013,14 +7008,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 25219-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>45800</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7033,7 +7028,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7070,14 +7065,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 25222-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>45800.47864583333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7090,7 +7085,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7127,14 +7122,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45098</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7148,11 +7143,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7189,14 +7184,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7209,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7251,14 +7246,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7271,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7313,14 +7308,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>44946</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7332,13 +7327,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7375,14 +7365,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44832</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7394,8 +7384,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7432,14 +7427,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44386</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7452,7 +7447,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7489,14 +7484,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45091</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7508,8 +7503,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7546,14 +7546,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>45820.439375</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7608,14 +7608,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>45043</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>5.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7665,14 +7665,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7722,14 +7722,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>45385</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7779,14 +7779,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45043</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7836,14 +7836,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7855,8 +7855,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7893,14 +7898,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7918,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7957,7 +7962,7 @@
         <v>45933</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8007,14 +8012,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42301-2023</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45180.44994212963</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8027,7 +8032,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8064,14 +8069,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8084,7 +8089,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8121,14 +8126,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8141,7 +8146,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8178,14 +8183,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8198,7 +8203,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8235,14 +8240,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8254,13 +8259,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8297,14 +8297,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 59842-2022</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44908</v>
+        <v>44953</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8354,14 +8354,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8411,14 +8411,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8468,14 +8468,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 7233-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>44970.6025</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8525,14 +8525,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45149</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8582,14 +8582,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45109</v>
+        <v>44860.390625</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8639,14 +8639,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 60233-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>45258</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8696,14 +8696,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 20721-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>45776.50532407407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8753,14 +8753,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 30479-2023</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45111.60162037037</v>
+        <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8810,14 +8810,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>44687</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8829,8 +8829,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8867,14 +8872,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 13509-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>45387.68763888889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8886,13 +8891,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>3.7</v>
+        <v>10.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8929,14 +8929,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8986,14 +8986,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 20063-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>45772</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9043,14 +9043,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45492</v>
+        <v>45196</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9100,14 +9100,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9119,8 +9119,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9157,14 +9162,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>45707</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9177,7 +9182,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.7</v>
+        <v>7.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9214,14 +9219,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9233,13 +9238,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9276,14 +9276,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>44827</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9333,14 +9333,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45170</v>
+        <v>45492</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9352,13 +9352,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9395,14 +9390,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>45098</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9412,6 +9407,11 @@
       <c r="E148" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -9452,14 +9452,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45462</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9509,14 +9509,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9566,14 +9566,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45469</v>
+        <v>45628</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9623,14 +9623,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 12747-2024</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45384.54314814815</v>
+        <v>45086</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9680,14 +9680,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 17705-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45959</v>
+        <v>45758.43197916666</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,8 +9699,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9737,14 +9742,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 17709-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45959</v>
+        <v>45758.43493055556</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9756,8 +9761,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9794,14 +9804,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9814,7 +9824,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9851,14 +9861,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45196</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9871,7 +9881,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9908,14 +9918,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45043</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9928,7 +9938,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9965,14 +9975,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9984,8 +9994,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10022,14 +10037,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 26084-2023</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45091</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10039,6 +10054,11 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -10079,14 +10099,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46037.566875</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10099,7 +10119,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10136,14 +10156,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>44433</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10155,13 +10175,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10198,14 +10213,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 18017-2024</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45420</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,13 +10232,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10260,14 +10270,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>45959</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10279,13 +10289,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10322,14 +10327,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>45959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10342,7 +10347,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10379,14 +10384,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44701</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10398,8 +10403,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10436,14 +10446,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10456,7 +10466,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10493,14 +10503,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44698</v>
+        <v>45448</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10512,8 +10522,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10550,14 +10565,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 46190-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>45196</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10570,7 +10585,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10607,14 +10622,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 48985-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>44860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10627,7 +10642,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10664,14 +10679,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>44701</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10684,7 +10699,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10721,14 +10736,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10740,13 +10755,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10783,14 +10793,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10802,13 +10812,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10845,14 +10850,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45223</v>
+        <v>46037.566875</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10865,7 +10870,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10902,14 +10907,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>44497</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10922,7 +10927,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10959,14 +10964,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10978,8 +10983,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11016,14 +11026,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11036,7 +11046,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11073,14 +11083,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 52383-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>45224.81199074074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11093,7 +11103,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11130,14 +11140,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11150,7 +11160,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11187,14 +11197,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45313.3825</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11206,8 +11216,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11244,14 +11259,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45448</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11263,13 +11278,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11306,14 +11316,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44687</v>
+        <v>45408.386875</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11325,8 +11335,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11363,14 +11378,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 7530-2026</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46059.61744212963</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11383,7 +11398,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11420,14 +11435,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 46190-2023</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45196</v>
+        <v>45356</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11440,7 +11455,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11477,14 +11492,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44827</v>
+        <v>45469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11497,7 +11512,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11534,14 +11549,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 7531-2026</t>
+          <t>A 12747-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46059.61849537037</v>
+        <v>45384.54314814815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11554,7 +11569,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11591,14 +11606,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11611,7 +11626,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11648,14 +11663,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 7522-2026</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46059</v>
+        <v>45149</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11668,7 +11683,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>8.4</v>
+        <v>0.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11705,14 +11720,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11725,7 +11740,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11762,14 +11777,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44909</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11782,7 +11797,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11819,14 +11834,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45385</v>
+        <v>44386</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11839,7 +11854,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11876,14 +11891,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44995</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11896,7 +11911,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>13.5</v>
+        <v>1.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11933,14 +11948,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11953,7 +11968,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11990,14 +12005,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50043-2023</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45215.49396990741</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12010,7 +12025,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12047,14 +12062,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12066,8 +12081,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12104,14 +12124,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44812</v>
+        <v>44895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12124,7 +12144,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12161,14 +12181,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45140</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12181,7 +12201,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12218,14 +12238,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>44832</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12238,7 +12258,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12275,14 +12295,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>45170</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12294,8 +12314,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12332,14 +12357,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 52383-2023</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45224.81199074074</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12351,8 +12376,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12389,14 +12419,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12409,7 +12439,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12446,14 +12476,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 18734-2023</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45043</v>
+        <v>45469</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12466,7 +12496,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12503,14 +12533,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 1567-2023</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44937.60682870371</v>
+        <v>45313.3825</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12523,7 +12553,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12560,14 +12590,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12580,7 +12610,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12617,14 +12647,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45435</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12637,7 +12667,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12674,14 +12704,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44433</v>
+        <v>44687</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12694,7 +12724,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12731,14 +12761,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>45043</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12751,7 +12781,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12788,14 +12818,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45469</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12808,7 +12838,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12845,14 +12875,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 50043-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>45215.49396990741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12865,7 +12895,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>21.6</v>
+        <v>0.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12902,14 +12932,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12922,7 +12952,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12959,14 +12989,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45156</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12979,7 +13009,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13016,14 +13046,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45621.559375</v>
+        <v>44957</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13036,7 +13066,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13073,14 +13103,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13093,7 +13123,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13130,14 +13160,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>44496</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13150,7 +13180,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13187,14 +13217,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45356</v>
+        <v>46059</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13207,7 +13237,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.8</v>
+        <v>8.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13244,14 +13274,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13264,7 +13294,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13301,14 +13331,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44743</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13321,7 +13351,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13358,14 +13388,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 48985-2022</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44860</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13378,7 +13408,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13415,14 +13445,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45628</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13472,14 +13502,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 8701-2023</t>
+          <t>A 18734-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44978.35130787037</v>
+        <v>45043</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13492,7 +13522,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13529,14 +13559,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45448</v>
+        <v>45140</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13548,13 +13578,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13591,14 +13616,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7974-2025</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45707</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13611,7 +13636,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13648,14 +13673,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>44995</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13667,13 +13692,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>1.5</v>
+        <v>13.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13710,14 +13730,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13729,13 +13749,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13772,14 +13787,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45313</v>
+        <v>44743</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13792,7 +13807,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>11.7</v>
+        <v>3.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13829,14 +13844,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>45099</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13848,13 +13863,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13891,14 +13901,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 59841-2024</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45639.67075231481</v>
+        <v>44812</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13911,7 +13921,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13948,14 +13958,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 49435-2024</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45595.85221064815</v>
+        <v>45621.559375</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13968,7 +13978,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14005,14 +14015,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 58683-2024</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45635.61765046296</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14025,7 +14035,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>9.199999999999999</v>
+        <v>21.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14062,14 +14072,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45716</v>
+        <v>45223</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14081,13 +14091,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14124,14 +14129,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14143,13 +14148,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14186,14 +14186,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 25222-2025</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45800.47864583333</v>
+        <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14243,14 +14243,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 25219-2025</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45800</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14300,14 +14300,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 25407-2025</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45800.6600925926</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14357,14 +14357,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 50318-2021</t>
+          <t>A 21050-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44459</v>
+        <v>44319</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1077,134 +1077,134 @@
         </is>
       </c>
       <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 21050-2021 artfynd.xlsx", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 21050-2021 karta.png", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="U7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/knärot/A 21050-2021 karta knärot.png", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 21050-2021 FSC-klagomål.docx", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 21050-2021 FSC-klagomål mail.docx", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 21050-2021 tillsynsbegäran.docx", "A 21050-2021")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 21050-2021 tillsynsbegäran mail.docx", "A 21050-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 50318-2021</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44459</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 50318-2021 artfynd.xlsx", "A 50318-2021")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 50318-2021 karta.png", "A 50318-2021")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/knärot/A 50318-2021 karta knärot.png", "A 50318-2021")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 50318-2021 FSC-klagomål.docx", "A 50318-2021")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 50318-2021 FSC-klagomål mail.docx", "A 50318-2021")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 50318-2021 tillsynsbegäran.docx", "A 50318-2021")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 50318-2021 tillsynsbegäran mail.docx", "A 50318-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 21050-2021</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44319</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>13</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 21050-2021 artfynd.xlsx", "A 21050-2021")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 21050-2021 karta.png", "A 21050-2021")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/knärot/A 21050-2021 karta knärot.png", "A 21050-2021")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 21050-2021 FSC-klagomål.docx", "A 21050-2021")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 21050-2021 FSC-klagomål mail.docx", "A 21050-2021")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 21050-2021 tillsynsbegäran.docx", "A 21050-2021")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 21050-2021 tillsynsbegäran mail.docx", "A 21050-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 48101-2025</t>
+          <t>A 9277-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45933</v>
+        <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1241,389 +1241,389 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 17546-2021</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44299</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 33610-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45841.61888888889</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Lundbräsma</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 48101-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45933</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Plattsäv</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 33610-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45841.61888888889</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 55928-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45973.43586805555</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Lundbräsma</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 17546-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44299</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 55928-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45973.43586805555</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 9277-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,14 +1741,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 35607-2022</t>
+          <t>A 40946-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44799</v>
+        <v>44421.5517824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1798,14 +1798,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 40946-2021</t>
+          <t>A 35607-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44421.5517824074</v>
+        <v>44799</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,14 +2487,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35768-2021</t>
+          <t>A 34656-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44386</v>
+        <v>44382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2544,14 +2544,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34658-2021</t>
+          <t>A 35768-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44382</v>
+        <v>44386</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,14 +2601,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33940-2021</t>
+          <t>A 15415-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44378.80239583334</v>
+        <v>44659</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2620,8 +2620,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2658,14 +2663,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 11934-2021</t>
+          <t>A 34658-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44265</v>
+        <v>44382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2678,7 +2683,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2715,14 +2720,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 8466-2021</t>
+          <t>A 72213-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44245</v>
+        <v>44544.69722222222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2735,7 +2740,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2772,14 +2777,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 52971-2021</t>
+          <t>A 33940-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44467.62484953704</v>
+        <v>44378.80239583334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2792,7 +2797,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2829,14 +2834,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 5594-2022</t>
+          <t>A 11934-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44595</v>
+        <v>44265</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2849,7 +2854,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2886,14 +2891,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 34656-2021</t>
+          <t>A 8466-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44382</v>
+        <v>44245</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2906,7 +2911,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2943,14 +2948,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33938-2021</t>
+          <t>A 24976-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44378</v>
+        <v>44728.73445601852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,14 +3005,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5598-2022</t>
+          <t>A 52971-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44595</v>
+        <v>44467.62484953704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3020,7 +3025,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3057,14 +3062,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5600-2022</t>
+          <t>A 22585-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44595</v>
+        <v>44714</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3077,7 +3082,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8.9</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3114,14 +3119,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15415-2022</t>
+          <t>A 5594-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44659</v>
+        <v>44595</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3133,13 +3138,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 72213-2021</t>
+          <t>A 50741-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44544.69722222222</v>
+        <v>44460</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24976-2022</t>
+          <t>A 4409-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44728.73445601852</v>
+        <v>44589.46652777777</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22585-2022</t>
+          <t>A 12503-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44714</v>
+        <v>44268</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 50741-2021</t>
+          <t>A 33938-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44460</v>
+        <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 4409-2022</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44589.46652777777</v>
+        <v>45469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12503-2021</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44268</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38210-2022</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44812</v>
+        <v>44895</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 68932-2021</t>
+          <t>A 38210-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44530.4952662037</v>
+        <v>44812</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40164-2022</t>
+          <t>A 68932-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44818</v>
+        <v>44530.4952662037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 40164-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>44818</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 18017-2024</t>
+          <t>A 59842-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45420</v>
+        <v>44908</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3765,13 +3765,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3808,14 +3803,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 18616-2025</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45763.50706018518</v>
+        <v>45272</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3823,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3865,14 +3860,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 42301-2023</t>
+          <t>A 5598-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45180.44994212963</v>
+        <v>44595</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3880,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3922,14 +3917,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45469</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3937,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3979,14 +3974,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 5600-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45435</v>
+        <v>44595</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3994,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>8.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4036,14 +4031,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45448</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4055,13 +4050,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4098,14 +4088,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4117,13 +4107,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4160,14 +4145,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 29255-2025</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45824.38359953704</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4180,7 +4165,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4217,14 +4202,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>45149</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4237,7 +4222,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4274,14 +4259,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40264-2024</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45554.63769675926</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4294,7 +4279,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4331,14 +4316,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4351,7 +4336,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4388,14 +4373,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>45398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4407,8 +4392,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4445,14 +4435,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4465,7 +4455,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4502,14 +4492,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59842-2022</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44908</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4522,7 +4512,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4559,14 +4549,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45883</v>
+        <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4579,7 +4569,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4616,14 +4606,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31128-2023</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45113.69722222222</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4636,7 +4626,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4673,14 +4663,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4693,7 +4683,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4730,14 +4720,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39365-2025</t>
+          <t>A 30479-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45889.5662962963</v>
+        <v>45111.60162037037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4749,13 +4739,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4792,14 +4777,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39367-2025</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45889.57412037037</v>
+        <v>45086</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,13 +4796,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4854,14 +4834,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45156</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4873,8 +4853,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4911,14 +4896,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7974-2025</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45707</v>
+        <v>44860.390625</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4916,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4968,14 +4953,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4973,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5025,14 +5010,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>44895</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5030,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5082,14 +5067,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45797</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5101,13 +5086,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5144,14 +5124,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8701-2023</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44978.35130787037</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5164,7 +5144,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5201,14 +5181,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45890</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5220,13 +5200,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5263,14 +5238,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 60086-2024</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45642.54302083333</v>
+        <v>45492</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5283,7 +5258,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5320,14 +5295,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>45408.386875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5345,7 +5320,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5382,14 +5357,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>44496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5402,7 +5377,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5439,14 +5414,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45109</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5459,7 +5434,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5496,14 +5471,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 42752-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45313</v>
+        <v>45566.49165509259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5515,8 +5490,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>11.7</v>
+        <v>6.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5553,14 +5533,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5573,7 +5553,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5610,14 +5590,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5630,7 +5610,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>6.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5667,14 +5647,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 1567-2023</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44937.60682870371</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5686,8 +5666,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5724,14 +5709,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 18616-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>45763.50706018518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5744,7 +5729,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5781,14 +5766,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 26084-2023</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45091</v>
+        <v>45170</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5800,8 +5785,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5838,14 +5828,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5857,13 +5847,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5900,14 +5885,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 59841-2024</t>
+          <t>A 40264-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45639.67075231481</v>
+        <v>45554.63769675926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5920,7 +5905,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5957,14 +5942,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58683-2024</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45635.61765046296</v>
+        <v>45462</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5977,7 +5962,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>9.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6014,14 +5999,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6019,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6071,14 +6056,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 49435-2024</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45595.85221064815</v>
+        <v>45469</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6076,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6128,14 +6113,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>44812</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6147,13 +6132,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6190,14 +6170,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 12747-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>45384.54314814815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6209,13 +6189,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6252,14 +6227,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45462</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6247,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6309,14 +6284,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45398</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,13 +6303,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6371,14 +6341,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45716</v>
+        <v>44946</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6390,13 +6360,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>4.6</v>
+        <v>7.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6433,14 +6398,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44895</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6452,8 +6417,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6490,14 +6460,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>45707</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6480,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.8</v>
+        <v>7.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6547,14 +6517,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>45820.439375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6566,8 +6536,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6604,14 +6579,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45272</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6599,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6661,14 +6636,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>45140</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6656,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6718,14 +6693,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30479-2023</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45111.60162037037</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6738,7 +6713,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6775,14 +6750,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,13 +6769,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6837,14 +6807,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>44497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6857,7 +6827,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6894,14 +6864,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6914,7 +6884,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6951,14 +6921,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 25407-2025</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45800.6600925926</v>
+        <v>44957</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6971,7 +6941,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7008,14 +6978,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 25219-2025</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45800</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7028,7 +6998,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7065,14 +7035,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 25222-2025</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45800.47864583333</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7085,7 +7055,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7122,14 +7092,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 60086-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45642.54302083333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7141,13 +7111,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7184,14 +7149,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>45196</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7203,13 +7168,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7246,14 +7206,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7265,13 +7225,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7308,14 +7263,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 7233-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44946</v>
+        <v>44970.6025</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7328,7 +7283,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7.3</v>
+        <v>0.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7365,14 +7320,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 52383-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>45224.81199074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7384,13 +7339,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7427,14 +7377,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7397,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7484,14 +7434,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7503,13 +7453,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7546,14 +7491,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 18734-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45820.439375</v>
+        <v>45043</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7565,13 +7510,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7608,14 +7548,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45043</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7628,7 +7568,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7665,14 +7605,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7685,7 +7625,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7722,14 +7662,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 26084-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45385</v>
+        <v>45091</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7742,7 +7682,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7779,14 +7719,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>44953</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7799,7 +7739,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7836,14 +7776,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7855,13 +7795,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7898,14 +7833,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7918,7 +7853,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7955,14 +7890,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 48106-2025</t>
+          <t>A 1567-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45933</v>
+        <v>44937.60682870371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7910,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8012,14 +7947,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8069,14 +8004,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>45435</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8024,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8126,14 +8061,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 18017-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>45420</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8145,8 +8080,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8183,14 +8123,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 31128-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>45113.69722222222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8203,7 +8143,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8240,14 +8180,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 20721-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45776.50532407407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8260,7 +8200,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8297,14 +8237,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44953</v>
+        <v>44687</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,8 +8256,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8354,14 +8299,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 60233-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>45258</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8374,7 +8319,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8411,14 +8356,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,8 +8375,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8468,14 +8418,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 7233-2023</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44970.6025</v>
+        <v>44433</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8488,7 +8438,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8525,14 +8475,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 13509-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>45387.68763888889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8545,7 +8495,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>10.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8582,14 +8532,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 20063-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45772</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8602,7 +8552,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8639,14 +8589,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60233-2023</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45258</v>
+        <v>44701</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8659,7 +8609,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8696,14 +8646,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 20721-2025</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45776.50532407407</v>
+        <v>44698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8716,7 +8666,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8753,14 +8703,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45091</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8773,7 +8723,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8810,14 +8760,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44687</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8829,13 +8779,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8872,14 +8817,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 13509-2024</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45387.68763888889</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8892,7 +8837,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>10.7</v>
+        <v>0.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8929,14 +8874,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>45098</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,8 +8893,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8986,14 +8936,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 20063-2025</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45772</v>
+        <v>44832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9006,7 +8956,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9043,14 +8993,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45196</v>
+        <v>44386</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9063,7 +9013,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9100,14 +9050,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>45091</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9119,13 +9069,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9162,14 +9107,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45707</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9181,8 +9126,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9219,14 +9169,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>45223</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9239,7 +9189,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9276,14 +9226,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44827</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9296,7 +9246,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9333,14 +9283,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45492</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9353,7 +9303,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9390,14 +9340,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45098</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9409,13 +9359,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9452,14 +9397,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9472,7 +9417,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9509,14 +9454,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>45043</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9529,7 +9474,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9566,14 +9511,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45628</v>
+        <v>45313.3825</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9586,7 +9531,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9623,14 +9568,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45086</v>
+        <v>45469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9643,7 +9588,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9680,14 +9625,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,13 +9644,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>21.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9742,14 +9682,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9761,13 +9701,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9804,14 +9739,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>45448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9823,8 +9758,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9861,14 +9801,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>44687</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9881,7 +9821,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9918,14 +9858,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 42301-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>45180.44994212963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9938,7 +9878,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9975,14 +9915,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 46190-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>45196</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9994,13 +9934,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10037,14 +9972,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>45156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10056,13 +9991,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10099,14 +10029,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10119,7 +10049,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10156,14 +10086,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44433</v>
+        <v>44827</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10176,7 +10106,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10213,14 +10143,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10233,7 +10163,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10270,14 +10200,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45959</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10290,7 +10220,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10327,14 +10257,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45959</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10347,7 +10277,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10384,14 +10314,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>45883</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10403,13 +10333,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10446,14 +10371,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>44909</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10466,7 +10391,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10503,14 +10428,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 29255-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45448</v>
+        <v>45824.38359953704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,13 +10447,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10565,14 +10485,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 46190-2023</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45196</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10585,7 +10505,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10622,14 +10542,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48985-2022</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44860</v>
+        <v>45385</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10642,7 +10562,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10679,14 +10599,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44701</v>
+        <v>44995</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10699,7 +10619,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>13.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10736,14 +10656,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44698</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10676,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10793,14 +10713,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>45797</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,8 +10732,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10850,14 +10775,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46037.566875</v>
+        <v>45621.559375</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10870,7 +10795,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10907,14 +10832,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44497</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10927,7 +10852,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10964,14 +10889,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10983,13 +10908,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11026,14 +10946,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,8 +10965,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11083,14 +11008,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 52383-2023</t>
+          <t>A 50043-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45224.81199074074</v>
+        <v>45215.49396990741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11103,7 +11028,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11140,14 +11065,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 39365-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>45889.5662962963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,8 +11084,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11197,14 +11127,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 39367-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>45889.57412037037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11222,7 +11152,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11259,14 +11189,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>45890</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,8 +11208,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>5.4</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11316,14 +11251,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45408.386875</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,13 +11270,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11378,14 +11308,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>45356</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11398,7 +11328,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11435,14 +11365,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45356</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11455,7 +11385,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11492,14 +11422,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45469</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11512,7 +11442,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11549,14 +11479,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 12747-2024</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45384.54314814815</v>
+        <v>44743</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11569,7 +11499,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11606,14 +11536,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 48985-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>44860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11626,7 +11556,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11663,14 +11593,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45149</v>
+        <v>45628</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11683,7 +11613,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11720,14 +11650,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 8701-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>44978.35130787037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11740,7 +11670,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11777,14 +11707,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>45448</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11796,8 +11726,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11834,14 +11769,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 7974-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44386</v>
+        <v>45707</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11854,7 +11789,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11891,14 +11826,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 17705-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>45758.43197916666</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11910,8 +11845,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11948,14 +11888,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 17709-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>45758.43493055556</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11967,8 +11907,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12005,14 +11950,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12024,8 +11969,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12062,14 +12012,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>45313</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12081,13 +12031,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12124,14 +12069,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44895</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12143,8 +12088,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12181,14 +12131,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12200,8 +12150,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12238,14 +12193,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44832</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12257,8 +12212,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12295,14 +12255,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45170</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12320,7 +12280,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12357,14 +12317,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12382,7 +12342,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12419,14 +12379,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 59841-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>45639.67075231481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12439,7 +12399,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12476,14 +12436,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45469</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12496,7 +12456,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12533,14 +12493,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45313.3825</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12553,7 +12513,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12590,14 +12550,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12610,7 +12570,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12647,14 +12607,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 48106-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>45933</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12667,7 +12627,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12704,14 +12664,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 49435-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44687</v>
+        <v>45595.85221064815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12724,7 +12684,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12761,14 +12721,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45043</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12781,7 +12741,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12818,14 +12778,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 9752-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>45716</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12837,8 +12797,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12875,14 +12840,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 50043-2023</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45215.49396990741</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12894,8 +12859,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12932,14 +12902,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 7530-2026</t>
+          <t>A 9756-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46059.61744212963</v>
+        <v>45716.47010416666</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,6 +12919,11 @@
       <c r="E209" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G209" t="n">
@@ -12989,14 +12964,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7531-2026</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46059.61849537037</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13009,7 +12984,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13046,14 +13021,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44957</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13065,8 +13040,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13103,14 +13083,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 25222-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>45800.47864583333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13123,7 +13103,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13160,14 +13140,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 25219-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44496</v>
+        <v>45800</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13180,7 +13160,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13217,14 +13197,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 7522-2026</t>
+          <t>A 25407-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46059</v>
+        <v>45800.6600925926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13237,7 +13217,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>8.4</v>
+        <v>2.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13274,14 +13254,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13294,7 +13274,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13331,14 +13311,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13351,7 +13331,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13388,14 +13368,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>45959</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13408,7 +13388,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13445,14 +13425,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>45959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13465,7 +13445,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13502,14 +13482,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 18734-2023</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45043</v>
+        <v>46037.566875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13522,7 +13502,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13559,14 +13539,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45140</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13578,8 +13558,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13616,14 +13601,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13635,8 +13620,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13673,14 +13663,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44995</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13693,7 +13683,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>13.5</v>
+        <v>1.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13730,14 +13720,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13750,7 +13740,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13787,14 +13777,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44743</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13807,7 +13797,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13844,14 +13834,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45099</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13864,7 +13854,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13901,14 +13891,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44812</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13921,7 +13911,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13958,14 +13948,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45621.559375</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13977,8 +13967,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14015,14 +14010,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14034,8 +14029,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>21.6</v>
+        <v>2.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14072,14 +14072,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45223</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14129,14 +14129,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14186,14 +14186,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44909</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14243,14 +14243,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14300,14 +14300,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14357,14 +14357,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>46059</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.2</v>
+        <v>8.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 21050-2021</t>
+          <t>A 50318-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44319</v>
+        <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1077,134 +1077,134 @@
         </is>
       </c>
       <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 50318-2021 artfynd.xlsx", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 50318-2021 karta.png", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="U7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/knärot/A 50318-2021 karta knärot.png", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 50318-2021 FSC-klagomål.docx", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 50318-2021 FSC-klagomål mail.docx", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 50318-2021 tillsynsbegäran.docx", "A 50318-2021")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 50318-2021 tillsynsbegäran mail.docx", "A 50318-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 21050-2021</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44319</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 21050-2021 artfynd.xlsx", "A 21050-2021")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 21050-2021 karta.png", "A 21050-2021")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/knärot/A 21050-2021 karta knärot.png", "A 21050-2021")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 21050-2021 FSC-klagomål.docx", "A 21050-2021")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 21050-2021 FSC-klagomål mail.docx", "A 21050-2021")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 21050-2021 tillsynsbegäran.docx", "A 21050-2021")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 21050-2021 tillsynsbegäran mail.docx", "A 21050-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 50318-2021</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44459</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 50318-2021 artfynd.xlsx", "A 50318-2021")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 50318-2021 karta.png", "A 50318-2021")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/knärot/A 50318-2021 karta knärot.png", "A 50318-2021")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 50318-2021 FSC-klagomål.docx", "A 50318-2021")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 50318-2021 FSC-klagomål mail.docx", "A 50318-2021")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 50318-2021 tillsynsbegäran.docx", "A 50318-2021")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 50318-2021 tillsynsbegäran mail.docx", "A 50318-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 9277-2023</t>
+          <t>A 33610-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44980</v>
+        <v>45841.61888888889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>11.2</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1251,31 +1251,31 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Lundbräsma</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         <v>44299</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,14 +1367,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 33610-2025</t>
+          <t>A 48101-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45841.61888888889</v>
+        <v>45933</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,20 +1387,20 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>11.2</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -1411,55 +1411,55 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Lundbräsma</t>
+          <t>Plattsäv</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 48101-2025</t>
+          <t>A 9277-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45933</v>
+        <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1496,41 +1496,41 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Plattsäv</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>45973.43586805555</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44421.5517824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44799</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,14 +2487,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 34656-2021</t>
+          <t>A 35768-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44382</v>
+        <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2544,14 +2544,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35768-2021</t>
+          <t>A 34658-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44386</v>
+        <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,14 +2601,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 15415-2022</t>
+          <t>A 33940-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44659</v>
+        <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2620,13 +2620,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2663,14 +2658,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 34658-2021</t>
+          <t>A 11934-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44382</v>
+        <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2683,7 +2678,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2720,14 +2715,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 72213-2021</t>
+          <t>A 8466-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44544.69722222222</v>
+        <v>44245</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2740,7 +2735,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2777,14 +2772,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33940-2021</t>
+          <t>A 52971-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44378.80239583334</v>
+        <v>44467.62484953704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2797,7 +2792,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2834,14 +2829,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 11934-2021</t>
+          <t>A 5594-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44265</v>
+        <v>44595</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2854,7 +2849,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2891,14 +2886,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8466-2021</t>
+          <t>A 34656-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44245</v>
+        <v>44382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2911,7 +2906,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2948,14 +2943,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 24976-2022</t>
+          <t>A 33938-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44728.73445601852</v>
+        <v>44378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,14 +3000,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 52971-2021</t>
+          <t>A 5598-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44467.62484953704</v>
+        <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3020,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3062,14 +3057,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 22585-2022</t>
+          <t>A 5600-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44714</v>
+        <v>44595</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3082,7 +3077,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>8.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3119,14 +3114,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 5594-2022</t>
+          <t>A 15415-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44595</v>
+        <v>44659</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3138,8 +3133,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 50741-2021</t>
+          <t>A 72213-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44460</v>
+        <v>44544.69722222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 4409-2022</t>
+          <t>A 24976-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44589.46652777777</v>
+        <v>44728.73445601852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12503-2021</t>
+          <t>A 22585-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44268</v>
+        <v>44714</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 33938-2021</t>
+          <t>A 50741-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44378</v>
+        <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 4409-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45469</v>
+        <v>44589.46652777777</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 12503-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>44268</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 38210-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44895</v>
+        <v>44812</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38210-2022</t>
+          <t>A 68932-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44812</v>
+        <v>44530.4952662037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 68932-2021</t>
+          <t>A 40164-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44530.4952662037</v>
+        <v>44818</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40164-2022</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44818</v>
+        <v>45469</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 59842-2022</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44908</v>
+        <v>45435</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 18017-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45272</v>
+        <v>45420</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3822,8 +3822,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3860,14 +3865,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 5598-2022</t>
+          <t>A 18616-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44595</v>
+        <v>45763.50706018518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3880,7 +3885,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3917,14 +3922,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 42301-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>45180.44994212963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3937,7 +3942,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3974,14 +3979,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 5600-2022</t>
+          <t>A 40264-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44595</v>
+        <v>45554.63769675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3994,7 +3999,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>8.9</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4031,14 +4036,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 59842-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>44908</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4051,7 +4056,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4088,14 +4093,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4108,7 +4113,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4145,14 +4150,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4165,7 +4170,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4202,14 +4207,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 31128-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45149</v>
+        <v>45113.69722222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4222,7 +4227,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4259,14 +4264,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 60086-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>45642.54302083333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4279,7 +4284,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4316,14 +4321,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 7974-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>45707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4336,7 +4341,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4373,14 +4378,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 8701-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45398</v>
+        <v>44978.35130787037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4392,13 +4397,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4435,14 +4435,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 1567-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>44937.60682870371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4492,14 +4492,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 26084-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>45091</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4549,14 +4549,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45109</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4606,14 +4606,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 29255-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>45824.38359953704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4663,14 +4663,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4682,8 +4682,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4720,14 +4725,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30479-2023</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45111.60162037037</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4745,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4777,14 +4782,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45086</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4802,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4834,14 +4839,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>45462</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4853,13 +4858,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4896,14 +4896,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45398</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4915,8 +4915,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4953,14 +4958,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 25407-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>45800.6600925926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4978,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5010,14 +5015,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 25219-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44895</v>
+        <v>45800</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5035,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5067,14 +5072,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5092,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5124,14 +5129,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 25222-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>45800.47864583333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5149,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5181,14 +5186,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>45883</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5206,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5238,14 +5243,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45492</v>
+        <v>46059</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5263,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>8.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5295,14 +5300,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45408.386875</v>
+        <v>44895</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5314,13 +5319,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5357,14 +5357,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44496</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5414,14 +5414,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5471,14 +5471,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>45272</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5490,13 +5490,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5533,14 +5528,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5553,7 +5548,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5590,14 +5585,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 30479-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>45111.60162037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5610,7 +5605,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6.8</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5647,14 +5642,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 39365-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>45889.5662962963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5668,11 +5663,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5709,14 +5704,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18616-2025</t>
+          <t>A 39367-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45763.50706018518</v>
+        <v>45889.57412037037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5728,8 +5723,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5766,14 +5766,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45170</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5785,13 +5785,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5828,14 +5823,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>44946</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5843,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5885,14 +5880,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40264-2024</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45554.63769675926</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5900,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5942,14 +5937,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45462</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5957,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5999,14 +5994,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>45797</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6018,8 +6013,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6056,14 +6056,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45469</v>
+        <v>45890</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6075,8 +6075,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6113,14 +6118,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44812</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6132,8 +6137,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6170,14 +6180,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12747-2024</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45384.54314814815</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,8 +6199,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6227,14 +6242,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>45820.439375</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,8 +6261,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6284,14 +6304,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6324,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6341,14 +6361,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44946</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6381,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6398,14 +6418,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>45043</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,13 +6437,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6460,14 +6475,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45707</v>
+        <v>44953</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6495,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7.3</v>
+        <v>3.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6517,14 +6532,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45820.439375</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6536,13 +6551,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6579,14 +6589,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>45385</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6599,7 +6609,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6636,14 +6646,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45140</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6656,7 +6666,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6693,14 +6703,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6712,8 +6722,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6750,14 +6765,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45099</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6770,7 +6785,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6807,14 +6822,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 60233-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44497</v>
+        <v>45258</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6827,7 +6842,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6864,14 +6879,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 20721-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>45776.50532407407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6884,7 +6899,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6921,14 +6936,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44957</v>
+        <v>44687</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,8 +6955,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6978,14 +6998,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6998,7 +7018,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7035,14 +7055,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7055,7 +7075,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7092,14 +7112,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 60086-2024</t>
+          <t>A 13509-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45642.54302083333</v>
+        <v>45387.68763888889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7112,7 +7132,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.8</v>
+        <v>10.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7149,14 +7169,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 20063-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45196</v>
+        <v>45772</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7169,7 +7189,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7206,14 +7226,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45043</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7226,7 +7246,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7270,7 +7290,7 @@
         <v>44970.6025</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7320,14 +7340,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52383-2023</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45224.81199074074</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7340,7 +7360,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7377,14 +7397,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>44860.390625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7434,14 +7454,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>45091</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7454,7 +7474,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7491,14 +7511,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 18734-2023</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45043</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7511,7 +7531,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7548,14 +7568,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>45196</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7568,7 +7588,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7605,14 +7625,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,8 +7644,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7662,14 +7687,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 26084-2023</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45091</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7682,7 +7707,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7719,14 +7744,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44953</v>
+        <v>45707</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7739,7 +7764,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.7</v>
+        <v>7.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7776,14 +7801,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7796,7 +7821,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7833,14 +7858,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>44827</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7853,7 +7878,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7890,14 +7915,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 1567-2023</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44937.60682870371</v>
+        <v>45492</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7910,7 +7935,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7947,14 +7972,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7966,8 +7991,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8004,14 +8034,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45435</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,8 +8053,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8061,14 +8096,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 18017-2024</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45420</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8082,11 +8117,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8123,14 +8158,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 31128-2023</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45113.69722222222</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8142,8 +8177,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8180,14 +8220,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 20721-2025</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45776.50532407407</v>
+        <v>45098</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8199,8 +8239,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8237,14 +8282,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44687</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8256,13 +8301,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>3.9</v>
+        <v>0.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8299,14 +8339,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60233-2023</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45258</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8319,7 +8359,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8356,14 +8396,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,13 +8415,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8418,14 +8453,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44433</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8438,7 +8473,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8475,14 +8510,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 13509-2024</t>
+          <t>A 48106-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45387.68763888889</v>
+        <v>45933</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8495,7 +8530,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>10.7</v>
+        <v>3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8532,14 +8567,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 20063-2025</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45772</v>
+        <v>45628</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8552,7 +8587,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8589,14 +8624,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44701</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8609,7 +8644,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8646,14 +8681,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44698</v>
+        <v>45086</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8701,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8703,14 +8738,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 17705-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>45758.43197916666</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8722,8 +8757,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8760,14 +8800,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 17709-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>45758.43493055556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8779,8 +8819,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8817,14 +8862,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8837,7 +8882,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8874,14 +8919,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45098</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8893,13 +8938,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8936,14 +8976,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44832</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8955,8 +8995,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8993,14 +9038,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44386</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9012,8 +9057,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9050,14 +9100,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45091</v>
+        <v>44433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9070,7 +9120,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9107,14 +9157,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9132,7 +9182,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9169,14 +9219,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45223</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9189,7 +9239,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9226,14 +9276,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>45448</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,8 +9295,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9283,14 +9338,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 46190-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>45196</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9303,7 +9358,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9340,14 +9395,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 48985-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>44860</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9360,7 +9415,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9397,14 +9452,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9417,7 +9472,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9454,14 +9509,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45043</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,8 +9528,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9511,14 +9571,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45313.3825</v>
+        <v>44701</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9531,7 +9591,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9568,14 +9628,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45469</v>
+        <v>44698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9588,7 +9648,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9625,14 +9685,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9645,7 +9705,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>21.6</v>
+        <v>2.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9682,14 +9742,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>44497</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9702,7 +9762,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.2</v>
+        <v>4.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9739,14 +9799,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45448</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,13 +9818,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9801,14 +9856,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44687</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9821,7 +9876,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9858,14 +9913,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 42301-2023</t>
+          <t>A 52383-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45180.44994212963</v>
+        <v>45224.81199074074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9878,7 +9933,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9915,14 +9970,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 46190-2023</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45196</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9935,7 +9990,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9972,14 +10027,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45156</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9992,7 +10047,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10029,14 +10084,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>45959</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10049,7 +10104,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10086,14 +10141,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44827</v>
+        <v>45408.386875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,8 +10160,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10143,14 +10203,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>45959</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10163,7 +10223,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10200,14 +10260,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>45356</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10220,7 +10280,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10257,14 +10317,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>45469</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10277,7 +10337,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10314,14 +10374,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 12747-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45883</v>
+        <v>45384.54314814815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10334,7 +10394,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10371,14 +10431,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44909</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10391,7 +10451,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10428,14 +10488,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 29255-2025</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45824.38359953704</v>
+        <v>45149</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10448,7 +10508,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10485,14 +10545,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>44386</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10505,7 +10565,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10542,14 +10602,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45385</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10562,7 +10622,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10599,14 +10659,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44995</v>
+        <v>44895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10619,7 +10679,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>13.5</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10656,14 +10716,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10676,7 +10736,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10713,14 +10773,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45797</v>
+        <v>44832</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10732,13 +10792,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10775,14 +10830,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45621.559375</v>
+        <v>45170</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10794,8 +10849,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10832,14 +10892,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10852,7 +10912,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10889,14 +10949,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>45469</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10909,7 +10969,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10946,14 +11006,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>45313.3825</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10965,13 +11025,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11008,14 +11063,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 50043-2023</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45215.49396990741</v>
+        <v>46037.566875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11028,7 +11083,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11065,14 +11120,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 39365-2025</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45889.5662962963</v>
+        <v>44687</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11084,13 +11139,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11127,14 +11177,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 39367-2025</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45889.57412037037</v>
+        <v>45043</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,13 +11196,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11189,14 +11234,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45890</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11208,13 +11253,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11251,14 +11291,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11268,6 +11308,11 @@
       <c r="E181" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G181" t="n">
@@ -11308,14 +11353,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 50043-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45356</v>
+        <v>45215.49396990741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11328,7 +11373,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11365,14 +11410,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>44957</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11385,7 +11430,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11422,14 +11467,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11441,8 +11486,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>1.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11479,14 +11529,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44743</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11499,7 +11549,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11536,14 +11586,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 48985-2022</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44860</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11556,7 +11606,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11593,14 +11643,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45628</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11613,7 +11663,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11650,14 +11700,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 8701-2023</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44978.35130787037</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11670,7 +11720,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11707,14 +11757,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45448</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11726,13 +11776,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11769,14 +11814,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 7974-2025</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45707</v>
+        <v>44496</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11789,7 +11834,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11826,14 +11871,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11845,13 +11890,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11888,14 +11928,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11907,13 +11947,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11950,14 +11985,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11971,11 +12006,11 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12012,14 +12047,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45313</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12032,7 +12067,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>11.7</v>
+        <v>3.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12069,14 +12104,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12090,11 +12125,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12131,14 +12166,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12150,13 +12185,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12193,14 +12223,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12212,13 +12242,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12255,14 +12280,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12274,13 +12299,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12317,14 +12337,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12336,13 +12356,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12379,14 +12394,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 59841-2024</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45639.67075231481</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12399,7 +12414,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12436,14 +12451,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 18734-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>45043</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12456,7 +12471,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12493,14 +12508,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45140</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12513,7 +12528,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12550,14 +12565,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12570,7 +12585,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12607,14 +12622,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 48106-2025</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45933</v>
+        <v>44995</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12627,7 +12642,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>13.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12664,14 +12679,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 49435-2024</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45595.85221064815</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12684,7 +12699,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12721,14 +12736,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 58683-2024</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45635.61765046296</v>
+        <v>44743</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12741,7 +12756,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>9.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12778,14 +12793,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45716</v>
+        <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12797,13 +12812,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12840,14 +12850,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>44812</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12859,13 +12869,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12902,14 +12907,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>45621.559375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12921,13 +12926,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12964,14 +12964,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>21.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13021,14 +13021,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>45223</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13040,13 +13040,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13083,14 +13078,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 25222-2025</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45800.47864583333</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13103,7 +13098,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13140,14 +13135,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 25219-2025</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45800</v>
+        <v>44909</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13160,7 +13155,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13197,14 +13192,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 25407-2025</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45800.6600925926</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13217,7 +13212,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13254,14 +13249,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13311,14 +13306,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13331,7 +13326,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13368,14 +13363,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45959</v>
+        <v>45448</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13387,8 +13382,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13425,14 +13425,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45959</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13444,8 +13444,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13482,14 +13487,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46037.566875</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13502,7 +13507,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13539,14 +13544,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13558,13 +13563,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13601,14 +13601,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>45156</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13620,13 +13620,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13663,14 +13658,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13683,7 +13678,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13720,14 +13715,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13740,7 +13735,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13777,14 +13772,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13797,7 +13792,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13834,14 +13829,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>45109</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13854,7 +13849,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13891,14 +13886,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>45313</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13911,7 +13906,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.9</v>
+        <v>11.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13948,14 +13943,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13967,13 +13962,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14010,14 +14000,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14029,13 +14019,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14072,14 +14057,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 42752-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>45566.49165509259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14091,8 +14076,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14129,14 +14119,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 59841-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>45639.67075231481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14149,7 +14139,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14186,14 +14176,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14206,7 +14196,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14243,14 +14233,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 7530-2026</t>
+          <t>A 49435-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46059.61744212963</v>
+        <v>45595.85221064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14263,7 +14253,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14300,14 +14290,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 7531-2026</t>
+          <t>A 9756-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46059.61849537037</v>
+        <v>45716.47010416666</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14319,8 +14309,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14357,14 +14352,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 7522-2026</t>
+          <t>A 9752-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46059</v>
+        <v>45716</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14376,8 +14371,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45841.61888888889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,14 +1282,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 17546-2021</t>
+          <t>A 48101-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44299</v>
+        <v>45933</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,20 +1302,20 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1326,304 +1326,304 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Plattsäv</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 55928-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45973.43586805555</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 17546-2021</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44299</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Blomkålssvamp</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 48101-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45933</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 9277-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Plattsäv</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 9277-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 55928-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45973.43586805555</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,14 +1741,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 40946-2021</t>
+          <t>A 35607-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44421.5517824074</v>
+        <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1798,14 +1798,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 35607-2022</t>
+          <t>A 40946-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44799</v>
+        <v>44421.5517824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,14 +2140,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 74491-2021</t>
+          <t>A 28632-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44560.6203587963</v>
+        <v>44357.31700231481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>13.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2197,14 +2197,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 28632-2021</t>
+          <t>A 6251-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44357.31700231481</v>
+        <v>44600.44402777778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2216,8 +2216,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>13.4</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2254,14 +2259,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 6251-2022</t>
+          <t>A 52537-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44600.44402777778</v>
+        <v>44874</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2273,13 +2278,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2316,14 +2316,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 52537-2022</t>
+          <t>A 74491-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44874</v>
+        <v>44560.6203587963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44245</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44595</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44595</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>44659</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>44728.73445601852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44714</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44268</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44812</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44530.4952662037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44818</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3689,14 +3689,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 18017-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45469</v>
+        <v>45420</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3708,8 +3708,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3746,14 +3751,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45435</v>
+        <v>45469</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3766,7 +3771,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3803,14 +3808,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 18017-2024</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45420</v>
+        <v>45435</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3822,13 +3827,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>45763.50706018518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45180.44994212963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>45554.63769675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4036,14 +4036,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59842-2022</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44908</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4093,14 +4093,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4150,14 +4150,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 59842-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>44908</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>45113.69722222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>45642.54302083333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>45707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44978.35130787037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44937.60682870371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>45091</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4549,14 +4549,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 9756-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>45716.47010416666</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4568,8 +4568,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4613,7 +4618,7 @@
         <v>45824.38359953704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4663,14 +4668,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4682,13 +4687,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4725,14 +4725,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 7530-2026</t>
+          <t>A 9752-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46059.61744212963</v>
+        <v>45716</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4744,8 +4744,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4782,14 +4787,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7531-2026</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46059.61849537037</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4807,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4839,14 +4844,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45462</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4864,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4896,14 +4901,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45398</v>
+        <v>45883</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4915,13 +4920,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4958,14 +4958,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25407-2025</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45800.6600925926</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5015,14 +5015,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25219-2025</t>
+          <t>A 39365-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45800</v>
+        <v>45889.5662962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5034,8 +5034,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5072,14 +5077,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 39367-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>45889.57412037037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5091,8 +5096,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5129,14 +5139,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25222-2025</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45800.47864583333</v>
+        <v>45797</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5148,8 +5158,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5186,14 +5201,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45883</v>
+        <v>45890</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5205,8 +5220,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5243,14 +5263,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 7522-2026</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46059</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5262,8 +5282,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>8.4</v>
+        <v>2.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5300,14 +5325,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44895</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5319,8 +5344,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5357,14 +5387,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 25407-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>45800.6600925926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5377,7 +5407,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5414,14 +5444,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 25219-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>45800</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5434,7 +5464,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5471,14 +5501,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 25222-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45272</v>
+        <v>45800.47864583333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5491,7 +5521,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5528,14 +5558,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>45462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5548,7 +5578,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5585,14 +5615,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30479-2023</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45111.60162037037</v>
+        <v>45398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5604,8 +5634,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5642,14 +5677,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39365-2025</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45889.5662962963</v>
+        <v>44895</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5661,13 +5696,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5704,14 +5734,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39367-2025</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45889.57412037037</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,13 +5753,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5766,14 +5791,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5786,7 +5811,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5823,14 +5848,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44946</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5843,7 +5868,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5880,14 +5905,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>45272</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5900,7 +5925,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>7.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5937,14 +5962,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5957,7 +5982,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5994,14 +6019,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45797</v>
+        <v>44946</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6013,13 +6038,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>7.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6056,14 +6076,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 30479-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45890</v>
+        <v>45111.60162037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6075,13 +6095,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6118,14 +6133,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,13 +6152,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6180,14 +6190,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6199,13 +6209,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6242,14 +6247,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45820.439375</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6261,13 +6266,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6304,14 +6304,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6361,14 +6361,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6380,8 +6380,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6418,14 +6423,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45043</v>
+        <v>45820.439375</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,8 +6442,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6475,14 +6485,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44953</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6495,7 +6505,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6532,14 +6542,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6552,7 +6562,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6589,14 +6599,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45385</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6609,7 +6619,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6646,14 +6656,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6665,8 +6675,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6703,14 +6718,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6728,7 +6743,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6765,14 +6780,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6784,8 +6799,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6822,14 +6842,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60233-2023</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45258</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6842,7 +6862,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6879,14 +6899,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 20721-2025</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45776.50532407407</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6898,8 +6918,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6936,14 +6961,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44687</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6957,11 +6982,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6998,14 +7023,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7018,7 +7043,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7055,14 +7080,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7074,8 +7099,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7112,14 +7142,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13509-2024</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45387.68763888889</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7131,8 +7161,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>10.7</v>
+        <v>2.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7169,14 +7204,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 20063-2025</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45772</v>
+        <v>44953</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7189,7 +7224,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7226,14 +7261,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7246,7 +7281,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7283,14 +7318,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7233-2023</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44970.6025</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7303,7 +7338,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7340,14 +7375,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7360,7 +7395,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7397,14 +7432,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45043</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7417,7 +7452,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7454,14 +7489,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45091</v>
+        <v>45385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7474,7 +7509,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7511,14 +7546,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7531,7 +7566,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7568,14 +7603,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 48106-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45196</v>
+        <v>45933</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7588,7 +7623,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7625,14 +7660,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 60233-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>45258</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,13 +7679,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7687,14 +7717,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 20721-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>45776.50532407407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7707,7 +7737,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7744,14 +7774,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45707</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7764,7 +7794,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7801,14 +7831,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7821,7 +7851,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7858,14 +7888,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44827</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7877,8 +7907,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7915,14 +7950,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45492</v>
+        <v>44687</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7934,8 +7969,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7972,14 +8012,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 13509-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45387.68763888889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7991,13 +8031,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>10.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8034,14 +8069,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 20063-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>45772</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8053,13 +8088,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8096,14 +8126,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8115,13 +8145,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8158,14 +8183,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8177,13 +8202,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8220,14 +8240,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45098</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,14 +8302,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8302,7 +8322,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8339,14 +8359,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8359,7 +8379,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8396,14 +8416,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 7233-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>44970.6025</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8416,7 +8436,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8453,14 +8473,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8473,7 +8493,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8510,14 +8530,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 48106-2025</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45933</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8530,7 +8550,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8567,14 +8587,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45628</v>
+        <v>44860.390625</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8587,7 +8607,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8624,14 +8644,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8644,7 +8664,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8681,14 +8701,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45086</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8701,7 +8721,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8738,14 +8758,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,13 +8777,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8800,14 +8815,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8821,11 +8836,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8862,14 +8877,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>45091</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8882,7 +8897,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8919,14 +8934,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8939,7 +8954,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8976,14 +8991,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>45196</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8995,13 +9010,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9038,14 +9048,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>46059</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9057,13 +9067,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>8.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9100,14 +9105,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44433</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9120,7 +9125,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9157,14 +9162,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>45707</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9176,13 +9181,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>4.8</v>
+        <v>7.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9219,14 +9219,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9276,14 +9276,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45448</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9295,13 +9295,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9338,14 +9333,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 46190-2023</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45196</v>
+        <v>45959</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9358,7 +9353,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9395,14 +9390,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48985-2022</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44860</v>
+        <v>45959</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9415,7 +9410,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9452,14 +9447,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>44827</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9472,7 +9467,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9509,14 +9504,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>45492</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,13 +9523,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9571,14 +9561,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44701</v>
+        <v>45098</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,8 +9580,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9628,14 +9623,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44698</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9648,7 +9643,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9685,14 +9680,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9705,7 +9700,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9742,14 +9737,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44497</v>
+        <v>45628</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9762,7 +9757,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9799,14 +9794,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>45086</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9856,14 +9851,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 17705-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>45758.43197916666</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9875,8 +9870,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9913,14 +9913,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 52383-2023</t>
+          <t>A 17709-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45224.81199074074</v>
+        <v>45758.43493055556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9932,8 +9932,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9970,14 +9975,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9990,7 +9995,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10027,14 +10032,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10047,7 +10052,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10084,14 +10089,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45959</v>
+        <v>46037.566875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10104,7 +10109,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10141,14 +10146,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45408.386875</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10166,7 +10171,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10203,14 +10208,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45959</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10222,8 +10227,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10260,14 +10270,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45356</v>
+        <v>44433</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10280,7 +10290,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10317,14 +10327,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45469</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10336,8 +10346,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10374,14 +10389,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 12747-2024</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45384.54314814815</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10393,8 +10408,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10431,14 +10451,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10471,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10488,14 +10508,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45149</v>
+        <v>45448</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10507,8 +10527,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10545,14 +10570,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 46190-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44386</v>
+        <v>45196</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10565,7 +10590,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10602,14 +10627,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 48985-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>44860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10622,7 +10647,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10659,14 +10684,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44895</v>
+        <v>44701</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10679,7 +10704,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10716,14 +10741,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10736,7 +10761,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10773,14 +10798,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44832</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10793,7 +10818,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10830,14 +10855,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45170</v>
+        <v>44497</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,13 +10874,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10892,14 +10912,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10912,7 +10932,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10949,14 +10969,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 52383-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45469</v>
+        <v>45224.81199074074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10969,7 +10989,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11006,14 +11026,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45313.3825</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11026,7 +11046,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11063,14 +11083,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46037.566875</v>
+        <v>45408.386875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11082,8 +11102,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11120,14 +11145,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44687</v>
+        <v>45356</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11140,7 +11165,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11177,14 +11202,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45043</v>
+        <v>45469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11197,7 +11222,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11234,14 +11259,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 12747-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>45384.54314814815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11254,7 +11279,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11291,14 +11316,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11310,13 +11335,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11353,14 +11373,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 50043-2023</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45215.49396990741</v>
+        <v>45149</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11410,14 +11430,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44957</v>
+        <v>44386</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11430,7 +11450,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11467,14 +11487,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11486,13 +11506,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>8.199999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11529,14 +11544,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>44895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11549,7 +11564,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11586,14 +11601,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11606,7 +11621,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11643,14 +11658,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>44832</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11663,7 +11678,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11700,14 +11715,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>45170</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11719,8 +11734,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11757,14 +11777,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11777,7 +11797,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11814,14 +11834,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44496</v>
+        <v>45469</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11834,7 +11854,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11871,14 +11891,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>45313.3825</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11891,7 +11911,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11928,14 +11948,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>44687</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11948,7 +11968,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11985,14 +12005,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>45043</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12004,13 +12024,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12047,14 +12062,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12067,7 +12082,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12104,14 +12119,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 50043-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>45215.49396990741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12123,13 +12138,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12166,14 +12176,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>44957</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12186,7 +12196,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12223,14 +12233,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12243,7 +12253,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12280,14 +12290,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>44496</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12300,7 +12310,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12337,14 +12347,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12357,7 +12367,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12394,14 +12404,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12414,7 +12424,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12451,14 +12461,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 18734-2023</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45043</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12471,7 +12481,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12508,14 +12518,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45140</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12528,7 +12538,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12565,14 +12575,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 18734-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12585,7 +12595,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12622,14 +12632,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44995</v>
+        <v>45140</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12642,7 +12652,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>13.5</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12679,14 +12689,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12699,7 +12709,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12736,14 +12746,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44743</v>
+        <v>44995</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12756,7 +12766,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.7</v>
+        <v>13.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12793,14 +12803,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45099</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12813,7 +12823,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12850,14 +12860,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44812</v>
+        <v>44743</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12870,7 +12880,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12907,14 +12917,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45621.559375</v>
+        <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12927,7 +12937,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12964,14 +12974,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>44812</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12984,7 +12994,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>21.6</v>
+        <v>1.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13021,14 +13031,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45223</v>
+        <v>45621.559375</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13041,7 +13051,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13078,14 +13088,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13098,7 +13108,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>21.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13135,14 +13145,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44909</v>
+        <v>45223</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13155,7 +13165,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13192,14 +13202,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13212,7 +13222,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13249,14 +13259,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>44909</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13269,7 +13279,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13306,14 +13316,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13326,7 +13336,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13363,14 +13373,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45448</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13382,13 +13392,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13425,14 +13430,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13444,13 +13449,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13487,14 +13487,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>45448</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13506,8 +13506,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13544,14 +13549,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13563,8 +13568,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13601,14 +13611,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45156</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13621,7 +13631,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13658,14 +13668,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13678,7 +13688,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13715,14 +13725,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>45156</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13735,7 +13745,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13772,14 +13782,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13792,7 +13802,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13829,14 +13839,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45109</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13849,7 +13859,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13886,14 +13896,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45313</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13906,7 +13916,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>11.7</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13943,14 +13953,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>45109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13963,7 +13973,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14000,14 +14010,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>45313</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14020,7 +14030,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.5</v>
+        <v>11.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14057,14 +14067,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14076,13 +14086,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14119,14 +14124,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 59841-2024</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45639.67075231481</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14139,7 +14144,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14176,14 +14181,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58683-2024</t>
+          <t>A 42752-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45635.61765046296</v>
+        <v>45566.49165509259</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14195,8 +14200,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14233,14 +14243,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 49435-2024</t>
+          <t>A 59841-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45595.85221064815</v>
+        <v>45639.67075231481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14253,7 +14263,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14290,14 +14300,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14309,13 +14319,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>1.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14352,14 +14357,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 49435-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45716</v>
+        <v>45595.85221064815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14371,13 +14376,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z234"/>
+  <dimension ref="A1:Z233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 33610-2025</t>
+          <t>A 55928-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45841.61888888889</v>
+        <v>45973.43586805555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1216,18 +1216,23 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>11.2</v>
+        <v>5.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1251,31 +1256,31 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Lundbräsma</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
         <v/>
       </c>
     </row>
@@ -1289,7 +1294,7 @@
         <v>45933</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,14 +1372,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 55928-2025</t>
+          <t>A 33610-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45973.43586805555</v>
+        <v>45841.61888888889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1386,22 +1391,17 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>5.1</v>
+        <v>11.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1426,31 +1426,31 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Lundbräsma</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>44299</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44421.5517824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2140,14 +2140,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 28632-2021</t>
+          <t>A 74491-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44357.31700231481</v>
+        <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>13.4</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2197,14 +2197,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 6251-2022</t>
+          <t>A 28632-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44600.44402777778</v>
+        <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2216,13 +2216,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>13.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2259,14 +2254,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52537-2022</t>
+          <t>A 6251-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44874</v>
+        <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2278,8 +2273,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2316,14 +2316,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 74491-2021</t>
+          <t>A 52537-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44560.6203587963</v>
+        <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,14 +2715,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 8466-2021</t>
+          <t>A 52971-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44245</v>
+        <v>44467.62484953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2772,14 +2772,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 52971-2021</t>
+          <t>A 5594-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44467.62484953704</v>
+        <v>44595</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2829,14 +2829,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 5594-2022</t>
+          <t>A 34656-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44595</v>
+        <v>44382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2886,14 +2886,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 34656-2021</t>
+          <t>A 33938-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44382</v>
+        <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2943,14 +2943,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33938-2021</t>
+          <t>A 5598-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44378</v>
+        <v>44595</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3000,14 +3000,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5598-2022</t>
+          <t>A 5600-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>8.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3057,14 +3057,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5600-2022</t>
+          <t>A 15415-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44595</v>
+        <v>44659</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3076,8 +3076,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>8.9</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3114,14 +3119,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15415-2022</t>
+          <t>A 72213-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44659</v>
+        <v>44544.69722222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3133,13 +3138,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 72213-2021</t>
+          <t>A 24976-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44544.69722222222</v>
+        <v>44728.73445601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24976-2022</t>
+          <t>A 22585-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44728.73445601852</v>
+        <v>44714</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22585-2022</t>
+          <t>A 50741-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44714</v>
+        <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 50741-2021</t>
+          <t>A 4409-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44460</v>
+        <v>44589.46652777777</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 4409-2022</t>
+          <t>A 12503-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44589.46652777777</v>
+        <v>44268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12503-2021</t>
+          <t>A 38210-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44268</v>
+        <v>44812</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38210-2022</t>
+          <t>A 68932-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44812</v>
+        <v>44530.4952662037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 68932-2021</t>
+          <t>A 40164-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44530.4952662037</v>
+        <v>44818</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40164-2022</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44818</v>
+        <v>45469</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>45420</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3751,14 +3751,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45469</v>
+        <v>45435</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3808,14 +3808,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 18616-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45435</v>
+        <v>45763.50706018518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3865,14 +3865,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18616-2025</t>
+          <t>A 42301-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45763.50706018518</v>
+        <v>45180.44994212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3922,14 +3922,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 42301-2023</t>
+          <t>A 40264-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45180.44994212963</v>
+        <v>45554.63769675926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3979,14 +3979,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40264-2024</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45554.63769675926</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4036,14 +4036,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4093,14 +4093,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 31128-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>45113.69722222222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>44908</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4207,14 +4207,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31128-2023</t>
+          <t>A 7974-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45113.69722222222</v>
+        <v>45707</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4264,14 +4264,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60086-2024</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45642.54302083333</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4321,14 +4321,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7974-2025</t>
+          <t>A 8701-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45707</v>
+        <v>44978.35130787037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4378,14 +4378,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8701-2023</t>
+          <t>A 60086-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44978.35130787037</v>
+        <v>45642.54302083333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4435,14 +4435,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1567-2023</t>
+          <t>A 49435-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44937.60682870371</v>
+        <v>45595.85221064815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4492,14 +4492,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26084-2023</t>
+          <t>A 29255-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45091</v>
+        <v>45824.38359953704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4549,14 +4549,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 1567-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>44937.60682870371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4568,13 +4568,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4611,14 +4606,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 29255-2025</t>
+          <t>A 9756-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45824.38359953704</v>
+        <v>45716.47010416666</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4630,8 +4625,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4668,14 +4668,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4725,14 +4725,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 26084-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45716</v>
+        <v>45091</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4744,13 +4744,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4787,14 +4782,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 9752-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>45716</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4806,8 +4801,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4844,14 +4844,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>45883</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4901,14 +4901,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 39365-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45883</v>
+        <v>45889.5662962963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4920,8 +4920,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4958,14 +4963,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 39367-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>45889.57412037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4977,8 +4982,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5015,14 +5025,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39365-2025</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45889.5662962963</v>
+        <v>45797</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5036,11 +5046,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5077,14 +5087,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39367-2025</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45889.57412037037</v>
+        <v>45890</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,14 +5149,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45797</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5160,11 +5170,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5201,14 +5211,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45890</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5220,13 +5230,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5263,14 +5268,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,13 +5287,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5325,14 +5325,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5344,13 +5344,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5394,7 +5389,7 @@
         <v>45800.6600925926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5451,7 +5446,7 @@
         <v>45800</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5508,7 +5503,7 @@
         <v>45800.47864583333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5558,14 +5553,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45462</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,8 +5572,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5615,14 +5615,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45398</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,13 +5634,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5677,14 +5672,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44895</v>
+        <v>45462</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5697,7 +5692,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5734,14 +5729,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>45959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5754,7 +5749,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5791,14 +5786,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>45398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5808,6 +5803,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -5848,14 +5848,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>45959</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5905,14 +5905,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45272</v>
+        <v>44895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5962,14 +5962,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6019,14 +6019,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44946</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6076,14 +6076,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 30479-2023</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45111.60162037037</v>
+        <v>44946</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6133,14 +6133,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>45272</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>7.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6190,14 +6190,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6247,14 +6247,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6304,14 +6304,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 30479-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>45111.60162037037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6361,14 +6361,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6423,14 +6423,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45820.439375</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6485,14 +6485,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6542,14 +6542,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>45820.439375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6561,8 +6561,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6599,14 +6604,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6619,7 +6624,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6656,14 +6661,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6677,11 +6682,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6718,14 +6723,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6739,11 +6744,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6780,14 +6785,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6810,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6842,14 +6847,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6861,8 +6866,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6899,14 +6909,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6918,13 +6928,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6961,14 +6966,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6980,13 +6985,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 48106-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45933</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7080,14 +7080,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7099,13 +7099,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7142,14 +7137,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7161,13 +7156,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7204,14 +7194,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44953</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7224,7 +7214,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7261,14 +7251,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>44953</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7281,7 +7271,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7318,14 +7308,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7338,7 +7328,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7375,14 +7365,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>45043</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7395,7 +7385,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7432,14 +7422,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45043</v>
+        <v>45385</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7452,7 +7442,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7489,14 +7479,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45385</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7508,8 +7498,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7546,14 +7541,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7566,7 +7561,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7603,14 +7598,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 48106-2025</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45933</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7622,8 +7617,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>45258</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>45776.50532407407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7774,14 +7774,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>44687</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7793,8 +7793,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7831,14 +7836,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 13509-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>45387.68763888889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7851,7 +7856,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>10.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7888,14 +7893,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 20063-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>45772</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7907,13 +7912,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7950,14 +7950,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44687</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7969,13 +7969,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8012,14 +8007,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 13509-2024</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45387.68763888889</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8027,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>10.7</v>
+        <v>0.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8069,14 +8064,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 20063-2025</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45772</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8084,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8126,14 +8121,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8141,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8183,14 +8178,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,8 +8197,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8240,14 +8240,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 7233-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>44970.6025</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,13 +8259,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8302,14 +8297,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8322,7 +8317,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8359,14 +8354,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>44860.390625</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8379,7 +8374,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8416,14 +8411,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 7233-2023</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44970.6025</v>
+        <v>45091</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8436,7 +8431,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8473,14 +8468,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8493,7 +8488,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8530,14 +8525,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>45196</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8550,7 +8545,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8587,14 +8582,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45707</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8607,7 +8602,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>7.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8644,14 +8639,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8664,7 +8659,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8701,14 +8696,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 7530-2026</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46059.61744212963</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8721,7 +8716,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>5.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8758,14 +8753,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 7531-2026</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46059.61849537037</v>
+        <v>46037.566875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8778,7 +8773,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8815,14 +8810,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>44827</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,13 +8829,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8877,14 +8867,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45091</v>
+        <v>45492</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8897,7 +8887,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8934,14 +8924,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>45098</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8953,8 +8943,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8991,14 +8986,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45196</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9011,7 +9006,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9048,14 +9043,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 7522-2026</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46059</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9068,7 +9063,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>8.4</v>
+        <v>4.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9105,14 +9100,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,8 +9119,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9162,14 +9162,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45707</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9181,8 +9181,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9219,14 +9224,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>45628</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9239,7 +9244,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9276,14 +9281,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9296,7 +9301,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9333,14 +9338,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45959</v>
+        <v>45086</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9353,7 +9358,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9390,14 +9395,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45959</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9410,7 +9415,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9447,14 +9452,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 17705-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44827</v>
+        <v>45758.43197916666</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9466,8 +9471,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9504,14 +9514,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 17709-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45492</v>
+        <v>45758.43493055556</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9523,8 +9533,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9561,14 +9576,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45098</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9580,13 +9595,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9623,14 +9633,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9643,7 +9653,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.2</v>
+        <v>2.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9680,14 +9690,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9700,7 +9710,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9737,14 +9747,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45628</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9757,7 +9767,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9794,14 +9804,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45086</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9814,7 +9824,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9851,14 +9861,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9870,13 +9880,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9913,14 +9918,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9934,11 +9939,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9975,14 +9980,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9994,8 +9999,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10032,14 +10042,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,8 +10061,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10089,14 +10104,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46037.566875</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10109,7 +10124,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10146,14 +10161,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>44433</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10165,13 +10180,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10208,14 +10218,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,13 +10237,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10270,14 +10275,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44433</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,8 +10294,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10327,14 +10337,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10346,13 +10356,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10389,14 +10394,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>45448</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10414,7 +10419,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10451,14 +10456,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10471,7 +10476,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10508,14 +10513,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45448</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10525,11 +10530,6 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -10577,7 +10577,7 @@
         <v>45196</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10684,14 +10684,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44701</v>
+        <v>46059</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10741,14 +10741,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10798,14 +10798,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10855,14 +10855,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44497</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10912,14 +10912,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>44497</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10969,14 +10969,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52383-2023</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45224.81199074074</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11026,14 +11026,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 52383-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>45224.81199074074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11083,14 +11083,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45408.386875</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,13 +11102,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11145,14 +11140,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45356</v>
+        <v>45408.386875</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11164,8 +11159,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11202,14 +11202,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45469</v>
+        <v>45356</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11259,14 +11259,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 12747-2024</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45384.54314814815</v>
+        <v>45469</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11316,14 +11316,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 12747-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>45384.54314814815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11373,14 +11373,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45149</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11430,14 +11430,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44386</v>
+        <v>45149</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11487,14 +11487,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11544,14 +11544,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44895</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11601,14 +11601,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>44895</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11658,14 +11658,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44832</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11715,14 +11715,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45170</v>
+        <v>44832</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11734,13 +11734,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11777,14 +11772,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>45170</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11796,8 +11791,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11834,14 +11834,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45469</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11891,14 +11891,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45313.3825</v>
+        <v>45469</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11948,14 +11948,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44687</v>
+        <v>45313.3825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12005,14 +12005,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45043</v>
+        <v>44687</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12062,14 +12062,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>45043</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12119,14 +12119,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 50043-2023</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45215.49396990741</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12176,14 +12176,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 50043-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44957</v>
+        <v>45215.49396990741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12233,14 +12233,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>44957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12290,14 +12290,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44496</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12347,14 +12347,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>44496</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12404,14 +12404,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12461,14 +12461,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12518,14 +12518,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12575,14 +12575,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 18734-2023</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45043</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12632,14 +12632,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 18734-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45140</v>
+        <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12689,14 +12689,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>45140</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12746,14 +12746,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44995</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>13.5</v>
+        <v>0.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12803,14 +12803,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>44995</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.8</v>
+        <v>13.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12860,14 +12860,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44743</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12917,14 +12917,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45099</v>
+        <v>44743</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12974,14 +12974,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44812</v>
+        <v>45099</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13031,14 +13031,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45621.559375</v>
+        <v>44812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13088,14 +13088,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>45621.559375</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>21.6</v>
+        <v>4.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13145,14 +13145,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45223</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5.9</v>
+        <v>21.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13202,14 +13202,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>45223</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13259,14 +13259,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44909</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13316,14 +13316,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>44909</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13373,14 +13373,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13430,14 +13430,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13487,14 +13487,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45448</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13506,13 +13506,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13549,14 +13544,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>45448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13570,11 +13565,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13611,14 +13606,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13630,8 +13625,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13668,14 +13668,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13725,14 +13725,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45156</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13782,14 +13782,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>45156</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13839,14 +13839,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13896,14 +13896,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13953,14 +13953,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45109</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14010,14 +14010,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45313</v>
+        <v>45109</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>11.7</v>
+        <v>1.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14067,14 +14067,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>45313</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.4</v>
+        <v>11.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14124,14 +14124,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14181,14 +14181,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14200,13 +14200,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14243,85 +14238,90 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
+          <t>A 42752-2024</t>
+        </is>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>45566.49165509259</v>
+      </c>
+      <c r="C232" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
           <t>A 59841-2024</t>
         </is>
       </c>
-      <c r="B232" s="1" t="n">
+      <c r="B233" s="1" t="n">
         <v>45639.67075231481</v>
       </c>
-      <c r="C232" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G232" t="n">
+      <c r="C233" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
         <v>4.1</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>0</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0</v>
-      </c>
-      <c r="L232" t="n">
-        <v>0</v>
-      </c>
-      <c r="M232" t="n">
-        <v>0</v>
-      </c>
-      <c r="N232" t="n">
-        <v>0</v>
-      </c>
-      <c r="O232" t="n">
-        <v>0</v>
-      </c>
-      <c r="P232" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q232" t="n">
-        <v>0</v>
-      </c>
-      <c r="R232" s="2" t="inlineStr"/>
-    </row>
-    <row r="233" ht="15" customHeight="1">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>A 58683-2024</t>
-        </is>
-      </c>
-      <c r="B233" s="1" t="n">
-        <v>45635.61765046296</v>
-      </c>
-      <c r="C233" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G233" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="H233" t="n">
         <v>0</v>
       </c>
@@ -14353,63 +14353,6 @@
         <v>0</v>
       </c>
       <c r="R233" s="2" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>A 49435-2024</t>
-        </is>
-      </c>
-      <c r="B234" s="1" t="n">
-        <v>45595.85221064815</v>
-      </c>
-      <c r="C234" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G234" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>0</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0</v>
-      </c>
-      <c r="L234" t="n">
-        <v>0</v>
-      </c>
-      <c r="M234" t="n">
-        <v>0</v>
-      </c>
-      <c r="N234" t="n">
-        <v>0</v>
-      </c>
-      <c r="O234" t="n">
-        <v>0</v>
-      </c>
-      <c r="P234" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q234" t="n">
-        <v>0</v>
-      </c>
-      <c r="R234" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z233"/>
+  <dimension ref="A1:Z234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 55928-2025</t>
+          <t>A 48101-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45973.43586805555</v>
+        <v>45933</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1216,13 +1216,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1231,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1249,381 +1244,386 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Plattsäv</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 9277-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 55928-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45973.43586805555</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 48101-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45933</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 33610-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45841.61888888889</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Plattsäv</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 33610-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45841.61888888889</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Lundbräsma</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 17546-2021</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44299</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>5.2</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Blomkålssvamp</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 9277-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,14 +1741,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 35607-2022</t>
+          <t>A 40946-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44799</v>
+        <v>44421.5517824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1798,14 +1798,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 40946-2021</t>
+          <t>A 35607-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44421.5517824074</v>
+        <v>44799</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44595</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44595</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44659</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44728.73445601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>44714</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44812</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44530.4952662037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44818</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,14 +3632,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45469</v>
+        <v>45272</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 18017-2024</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45420</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3708,13 +3708,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3751,14 +3746,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45435</v>
+        <v>45398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3770,8 +3765,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3808,14 +3808,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 18616-2025</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45763.50706018518</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3865,14 +3865,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 42301-2023</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45180.44994212963</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3922,14 +3922,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 40264-2024</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45554.63769675926</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3979,14 +3979,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>45313</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>11.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4036,14 +4036,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4055,8 +4055,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4093,14 +4098,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31128-2023</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45113.69722222222</v>
+        <v>45883</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4118,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4150,14 +4155,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 59842-2022</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44908</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4175,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4207,14 +4212,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7974-2025</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45707</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4232,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4264,14 +4269,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 58683-2024</t>
+          <t>A 48106-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45635.61765046296</v>
+        <v>45933</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4289,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4321,14 +4326,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8701-2023</t>
+          <t>A 59841-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44978.35130787037</v>
+        <v>45639.67075231481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4346,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4378,14 +4383,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60086-2024</t>
+          <t>A 29255-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45642.54302083333</v>
+        <v>45824.38359953704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4403,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4435,14 +4440,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49435-2024</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45595.85221064815</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4460,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4492,14 +4497,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29255-2025</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45824.38359953704</v>
+        <v>44860.390625</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4517,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4549,14 +4554,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 1567-2023</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44937.60682870371</v>
+        <v>45797</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4568,8 +4573,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4606,14 +4616,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4625,13 +4635,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>5.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4668,14 +4673,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4687,8 +4692,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4725,14 +4735,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26084-2023</t>
+          <t>A 39365-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45091</v>
+        <v>45889.5662962963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4744,8 +4754,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4782,14 +4797,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 39367-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45716</v>
+        <v>45889.57412037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4807,7 +4822,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4844,14 +4859,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45883</v>
+        <v>45890</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4863,8 +4878,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4901,14 +4921,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39365-2025</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45889.5662962963</v>
+        <v>44895</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4920,13 +4940,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4963,14 +4978,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39367-2025</t>
+          <t>A 49435-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45889.57412037037</v>
+        <v>45595.85221064815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,13 +4997,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5025,14 +5035,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45797</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5044,13 +5054,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5087,14 +5092,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45890</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5106,13 +5111,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5149,14 +5149,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 9752-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>45716</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5211,14 +5211,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>44496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5268,14 +5268,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5325,14 +5325,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>45469</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5382,14 +5382,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25407-2025</t>
+          <t>A 9756-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45800.6600925926</v>
+        <v>45716.47010416666</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5401,8 +5401,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5439,14 +5444,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25219-2025</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45800</v>
+        <v>44895</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5459,7 +5464,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5496,14 +5501,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25222-2025</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45800.47864583333</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5515,8 +5520,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5553,14 +5563,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5572,13 +5582,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5615,14 +5620,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5635,7 +5640,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5672,14 +5677,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 25222-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45462</v>
+        <v>45800.47864583333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5692,7 +5697,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5729,14 +5734,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45959</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5748,8 +5753,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5786,14 +5796,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 25219-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45398</v>
+        <v>45800</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5805,13 +5815,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5848,14 +5853,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 25407-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45959</v>
+        <v>45800.6600925926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5868,7 +5873,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5905,14 +5910,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44895</v>
+        <v>45086</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5925,7 +5930,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5962,14 +5967,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,8 +5986,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6019,14 +6029,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,8 +6048,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6076,14 +6091,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44946</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,8 +6110,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6133,14 +6153,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45272</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6152,8 +6172,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>7.6</v>
+        <v>2.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6190,14 +6215,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6209,8 +6234,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6247,14 +6277,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6266,8 +6296,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6304,14 +6339,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30479-2023</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45111.60162037037</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6324,7 +6359,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6361,14 +6396,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6380,13 +6415,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6423,14 +6453,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,13 +6472,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6485,14 +6510,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>44946</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6505,7 +6530,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6542,14 +6567,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45820.439375</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6561,13 +6586,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6604,14 +6624,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6623,8 +6643,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6661,14 +6686,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45820.439375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6682,11 +6707,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6723,14 +6748,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>45408.386875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6744,11 +6769,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6785,14 +6810,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6804,13 +6829,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6847,14 +6867,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 42752-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>45566.49165509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6868,11 +6888,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6909,14 +6929,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6949,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>6.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6966,14 +6986,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45959</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +7006,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7023,14 +7043,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 48106-2025</t>
+          <t>A 18616-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45933</v>
+        <v>45763.50706018518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7063,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7080,14 +7100,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>45959</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7120,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7137,14 +7157,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 40264-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>45554.63769675926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7177,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7194,14 +7214,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7234,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7251,14 +7271,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44953</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7271,7 +7291,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7308,14 +7328,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>44953</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7328,7 +7348,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7365,14 +7385,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45043</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7385,7 +7405,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7422,14 +7442,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45385</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7442,7 +7462,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7479,14 +7499,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>45707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7498,13 +7518,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7541,14 +7556,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7576,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7598,14 +7613,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 20721-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>45776.50532407407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7617,13 +7632,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7660,14 +7670,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 60233-2023</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45258</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7680,7 +7690,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7717,14 +7727,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 20721-2025</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45776.50532407407</v>
+        <v>44687</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7736,8 +7746,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7774,14 +7789,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 60233-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44687</v>
+        <v>45258</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7793,13 +7808,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7843,7 +7853,7 @@
         <v>45387.68763888889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7900,7 +7910,7 @@
         <v>45772</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7950,14 +7960,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>45099</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7970,7 +7980,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8007,14 +8017,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>44497</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8027,7 +8037,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8064,14 +8074,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>44957</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8084,7 +8094,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8121,14 +8131,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>46037.566875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8141,7 +8151,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8178,14 +8188,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 60086-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>45642.54302083333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8197,13 +8207,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8247,7 +8252,7 @@
         <v>44970.6025</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8297,14 +8302,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8354,14 +8359,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 31128-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45113.69722222222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8374,7 +8379,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8411,14 +8416,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45091</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,8 +8435,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8468,14 +8478,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8487,8 +8497,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>0.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8525,14 +8540,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45196</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8545,7 +8560,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8582,14 +8597,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45707</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8602,7 +8617,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>7.3</v>
+        <v>0.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8639,14 +8654,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>45098</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8658,8 +8673,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8696,14 +8716,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>44832</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8716,7 +8736,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8753,14 +8773,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46037.566875</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8772,8 +8792,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8810,14 +8835,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44827</v>
+        <v>44386</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8830,7 +8855,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8867,14 +8892,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45492</v>
+        <v>45091</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8887,7 +8912,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8924,14 +8949,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45098</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8949,7 +8974,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8986,14 +9011,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9006,7 +9031,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9043,14 +9068,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9063,7 +9088,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9100,14 +9125,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9119,13 +9144,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9162,14 +9182,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9181,13 +9201,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>8.199999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9224,14 +9239,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45628</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9244,7 +9259,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9281,14 +9296,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9301,7 +9316,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9338,14 +9353,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45086</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9355,6 +9370,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -9395,14 +9415,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9415,7 +9435,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9452,14 +9472,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>45043</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,13 +9491,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9514,14 +9529,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9535,11 +9550,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9576,14 +9591,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9596,7 +9611,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9633,14 +9648,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9653,7 +9668,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9690,14 +9705,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9710,7 +9725,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9747,14 +9762,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 42301-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>45180.44994212963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9767,7 +9782,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9804,14 +9819,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9824,7 +9839,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9861,14 +9876,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9881,7 +9896,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9918,14 +9933,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9937,13 +9952,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9980,14 +9990,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 59842-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>44908</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9999,13 +10009,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10042,14 +10047,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10059,11 +10064,6 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -10104,14 +10104,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10161,14 +10161,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44433</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10218,14 +10218,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>45149</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10275,14 +10275,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10294,13 +10294,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10337,14 +10332,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10357,7 +10352,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10394,14 +10389,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45448</v>
+        <v>46059</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10413,13 +10408,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.4</v>
+        <v>8.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10456,14 +10446,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 7530-2026</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46059.61744212963</v>
+        <v>45109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10476,7 +10466,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10513,14 +10503,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 7531-2026</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46059.61849537037</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10533,7 +10523,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10570,14 +10560,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 46190-2023</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45196</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10590,7 +10580,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10627,14 +10617,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48985-2022</t>
+          <t>A 30479-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44860</v>
+        <v>45111.60162037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10647,7 +10637,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10684,14 +10674,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 7522-2026</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46059</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10704,7 +10694,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10741,14 +10731,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44701</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10761,7 +10751,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10798,14 +10788,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44698</v>
+        <v>45492</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10808,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10855,14 +10845,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10875,7 +10865,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10912,14 +10902,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 9691-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44497</v>
+        <v>46072.40653935185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10932,7 +10922,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10969,14 +10959,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,8 +10978,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11026,14 +11021,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 52383-2023</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45224.81199074074</v>
+        <v>45170</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11045,8 +11040,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11083,14 +11083,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11140,14 +11140,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45408.386875</v>
+        <v>45462</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,13 +11159,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11202,14 +11197,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45356</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11222,7 +11217,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11259,14 +11254,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
         <v>45469</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11279,7 +11274,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11323,7 +11318,7 @@
         <v>45384.54314814815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11373,14 +11368,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11393,7 +11388,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11430,14 +11425,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45149</v>
+        <v>45196</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11450,7 +11445,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11487,14 +11482,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44386</v>
+        <v>45043</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11507,7 +11502,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11544,14 +11539,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11564,7 +11559,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11601,14 +11596,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 26084-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44895</v>
+        <v>45091</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11621,7 +11616,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11658,14 +11653,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 18017-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>45420</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11677,8 +11672,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11715,14 +11715,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44832</v>
+        <v>44701</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11772,14 +11772,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45170</v>
+        <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11791,13 +11791,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11834,14 +11829,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>45223</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11854,7 +11849,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11891,14 +11886,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45469</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11911,7 +11906,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11948,14 +11943,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45313.3825</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11968,7 +11963,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12005,14 +12000,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44687</v>
+        <v>45313.3825</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12025,7 +12020,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12062,14 +12057,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45043</v>
+        <v>45448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12081,8 +12076,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12119,14 +12119,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12176,14 +12176,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 50043-2023</t>
+          <t>A 46190-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45215.49396990741</v>
+        <v>45196</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12233,14 +12233,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44957</v>
+        <v>44827</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12290,14 +12290,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12347,14 +12347,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44496</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12404,14 +12404,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>44909</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12461,14 +12461,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>45385</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12518,14 +12518,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>44995</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>13.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12575,14 +12575,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12632,14 +12632,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 18734-2023</t>
+          <t>A 50043-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45043</v>
+        <v>45215.49396990741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12689,14 +12689,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45140</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12746,14 +12746,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>44812</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12803,14 +12803,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44995</v>
+        <v>45140</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>13.5</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12860,14 +12860,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12917,14 +12917,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44743</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12974,14 +12974,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 52383-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45099</v>
+        <v>45224.81199074074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13031,14 +13031,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44812</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13088,14 +13088,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 18734-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45621.559375</v>
+        <v>45043</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13145,14 +13145,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 1567-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>44937.60682870371</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>21.6</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13202,14 +13202,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45223</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13259,14 +13259,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>45435</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13316,14 +13316,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44909</v>
+        <v>44433</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13373,14 +13373,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13430,14 +13430,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>45469</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13487,14 +13487,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.2</v>
+        <v>21.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13544,14 +13544,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45448</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13563,13 +13563,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13606,14 +13601,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>45156</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13625,13 +13620,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13668,14 +13658,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>45621.559375</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13688,7 +13678,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13725,14 +13715,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13745,7 +13735,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13782,14 +13772,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45156</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13802,7 +13792,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13839,14 +13829,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>45356</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13859,7 +13849,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13896,14 +13886,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13916,7 +13906,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13953,14 +13943,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>44743</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13973,7 +13963,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14010,14 +14000,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 48985-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45109</v>
+        <v>44860</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14030,7 +14020,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14067,14 +14057,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45313</v>
+        <v>45628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14087,7 +14077,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>11.7</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14124,14 +14114,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 8701-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>44978.35130787037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14144,7 +14134,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14181,14 +14171,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>45448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14200,8 +14190,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14238,14 +14233,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 7974-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>45707</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14257,70 +14252,70 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="G232" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233" ht="15" customHeight="1">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>A 17705-2025</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>45758.43197916666</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G232" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>0</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0</v>
-      </c>
-      <c r="L232" t="n">
-        <v>0</v>
-      </c>
-      <c r="M232" t="n">
-        <v>0</v>
-      </c>
-      <c r="N232" t="n">
-        <v>0</v>
-      </c>
-      <c r="O232" t="n">
-        <v>0</v>
-      </c>
-      <c r="P232" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q232" t="n">
-        <v>0</v>
-      </c>
-      <c r="R232" s="2" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>A 59841-2024</t>
-        </is>
-      </c>
-      <c r="B233" s="1" t="n">
-        <v>45639.67075231481</v>
-      </c>
-      <c r="C233" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14353,6 +14348,68 @@
         <v>0</v>
       </c>
       <c r="R233" s="2" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>A 17709-2025</t>
+        </is>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>45758.43493055556</v>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 48101-2025</t>
+          <t>A 33610-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45933</v>
+        <v>45841.61888888889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,19 +1217,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>11.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1241,389 +1241,389 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Lundbräsma</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 48101-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45933</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Plattsäv</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 17546-2021</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44299</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 55928-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45973.43586805555</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 9277-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44980</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>1.3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 55928-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45973.43586805555</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 33610-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45841.61888888889</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Lundbräsma</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 17546-2021</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44299</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,14 +1741,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 40946-2021</t>
+          <t>A 35607-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44421.5517824074</v>
+        <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1798,14 +1798,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 35607-2022</t>
+          <t>A 40946-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44799</v>
+        <v>44421.5517824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44595</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44595</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44659</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44728.73445601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>44714</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44812</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44530.4952662037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44818</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,14 +3632,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45272</v>
+        <v>45469</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 18017-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>45420</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3708,8 +3708,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3746,14 +3751,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45398</v>
+        <v>45435</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3765,13 +3770,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3808,14 +3808,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 40264-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>45554.63769675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3865,14 +3865,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3922,14 +3922,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3979,14 +3979,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 59842-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45313</v>
+        <v>44908</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>11.7</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4036,14 +4036,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 18616-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>45763.50706018518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4055,13 +4055,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4098,14 +4093,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 42301-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45883</v>
+        <v>45180.44994212963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4113,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4155,14 +4150,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 31128-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45113.69722222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4170,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4212,14 +4207,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 60086-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>45642.54302083333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4227,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4269,14 +4264,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48106-2025</t>
+          <t>A 7974-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45933</v>
+        <v>45707</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4284,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4326,14 +4321,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59841-2024</t>
+          <t>A 8701-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45639.67075231481</v>
+        <v>44978.35130787037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4341,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4383,14 +4378,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 29255-2025</t>
+          <t>A 1567-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45824.38359953704</v>
+        <v>44937.60682870371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4398,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4440,14 +4435,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 26084-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>45091</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4455,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4497,14 +4492,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4512,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4554,14 +4549,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45797</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4575,11 +4570,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4616,14 +4611,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>45462</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4636,7 +4631,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.9</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4673,14 +4668,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>45398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4694,11 +4689,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4735,14 +4730,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39365-2025</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45889.5662962963</v>
+        <v>44895</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,13 +4749,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4797,14 +4787,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39367-2025</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45889.57412037037</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4816,13 +4806,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4859,14 +4844,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45890</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4878,13 +4863,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4921,14 +4901,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44895</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4941,7 +4921,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4978,14 +4958,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 49435-2024</t>
+          <t>A 30479-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45595.85221064815</v>
+        <v>45111.60162037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4998,7 +4978,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5035,14 +5015,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58683-2024</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45635.61765046296</v>
+        <v>45272</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5055,7 +5035,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5092,14 +5072,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5112,7 +5092,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5149,14 +5129,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45716</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,13 +5148,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5211,14 +5186,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44496</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5231,7 +5206,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5268,14 +5243,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5288,7 +5263,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5325,14 +5300,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45469</v>
+        <v>45883</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5345,7 +5320,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5382,14 +5357,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5407,7 +5382,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5444,14 +5419,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44895</v>
+        <v>45820.439375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,8 +5438,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5501,14 +5481,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 39365-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>45889.5662962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5526,7 +5506,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5563,14 +5543,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 39367-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>45889.57412037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5582,8 +5562,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5620,14 +5605,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>45797</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5639,8 +5624,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5677,14 +5667,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25222-2025</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45800.47864583333</v>
+        <v>45890</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5696,8 +5686,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5734,14 +5729,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5755,7 +5750,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -5796,14 +5791,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25219-2025</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45800</v>
+        <v>45043</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5816,7 +5811,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5853,14 +5848,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25407-2025</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45800.6600925926</v>
+        <v>45385</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5873,7 +5868,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5910,14 +5905,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45086</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5930,7 +5925,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5967,14 +5962,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5986,13 +5981,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6029,14 +6019,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6048,13 +6038,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6091,14 +6076,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6110,13 +6095,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6153,14 +6133,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6174,11 +6154,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6215,14 +6195,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>44953</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6234,13 +6214,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6277,14 +6252,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6296,13 +6271,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6339,14 +6309,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6359,7 +6329,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6396,14 +6366,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6416,7 +6386,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6453,14 +6423,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 60233-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>45258</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6473,7 +6443,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6510,14 +6480,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 20721-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44946</v>
+        <v>45776.50532407407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6530,7 +6500,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6567,14 +6537,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6586,8 +6556,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6624,14 +6599,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6643,13 +6618,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6686,14 +6656,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45820.439375</v>
+        <v>44687</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6707,11 +6677,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6748,14 +6718,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 13509-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45408.386875</v>
+        <v>45387.68763888889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6767,13 +6737,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>10.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6810,14 +6775,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 20063-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>45772</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6830,7 +6795,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6867,14 +6832,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6888,11 +6853,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6929,14 +6894,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6948,8 +6913,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6986,14 +6956,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45959</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7005,8 +6975,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7043,14 +7018,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 18616-2025</t>
+          <t>A 7233-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45763.50706018518</v>
+        <v>44970.6025</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7063,7 +7038,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7100,14 +7075,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45959</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7119,8 +7094,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7157,14 +7137,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40264-2024</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45554.63769675926</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7177,7 +7157,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7214,14 +7194,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>44860.390625</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7234,7 +7214,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7271,14 +7251,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7291,7 +7271,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7328,14 +7308,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44953</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7348,7 +7328,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7385,14 +7365,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7405,7 +7385,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7442,14 +7422,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7462,7 +7442,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7499,14 +7479,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45707</v>
+        <v>45196</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7519,7 +7499,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7556,14 +7536,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 48106-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>45933</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7576,7 +7556,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7613,14 +7593,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 20721-2025</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45776.50532407407</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7633,7 +7613,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7670,14 +7650,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>45707</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7690,7 +7670,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7727,14 +7707,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44687</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7746,13 +7726,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7789,14 +7764,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60233-2023</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45258</v>
+        <v>44827</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7809,7 +7784,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7846,14 +7821,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 13509-2024</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45387.68763888889</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7865,8 +7840,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>10.7</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7903,14 +7883,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 20063-2025</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45772</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7923,7 +7903,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7960,14 +7940,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45099</v>
+        <v>45492</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7980,7 +7960,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8017,14 +7997,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44497</v>
+        <v>45098</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8036,8 +8016,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8074,14 +8059,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44957</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8094,7 +8079,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8131,14 +8116,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 29255-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46037.566875</v>
+        <v>45824.38359953704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8151,7 +8136,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8188,14 +8173,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 60086-2024</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45642.54302083333</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8193,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8245,14 +8230,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 7233-2023</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44970.6025</v>
+        <v>45628</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8265,7 +8250,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8302,14 +8287,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>45086</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8322,7 +8307,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8359,14 +8344,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31128-2023</t>
+          <t>A 17705-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45113.69722222222</v>
+        <v>45758.43197916666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8378,8 +8363,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8416,14 +8406,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 17709-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>45758.43493055556</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8441,7 +8431,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8478,14 +8468,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8497,13 +8487,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>8.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8540,14 +8525,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8560,7 +8545,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8597,14 +8582,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8617,7 +8602,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.2</v>
+        <v>2.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8654,14 +8639,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45098</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8675,11 +8660,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8716,14 +8701,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44832</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,8 +8720,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8773,14 +8763,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>44433</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,13 +8782,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8835,14 +8820,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44386</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8855,7 +8840,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8892,14 +8877,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45091</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8912,7 +8897,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8949,14 +8934,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8974,7 +8959,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9011,14 +8996,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9031,7 +9016,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9068,14 +9053,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>45959</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9088,7 +9073,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9125,14 +9110,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>45959</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9145,7 +9130,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9182,14 +9167,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>45448</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9201,8 +9186,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9239,14 +9229,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 46190-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>45196</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9259,7 +9249,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9296,14 +9286,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 48985-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>44860</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9316,7 +9306,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9353,14 +9343,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>44701</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9372,13 +9362,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9415,14 +9400,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>44698</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9435,7 +9420,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9472,14 +9457,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45043</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9492,7 +9477,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9529,14 +9514,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>46037.566875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9548,13 +9533,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9591,14 +9571,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>44497</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9611,7 +9591,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9648,14 +9628,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9667,8 +9647,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9705,14 +9690,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9725,7 +9710,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9762,14 +9747,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 42301-2023</t>
+          <t>A 52383-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45180.44994212963</v>
+        <v>45224.81199074074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9782,7 +9767,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9819,14 +9804,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9839,7 +9824,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9876,14 +9861,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9895,8 +9880,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9933,14 +9923,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9953,7 +9943,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9990,14 +9980,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 59842-2022</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44908</v>
+        <v>45408.386875</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10009,8 +9999,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10047,14 +10042,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10067,7 +10062,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10104,14 +10099,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>45356</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10124,7 +10119,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10161,14 +10156,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>45469</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10181,7 +10176,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10218,14 +10213,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 12747-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45149</v>
+        <v>45384.54314814815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10238,7 +10233,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10275,14 +10270,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 7530-2026</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46059.61744212963</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10295,7 +10290,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10332,14 +10327,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 7531-2026</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46059.61849537037</v>
+        <v>45149</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10352,7 +10347,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10389,14 +10384,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 7522-2026</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46059</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10409,7 +10404,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>8.4</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10446,14 +10441,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45109</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10466,7 +10461,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10503,14 +10498,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>44386</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10523,7 +10518,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10560,14 +10555,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10580,7 +10575,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10617,14 +10612,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 30479-2023</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45111.60162037037</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10637,7 +10632,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10674,14 +10669,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,6 +10686,11 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -10731,14 +10731,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.2</v>
+        <v>0.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10788,14 +10788,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45492</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10807,8 +10807,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10845,14 +10850,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>44895</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10865,7 +10870,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10902,14 +10907,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 9691-2026</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46072.40653935185</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10922,7 +10927,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10959,14 +10964,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10978,13 +10983,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11021,14 +11021,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45170</v>
+        <v>44832</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11040,13 +11040,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11083,14 +11078,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>45170</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11102,8 +11097,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11140,14 +11140,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45462</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11197,14 +11197,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>45469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11254,14 +11254,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45469</v>
+        <v>45313.3825</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11311,14 +11311,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 12747-2024</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45384.54314814815</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11368,14 +11368,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11425,14 +11425,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45196</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11482,14 +11482,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45043</v>
+        <v>44687</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11539,14 +11539,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>45043</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11596,14 +11596,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 26084-2023</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45091</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11653,14 +11653,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 18017-2024</t>
+          <t>A 50043-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45420</v>
+        <v>45215.49396990741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11672,13 +11672,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11715,14 +11710,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44701</v>
+        <v>46059</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11735,7 +11730,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11772,14 +11767,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44698</v>
+        <v>44957</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11792,7 +11787,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11829,14 +11824,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45223</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11849,7 +11844,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.9</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11886,14 +11881,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>44496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11906,7 +11901,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11943,14 +11938,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11963,7 +11958,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12000,14 +11995,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45313.3825</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12020,7 +12015,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12057,14 +12052,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45448</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12076,13 +12071,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12119,14 +12109,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44687</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12139,7 +12129,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12176,14 +12166,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 46190-2023</t>
+          <t>A 9691-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45196</v>
+        <v>46072.40653935185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12233,14 +12223,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 18734-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44827</v>
+        <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12253,7 +12243,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12290,14 +12280,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>45140</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12310,7 +12300,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12347,14 +12337,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12367,7 +12357,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12404,14 +12394,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44909</v>
+        <v>44995</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12424,7 +12414,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.6</v>
+        <v>13.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12461,14 +12451,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45385</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12481,7 +12471,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12518,14 +12508,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44995</v>
+        <v>44743</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12538,7 +12528,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>13.5</v>
+        <v>3.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12575,14 +12565,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>45099</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12595,7 +12585,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12632,14 +12622,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 50043-2023</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45215.49396990741</v>
+        <v>44812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12652,7 +12642,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12689,14 +12679,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>45621.559375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12709,7 +12699,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.3</v>
+        <v>4.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12746,14 +12736,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44812</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12766,7 +12756,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.8</v>
+        <v>21.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12803,14 +12793,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45140</v>
+        <v>45223</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12823,7 +12813,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12860,14 +12850,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12917,14 +12907,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>44909</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12937,7 +12927,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12974,14 +12964,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 52383-2023</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45224.81199074074</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12994,7 +12984,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13031,14 +13021,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13051,7 +13041,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13088,14 +13078,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 18734-2023</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45043</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13108,7 +13098,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13145,14 +13135,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1567-2023</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44937.60682870371</v>
+        <v>45448</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13164,8 +13154,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13202,14 +13197,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13221,8 +13216,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13259,14 +13259,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45435</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13316,14 +13316,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44433</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13373,14 +13373,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>45156</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13430,14 +13430,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45469</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13487,14 +13487,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>21.6</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13544,14 +13544,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13601,14 +13601,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45156</v>
+        <v>45109</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13658,14 +13658,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45621.559375</v>
+        <v>45313</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.4</v>
+        <v>11.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13715,14 +13715,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13772,14 +13772,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13829,14 +13829,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 42752-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45356</v>
+        <v>45566.49165509259</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13848,8 +13848,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13886,14 +13891,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 59841-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>45639.67075231481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13906,7 +13911,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13943,14 +13948,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44743</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13963,7 +13968,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14000,14 +14005,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 48985-2022</t>
+          <t>A 49435-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44860</v>
+        <v>45595.85221064815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14020,7 +14025,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14057,14 +14062,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 9756-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45628</v>
+        <v>45716.47010416666</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14076,8 +14081,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14114,14 +14124,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 8701-2023</t>
+          <t>A 9752-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44978.35130787037</v>
+        <v>45716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14133,8 +14143,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14171,14 +14186,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 25407-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45448</v>
+        <v>45800.6600925926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14190,13 +14205,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14233,14 +14243,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 7974-2025</t>
+          <t>A 25219-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45707</v>
+        <v>45800</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14253,7 +14263,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14290,14 +14300,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 25222-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>45800.47864583333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14309,13 +14319,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14352,14 +14357,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>44946</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14371,13 +14376,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>2.8</v>
+        <v>7.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45841.61888888889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45933</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44299</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45973.43586805555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44421.5517824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44595</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44595</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44659</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44728.73445601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>44714</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44812</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44530.4952662037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44818</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>45469</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45420</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>45435</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>45554.63769675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>45110.43502314815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45110.43634259259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44908</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>45763.50706018518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45180.44994212963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>45113.69722222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>45642.54302083333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>45707</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44978.35130787037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44937.60682870371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>45091</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>45309.47417824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>45699.38159722222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>45462</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>45398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>44895</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>44887.2725462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>44887.28344907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>45687.39540509259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>45111.60162037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>45272</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44973.66755787037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>45469.65163194444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>45817.64803240741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>45687.39320601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>45883</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45820.38222222222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45820.439375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>45889.5662962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>45889.57412037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>45797</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>45890</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>45890.37663194445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>45043</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>45385</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>45902.42136574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>45839.57116898148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>45492.47263888889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45839.57383101852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45667.3833912037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>44953</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45840.47387731481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45299.4187037037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>45281.40021990741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>45258</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>45776.50532407407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>45918.38085648148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44615.3561574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44687</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>45387.68763888889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>45772</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>45924.61878472222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>45924.71409722222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45924.65844907407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44970.6025</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>45924.70355324074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>44856.37269675926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>44860.390625</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>45929.57181712963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>45335.56065972222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>45932.88050925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>45196</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45933</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>45933.30924768518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45707</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45713.79837962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44827</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45945.60101851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45874.96774305555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>45492</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>45098</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44990.82427083333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>45824.38359953704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45621.56515046296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45628</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45086</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>45758.43197916666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>45758.43493055556</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44937.60599537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45958.51211805556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45713.80175925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>45960.36168981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44587.34189814814</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44433</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45974.58690972222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>45978.42547453703</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45566.49253472222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>45299.41960648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>45959</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45959</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>45448</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45196</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44860</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44701</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44698</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44363.47548611111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>46037.566875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44497</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>46001.27658564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>45763.49371527778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45224.81199074074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45145.64420138889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>45539.40431712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>46034.63483796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>45408.386875</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>46034.62398148148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45356</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>45469</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>45384.54314814815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45149.40692129629</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45149</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>46035.57903935185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>46035.57438657407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44386</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>46035.58709490741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>46009.30550925926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>46008.37989583334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>45281.40106481482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>46008.6137037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44895</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>46052.4284375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44844.36292824074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44832</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>45170</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45469.55256944444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>45469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>45313.3825</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>46052.43122685186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>46059.61744212963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>46059.61849537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44687</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45043</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44321.5434375</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>45215.49396990741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>46059</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44957</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45022.54587962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>45096.62655092592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45110.42650462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45110.43378472222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45719.66662037037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>46072.40653935185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45140</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45314.46743055555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44995</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45370.39414351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44743</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>45099</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>45621.559375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>45091.61202546296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45223</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44894.49025462963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44909</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45288.49311342592</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>45096.44828703703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>45224.80859953703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>45448</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>45175.64809027778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45110.43747685185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45514.46949074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45156</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44995.44972222222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>44642.5922337963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45335.54832175926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45109</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45313</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45288.40486111111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>45593.41236111111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45566.49165509259</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>45639.67075231481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>45635.61765046296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45595.85221064815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>45716.47010416666</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>45800.6600925926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>45800</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>45800.47864583333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44946</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45841.61888888889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45933</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44299</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45973.43586805555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44421.5517824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44595</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44595</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44659</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44728.73445601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>44714</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44812</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44530.4952662037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44818</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>45469</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45420</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>45435</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>45554.63769675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>45110.43502314815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45110.43634259259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44908</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>45763.50706018518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45180.44994212963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>45113.69722222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>45642.54302083333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>45707</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44978.35130787037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44937.60682870371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>45091</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>45309.47417824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>45699.38159722222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>45462</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>45398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>44895</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>44887.2725462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>44887.28344907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>45687.39540509259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>45111.60162037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>45272</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44973.66755787037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>45469.65163194444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>45817.64803240741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>45687.39320601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>45883</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45820.38222222222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45820.439375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>45889.5662962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>45889.57412037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>45797</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>45890</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>45890.37663194445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>45043</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>45385</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>45902.42136574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>45839.57116898148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>45492.47263888889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45839.57383101852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45667.3833912037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>44953</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45840.47387731481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45299.4187037037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>45281.40021990741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>45258</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>45776.50532407407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>45918.38085648148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44615.3561574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44687</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>45387.68763888889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>45772</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>45924.61878472222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>45924.71409722222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45924.65844907407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44970.6025</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>45924.70355324074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>44856.37269675926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>44860.390625</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>45929.57181712963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>45335.56065972222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>45932.88050925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>45196</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45933</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>45933.30924768518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45707</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45713.79837962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44827</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45945.60101851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45874.96774305555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>45492</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>45098</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44990.82427083333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>45824.38359953704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45621.56515046296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45628</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45086</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>45758.43197916666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>45758.43493055556</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44937.60599537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45958.51211805556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45713.80175925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>45960.36168981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44587.34189814814</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44433</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45974.58690972222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>45978.42547453703</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45566.49253472222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>45299.41960648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>45959</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45959</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>45448</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45196</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44860</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44701</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44698</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44363.47548611111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>46037.566875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44497</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>46001.27658564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>45763.49371527778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45224.81199074074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45145.64420138889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>45539.40431712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>46034.63483796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>45408.386875</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>46034.62398148148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45356</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>45469</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>45384.54314814815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45149.40692129629</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45149</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>46035.57903935185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>46035.57438657407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44386</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>46035.58709490741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>46009.30550925926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>46008.37989583334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>45281.40106481482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>46008.6137037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44895</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>46052.4284375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44844.36292824074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44832</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>45170</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45469.55256944444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>45469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>45313.3825</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>46052.43122685186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>46059.61744212963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>46059.61849537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44687</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45043</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44321.5434375</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>45215.49396990741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>46059</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44957</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45022.54587962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>45096.62655092592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45110.42650462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45110.43378472222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45719.66662037037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>46072.40653935185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45043</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45140</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45314.46743055555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44995</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45370.39414351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44743</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>45099</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>45621.559375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>45091.61202546296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45223</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44894.49025462963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44909</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45288.49311342592</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>45096.44828703703</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>45224.80859953703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>45448</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>45175.64809027778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45110.43747685185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45514.46949074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45156</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44995.44972222222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>44642.5922337963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45335.54832175926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45109</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45313</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45288.40486111111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>45593.41236111111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45566.49165509259</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>45639.67075231481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>45635.61765046296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45595.85221064815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>45716.47010416666</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>45800.6600925926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>45800</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>45800.47864583333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>44946</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 33610-2025</t>
+          <t>A 17546-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45841.61888888889</v>
+        <v>44299</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11.2</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1251,45 +1251,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Lundbräsma</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 48101-2025</t>
+          <t>A 9277-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45933</v>
+        <v>44980</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1326,129 +1326,129 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 48101-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45933</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Plattsäv</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 17546-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44299</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45973.43586805555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,14 +1542,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 9277-2023</t>
+          <t>A 33610-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44980</v>
+        <v>45841.61888888889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>11.2</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,31 +1596,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Lundbräsma</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,14 +1684,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 74438-2021</t>
+          <t>A 35607-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44560</v>
+        <v>44799</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1741,14 +1741,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 35607-2022</t>
+          <t>A 40946-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44799</v>
+        <v>44421.5517824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1798,14 +1798,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 40946-2021</t>
+          <t>A 74438-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44421.5517824074</v>
+        <v>44560</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,14 +2026,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 29874-2022</t>
+          <t>A 74491-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44756.43268518519</v>
+        <v>44560.6203587963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2083,14 +2083,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 70412-2021</t>
+          <t>A 29874-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44536.59342592592</v>
+        <v>44756.43268518519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2140,14 +2140,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 74491-2021</t>
+          <t>A 70412-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44560.6203587963</v>
+        <v>44536.59342592592</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2197,14 +2197,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 28632-2021</t>
+          <t>A 52537-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44357.31700231481</v>
+        <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>13.4</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2254,14 +2254,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 6251-2022</t>
+          <t>A 30060-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44600.44402777778</v>
+        <v>44363.47837962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2273,13 +2273,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2316,14 +2311,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 52537-2022</t>
+          <t>A 30687-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44874</v>
+        <v>44365.40762731482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2331,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2373,14 +2368,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 30060-2021</t>
+          <t>A 35768-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44363.47837962963</v>
+        <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2393,7 +2388,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2430,14 +2425,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 30687-2021</t>
+          <t>A 52971-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44365.40762731482</v>
+        <v>44467.62484953704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,14 +2482,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35768-2021</t>
+          <t>A 34658-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44386</v>
+        <v>44382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,14 +2539,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34658-2021</t>
+          <t>A 5594-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44382</v>
+        <v>44595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2564,7 +2559,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2608,7 +2603,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,14 +2653,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 11934-2021</t>
+          <t>A 34656-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44265</v>
+        <v>44382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2678,7 +2673,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2715,14 +2710,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52971-2021</t>
+          <t>A 28632-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44467.62484953704</v>
+        <v>44357.31700231481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2735,7 +2730,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>13.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2772,14 +2767,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 5594-2022</t>
+          <t>A 11934-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44595</v>
+        <v>44265</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2792,7 +2787,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2829,14 +2824,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 34656-2021</t>
+          <t>A 6251-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44382</v>
+        <v>44600.44402777778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2848,8 +2843,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44595</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44659</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,14 +3176,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 24976-2022</t>
+          <t>A 50741-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44728.73445601852</v>
+        <v>44460</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>44714</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,14 +3290,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 50741-2021</t>
+          <t>A 24976-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44460</v>
+        <v>44728.73445601852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3461,14 +3461,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38210-2022</t>
+          <t>A 40164-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44812</v>
+        <v>44818</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 68932-2021</t>
+          <t>A 38210-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44530.4952662037</v>
+        <v>44812</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40164-2022</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44818</v>
+        <v>45272</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>7.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45469</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 18017-2024</t>
+          <t>A 68932-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45420</v>
+        <v>44530.4952662037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3708,13 +3708,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>4.6</v>
+        <v>0.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3751,14 +3746,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45435</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3766,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3808,14 +3803,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40264-2024</t>
+          <t>A 60086-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45554.63769675926</v>
+        <v>45642.54302083333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3823,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3865,14 +3860,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3880,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3922,14 +3917,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>45398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3941,8 +3936,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3979,14 +3979,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59842-2022</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44908</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4036,14 +4036,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 18616-2025</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45763.50706018518</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4093,14 +4093,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42301-2023</t>
+          <t>A 7233-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45180.44994212963</v>
+        <v>44970.6025</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4150,14 +4150,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 31128-2023</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45113.69722222222</v>
+        <v>45408.386875</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4169,8 +4169,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4207,14 +4212,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 60086-2024</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45642.54302083333</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4232,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4264,14 +4269,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 7974-2025</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45707</v>
+        <v>44895</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4289,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4321,14 +4326,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8701-2023</t>
+          <t>A 31128-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44978.35130787037</v>
+        <v>45113.69722222222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4346,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4378,14 +4383,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1567-2023</t>
+          <t>A 42752-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44937.60682870371</v>
+        <v>45566.49165509259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4397,8 +4402,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4435,14 +4445,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26084-2023</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45091</v>
+        <v>44860.390625</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4465,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4492,14 +4502,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4511,8 +4521,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4549,14 +4564,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4568,13 +4583,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4611,14 +4621,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45462</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4641,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4668,14 +4678,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45398</v>
+        <v>45043</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4687,13 +4697,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4730,14 +4735,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 18616-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44895</v>
+        <v>45763.50706018518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4750,7 +4755,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4787,14 +4792,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 40264-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>45554.63769675926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4844,14 +4849,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4864,7 +4869,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4901,14 +4906,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4921,7 +4926,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4958,14 +4963,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30479-2023</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45111.60162037037</v>
+        <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4977,8 +4982,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5015,14 +5025,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45272</v>
+        <v>44832</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5035,7 +5045,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7.6</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5072,14 +5082,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>44386</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5092,7 +5102,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5129,14 +5139,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5149,7 +5159,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5186,14 +5196,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5205,8 +5215,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5243,14 +5258,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5263,7 +5278,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5300,14 +5315,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 42301-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45883</v>
+        <v>45180.44994212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5335,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5357,14 +5372,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5376,13 +5391,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5419,14 +5429,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45820.439375</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,13 +5448,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5481,14 +5486,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39365-2025</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45889.5662962963</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5500,13 +5505,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5543,14 +5543,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39367-2025</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45889.57412037037</v>
+        <v>45707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5562,13 +5562,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5605,14 +5600,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45797</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,13 +5619,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5667,14 +5657,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45890</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5686,13 +5676,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5729,14 +5714,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5748,13 +5733,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5791,14 +5771,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45043</v>
+        <v>45492</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5811,7 +5791,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5848,14 +5828,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 59842-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45385</v>
+        <v>44908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5868,7 +5848,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5905,14 +5885,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5925,7 +5905,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5962,14 +5942,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>44496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5982,7 +5962,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6019,14 +5999,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6039,7 +6019,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6076,14 +6056,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6096,7 +6076,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6133,14 +6113,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6152,13 +6132,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6195,14 +6170,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44953</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6215,7 +6190,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6252,14 +6227,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6247,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6309,14 +6284,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>45149</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6304,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6366,14 +6341,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>45099</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6386,7 +6361,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6423,14 +6398,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60233-2023</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45258</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,8 +6417,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6480,14 +6460,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20721-2025</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45776.50532407407</v>
+        <v>44497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6500,7 +6480,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6537,14 +6517,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>44957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,13 +6536,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6599,14 +6574,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>45109</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6619,7 +6594,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6656,14 +6631,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44687</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,13 +6650,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6718,14 +6688,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13509-2024</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45387.68763888889</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6738,7 +6708,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>10.7</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6775,14 +6745,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20063-2025</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45772</v>
+        <v>45170</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,8 +6764,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6832,14 +6807,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,13 +6826,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6894,14 +6864,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>45462</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6913,13 +6883,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6956,14 +6921,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 30479-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>45111.60162037037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6975,13 +6940,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7018,14 +6978,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 7233-2023</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44970.6025</v>
+        <v>44701</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7038,7 +6998,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7075,14 +7035,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7094,13 +7054,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7137,14 +7092,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>45469</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7112,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7194,14 +7149,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 12747-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45384.54314814815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7169,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7251,14 +7206,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45091</v>
+        <v>45469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7271,7 +7226,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7308,14 +7263,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>44698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7328,7 +7283,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7365,14 +7320,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>44895</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7385,7 +7340,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7422,14 +7377,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7442,7 +7397,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7479,14 +7434,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45196</v>
+        <v>45223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7499,7 +7454,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7536,14 +7491,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48106-2025</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45933</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7556,7 +7511,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7593,14 +7548,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7613,7 +7568,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7650,14 +7605,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45707</v>
+        <v>45196</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7670,7 +7625,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7707,14 +7662,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7727,7 +7682,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7764,14 +7719,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44827</v>
+        <v>45043</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7784,7 +7739,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7821,14 +7776,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7840,13 +7795,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7883,14 +7833,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7903,7 +7853,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7940,14 +7890,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 26084-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45492</v>
+        <v>45091</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7960,7 +7910,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7997,14 +7947,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45098</v>
+        <v>45313.3825</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8016,13 +7966,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8059,14 +8004,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>45883</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8079,7 +8024,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.2</v>
+        <v>4.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8116,14 +8061,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 29255-2025</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45824.38359953704</v>
+        <v>45448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8135,8 +8080,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8173,14 +8123,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 29255-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>45824.38359953704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8193,7 +8143,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8230,14 +8180,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45628</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8250,7 +8200,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8287,14 +8237,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45086</v>
+        <v>45797</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8306,8 +8256,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8344,14 +8299,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>44687</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8363,13 +8318,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8406,14 +8356,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8425,13 +8375,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8468,14 +8413,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 46190-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>45196</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8525,14 +8470,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>45086</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8545,7 +8490,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8582,14 +8527,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 18017-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>45420</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8601,8 +8546,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8639,14 +8589,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8660,7 +8610,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -8701,14 +8651,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>44827</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,13 +8670,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8763,14 +8708,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44433</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8783,7 +8728,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8820,14 +8765,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 39365-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>45889.5662962963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8839,8 +8784,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8877,14 +8827,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 39367-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>45889.57412037037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8896,8 +8846,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8934,14 +8889,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>45890</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8959,7 +8914,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8996,14 +8951,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9016,7 +8971,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9053,14 +9008,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45959</v>
+        <v>44909</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9073,7 +9028,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9110,14 +9065,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45959</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9129,8 +9084,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9167,14 +9127,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45448</v>
+        <v>45385</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,13 +9146,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9229,14 +9184,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 46190-2023</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45196</v>
+        <v>44995</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9249,7 +9204,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>13.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9286,14 +9241,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 48985-2022</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44860</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9306,7 +9261,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9343,14 +9298,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44701</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9363,7 +9318,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9400,14 +9355,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 50043-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44698</v>
+        <v>45215.49396990741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9420,7 +9375,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9457,14 +9412,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9477,7 +9432,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9514,14 +9469,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46037.566875</v>
+        <v>44812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9534,7 +9489,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9571,14 +9526,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44497</v>
+        <v>45140</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9591,7 +9546,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9628,14 +9583,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,13 +9602,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9690,14 +9640,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9710,7 +9660,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9754,7 +9704,7 @@
         <v>45224.81199074074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9804,14 +9754,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9824,7 +9774,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9861,14 +9811,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 18734-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>45043</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9880,13 +9830,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9923,14 +9868,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9942,8 +9887,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9980,14 +9930,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 1567-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45408.386875</v>
+        <v>44937.60682870371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9999,13 +9949,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10042,14 +9987,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10061,8 +10006,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10099,14 +10049,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45356</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10118,8 +10068,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10156,14 +10111,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45469</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10175,8 +10130,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10213,14 +10173,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 12747-2024</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45384.54314814815</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10232,8 +10192,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10270,14 +10235,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10290,7 +10255,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10327,14 +10292,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45149</v>
+        <v>45435</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10347,7 +10312,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10384,14 +10349,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10404,7 +10369,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10441,14 +10406,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>44433</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10461,7 +10426,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10498,14 +10463,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44386</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10518,7 +10483,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10555,14 +10520,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10540,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10612,14 +10577,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10597,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10669,14 +10634,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>45469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10688,13 +10653,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10731,14 +10691,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 48106-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>45933</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10751,7 +10711,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10788,14 +10748,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10807,13 +10767,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.7</v>
+        <v>21.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10850,14 +10805,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44895</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10870,7 +10825,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10907,14 +10862,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>45156</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10964,14 +10919,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>45621.559375</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10984,7 +10939,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11021,14 +10976,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44832</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11040,8 +10995,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11078,14 +11038,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45170</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11097,13 +11057,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11140,14 +11095,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11197,14 +11152,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45469</v>
+        <v>45356</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11217,7 +11172,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11254,14 +11209,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45313.3825</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11274,7 +11229,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11311,14 +11266,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11331,7 +11286,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11368,14 +11323,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 7530-2026</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46059.61744212963</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11387,8 +11342,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11425,14 +11385,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 7531-2026</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46059.61849537037</v>
+        <v>44743</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11445,7 +11405,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11482,14 +11442,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 48985-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44687</v>
+        <v>44860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11502,7 +11462,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11539,14 +11499,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45043</v>
+        <v>45628</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11559,7 +11519,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11596,14 +11556,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 8701-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>44978.35130787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11616,7 +11576,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11653,14 +11613,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 50043-2023</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45215.49396990741</v>
+        <v>45448</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11672,8 +11632,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11710,14 +11675,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 7522-2026</t>
+          <t>A 7974-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46059</v>
+        <v>45707</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11730,7 +11695,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11767,14 +11732,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44957</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11824,14 +11789,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 17705-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>45758.43197916666</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11843,8 +11808,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11881,14 +11851,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 17709-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44496</v>
+        <v>45758.43493055556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11900,8 +11870,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11938,14 +11913,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11958,7 +11933,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11995,14 +11970,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>45313</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12015,7 +11990,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.3</v>
+        <v>11.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12052,14 +12027,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12071,8 +12046,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12109,14 +12089,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>45959</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12129,7 +12109,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12166,14 +12146,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 9691-2026</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46072.40653935185</v>
+        <v>45959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12186,7 +12166,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12223,14 +12203,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 18734-2023</t>
+          <t>A 59841-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45043</v>
+        <v>45639.67075231481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12243,7 +12223,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12280,14 +12260,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 49435-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45140</v>
+        <v>45595.85221064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12300,7 +12280,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12337,14 +12317,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12357,7 +12337,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12394,14 +12374,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44995</v>
+        <v>46037.566875</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12414,7 +12394,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>13.5</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12451,14 +12431,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 9752-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>45716</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12470,8 +12450,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12508,14 +12493,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 9756-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44743</v>
+        <v>45716.47010416666</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12527,8 +12512,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12565,14 +12555,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45099</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12584,8 +12574,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>3.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12622,14 +12617,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44812</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12641,8 +12636,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12679,14 +12679,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 25222-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45621.559375</v>
+        <v>45800.47864583333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12736,14 +12736,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>21.6</v>
+        <v>1.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12793,14 +12793,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 25219-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45223</v>
+        <v>45800</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12850,14 +12850,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 25407-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>45800.6600925926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12907,14 +12907,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44909</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12964,14 +12964,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13021,14 +13021,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13038,6 +13038,11 @@
       <c r="E211" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G211" t="n">
@@ -13078,14 +13083,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13097,8 +13102,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>0.2</v>
+        <v>2.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13135,14 +13145,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45448</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13154,13 +13164,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13197,14 +13202,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13216,13 +13221,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13259,14 +13259,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13316,14 +13316,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13373,14 +13373,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45156</v>
+        <v>44946</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.6</v>
+        <v>7.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13430,14 +13430,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13487,14 +13487,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13506,8 +13506,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13544,14 +13549,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>45820.439375</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13563,8 +13568,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13601,14 +13611,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45109</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13621,7 +13631,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13658,14 +13668,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45313</v>
+        <v>46059</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13678,7 +13688,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>11.7</v>
+        <v>8.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13715,14 +13725,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13735,7 +13745,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13772,14 +13782,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13792,7 +13802,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13829,14 +13839,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>44953</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13848,13 +13858,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13891,14 +13896,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 59841-2024</t>
+          <t>A 9691-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45639.67075231481</v>
+        <v>46072.40653935185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13911,7 +13916,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13948,14 +13953,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 58683-2024</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45635.61765046296</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13968,7 +13973,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>9.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14005,14 +14010,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 49435-2024</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45595.85221064815</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14025,7 +14030,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14062,14 +14067,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14081,13 +14086,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14124,14 +14124,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 20721-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45716</v>
+        <v>45776.50532407407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14143,13 +14143,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14186,14 +14181,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 25407-2025</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45800.6600925926</v>
+        <v>44687</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14205,8 +14200,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14243,14 +14243,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 25219-2025</t>
+          <t>A 60233-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45800</v>
+        <v>45258</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14300,14 +14300,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 25222-2025</t>
+          <t>A 13509-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45800.47864583333</v>
+        <v>45387.68763888889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>10.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14357,14 +14357,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 20063-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44946</v>
+        <v>45772</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>7.3</v>
+        <v>3.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 17546-2021</t>
+          <t>A 48101-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44299</v>
+        <v>45933</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,20 +1217,20 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
@@ -1241,214 +1241,214 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Plattsäv</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 33610-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45841.61888888889</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Lundbräsma</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 17546-2021</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44299</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Blomkålssvamp</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 9277-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 48101-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45933</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Plattsäv</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45973.43586805555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,14 +1542,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 33610-2025</t>
+          <t>A 9277-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45841.61888888889</v>
+        <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>11.2</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,31 +1596,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Lundbräsma</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
         <v/>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,14 +1684,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 35607-2022</t>
+          <t>A 74438-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44799</v>
+        <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1741,14 +1741,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 40946-2021</t>
+          <t>A 35607-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44421.5517824074</v>
+        <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1798,14 +1798,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 74438-2021</t>
+          <t>A 40946-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44560</v>
+        <v>44421.5517824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2026,14 +2026,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 74491-2021</t>
+          <t>A 29874-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44560.6203587963</v>
+        <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2083,14 +2083,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 29874-2022</t>
+          <t>A 70412-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44756.43268518519</v>
+        <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2140,14 +2140,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 70412-2021</t>
+          <t>A 74491-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44536.59342592592</v>
+        <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2197,14 +2197,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 52537-2022</t>
+          <t>A 28632-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44874</v>
+        <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>13.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2254,14 +2254,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 30060-2021</t>
+          <t>A 6251-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44363.47837962963</v>
+        <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2273,8 +2273,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2311,14 +2316,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 30687-2021</t>
+          <t>A 52537-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44365.40762731482</v>
+        <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2331,7 +2336,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2368,14 +2373,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35768-2021</t>
+          <t>A 30060-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44386</v>
+        <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2388,7 +2393,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2425,14 +2430,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52971-2021</t>
+          <t>A 30687-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44467.62484953704</v>
+        <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2482,14 +2487,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 34658-2021</t>
+          <t>A 35768-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44382</v>
+        <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2539,14 +2544,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 5594-2022</t>
+          <t>A 34658-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44595</v>
+        <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2564,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2603,7 +2608,7 @@
         <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2653,14 +2658,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 34656-2021</t>
+          <t>A 11934-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44382</v>
+        <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2678,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2710,14 +2715,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 28632-2021</t>
+          <t>A 52971-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44357.31700231481</v>
+        <v>44467.62484953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2735,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>13.4</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2767,14 +2772,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 11934-2021</t>
+          <t>A 5594-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44265</v>
+        <v>44595</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2792,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2824,14 +2829,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 6251-2022</t>
+          <t>A 34656-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44600.44402777778</v>
+        <v>44382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2843,13 +2848,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44595</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44595</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44659</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44544.69722222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,14 +3176,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 50741-2021</t>
+          <t>A 24976-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44460</v>
+        <v>44728.73445601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>44714</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,14 +3290,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24976-2022</t>
+          <t>A 50741-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44728.73445601852</v>
+        <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>44589.46652777777</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3461,14 +3461,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 40164-2022</t>
+          <t>A 38210-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44818</v>
+        <v>44812</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38210-2022</t>
+          <t>A 68932-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44812</v>
+        <v>44530.4952662037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 40164-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45272</v>
+        <v>44818</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>45469</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 68932-2021</t>
+          <t>A 18017-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44530.4952662037</v>
+        <v>45420</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3708,8 +3708,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3746,14 +3751,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>45435</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3766,7 +3771,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3803,14 +3808,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60086-2024</t>
+          <t>A 40264-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45642.54302083333</v>
+        <v>45554.63769675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3823,7 +3828,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3860,14 +3865,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3880,7 +3885,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3917,14 +3922,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45398</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3936,13 +3941,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3979,14 +3979,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 42752-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>45566.49165509259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3998,8 +3998,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4036,14 +4041,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 18616-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>45763.50706018518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4061,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4093,14 +4098,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7233-2023</t>
+          <t>A 42301-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44970.6025</v>
+        <v>45180.44994212963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4118,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4150,14 +4155,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 59842-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45408.386875</v>
+        <v>44908</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4169,13 +4174,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4212,14 +4212,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4269,14 +4269,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 31128-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44895</v>
+        <v>45113.69722222222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4326,14 +4326,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31128-2023</t>
+          <t>A 29255-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45113.69722222222</v>
+        <v>45824.38359953704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4383,14 +4383,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 48106-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>45933</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4402,13 +4402,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4445,14 +4440,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 7974-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45707</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4465,7 +4460,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4502,14 +4497,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 59841-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>45639.67075231481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4521,13 +4516,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4564,14 +4554,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 8701-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>44978.35130787037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4584,7 +4574,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4621,14 +4611,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 60086-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>45642.54302083333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4641,7 +4631,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4678,14 +4668,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45043</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4698,7 +4688,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4735,14 +4725,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18616-2025</t>
+          <t>A 1567-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45763.50706018518</v>
+        <v>44937.60682870371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4755,7 +4745,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4792,14 +4782,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40264-2024</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45554.63769675926</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4812,7 +4802,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4849,14 +4839,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>45883</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4869,7 +4859,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4906,14 +4896,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 39365-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>45889.5662962963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,8 +4915,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4963,14 +4958,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 39367-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45098</v>
+        <v>45889.57412037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4983,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5025,14 +5020,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44832</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5040,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5082,14 +5077,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 26084-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44386</v>
+        <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5097,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5139,14 +5134,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45091</v>
+        <v>45797</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5158,8 +5153,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5196,14 +5196,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 49435-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>45595.85221064815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5213,11 +5213,6 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -5258,14 +5253,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>45890</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5277,8 +5272,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5315,14 +5315,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 42301-2023</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45180.44994212963</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5334,8 +5334,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5372,14 +5377,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 9756-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>45716.47010416666</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5391,8 +5396,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5429,14 +5439,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 9752-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>45716</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5448,8 +5458,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5486,14 +5501,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5506,7 +5521,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5543,14 +5558,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45707</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5563,7 +5578,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5600,14 +5615,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5619,8 +5634,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5657,14 +5677,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>45462</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5697,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5714,14 +5734,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>45398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5733,8 +5753,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5771,14 +5796,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 25407-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45492</v>
+        <v>45800.6600925926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5816,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5828,14 +5853,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 59842-2022</t>
+          <t>A 25219-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44908</v>
+        <v>45800</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5873,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5885,14 +5910,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 25222-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>45800.47864583333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5930,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5942,14 +5967,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44496</v>
+        <v>44895</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5987,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5999,14 +6024,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6044,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6056,14 +6081,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6101,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6113,14 +6138,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>45272</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6158,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6170,14 +6195,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6215,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6227,14 +6252,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,8 +6271,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6284,14 +6314,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 30479-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45149</v>
+        <v>45111.60162037037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6334,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6341,14 +6371,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45099</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,8 +6390,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6398,14 +6433,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,13 +6452,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6460,14 +6490,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44497</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6479,8 +6509,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6517,14 +6552,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44957</v>
+        <v>44946</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6537,7 +6572,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6574,14 +6609,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45109</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6593,8 +6628,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6631,14 +6671,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6650,8 +6690,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6688,14 +6733,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6708,7 +6753,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6745,14 +6790,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45170</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6764,13 +6809,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6807,14 +6847,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6827,7 +6867,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6864,14 +6904,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45462</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,8 +6923,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6921,14 +6966,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 30479-2023</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45111.60162037037</v>
+        <v>45820.439375</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6940,8 +6985,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6978,14 +7028,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44701</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6997,8 +7047,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7035,14 +7090,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>45043</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7055,7 +7110,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7092,14 +7147,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45469</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7112,7 +7167,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7149,14 +7204,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 12747-2024</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45384.54314814815</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7169,7 +7224,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7206,14 +7261,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45469</v>
+        <v>45385</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7226,7 +7281,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7263,14 +7318,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44698</v>
+        <v>44953</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7283,7 +7338,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7320,14 +7375,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44895</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7340,7 +7395,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7377,14 +7432,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7397,7 +7452,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7434,14 +7489,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45223</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,8 +7508,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7491,14 +7551,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7511,7 +7571,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7548,14 +7608,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 60233-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>45258</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7568,7 +7628,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7605,14 +7665,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45196</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7625,7 +7685,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7662,14 +7722,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 20721-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>45776.50532407407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7682,7 +7742,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7719,14 +7779,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45043</v>
+        <v>44687</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7738,8 +7798,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7776,14 +7841,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 13509-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>45387.68763888889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7796,7 +7861,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>10.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7833,14 +7898,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7853,7 +7918,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7890,14 +7955,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 26084-2023</t>
+          <t>A 20063-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45091</v>
+        <v>45772</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7910,7 +7975,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7947,14 +8012,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 7233-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45313.3825</v>
+        <v>44970.6025</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7967,7 +8032,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8004,14 +8069,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45883</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8024,7 +8089,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8061,14 +8126,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45448</v>
+        <v>44860.390625</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,13 +8145,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8123,14 +8183,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29255-2025</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45824.38359953704</v>
+        <v>45091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8203,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8180,14 +8240,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8260,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8237,14 +8297,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45797</v>
+        <v>45196</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,11 +8314,6 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -8299,14 +8354,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44687</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8319,7 +8374,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8356,14 +8411,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,8 +8430,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8413,14 +8473,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 46190-2023</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45196</v>
+        <v>45707</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8433,7 +8493,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>7.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8470,14 +8530,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45086</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8550,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8527,14 +8587,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 18017-2024</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45420</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,13 +8606,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8589,14 +8644,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>44827</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,13 +8663,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8651,14 +8701,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44827</v>
+        <v>45492</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8671,7 +8721,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8708,14 +8758,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>45098</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,8 +8777,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8765,14 +8820,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 39365-2025</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45889.5662962963</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,13 +8839,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8827,14 +8877,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 39367-2025</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45889.57412037037</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8846,13 +8896,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8889,14 +8934,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45890</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,13 +8953,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8951,14 +8991,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>45628</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +9011,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9008,14 +9048,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44909</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9028,7 +9068,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9065,14 +9105,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,13 +9124,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9127,14 +9162,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45385</v>
+        <v>45959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9182,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9184,14 +9219,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 17705-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44995</v>
+        <v>45758.43197916666</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9203,8 +9238,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>13.5</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9241,14 +9281,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 17709-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>45758.43493055556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,8 +9300,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9298,14 +9343,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>45959</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9363,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9355,14 +9400,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 50043-2023</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45215.49396990741</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9375,7 +9420,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9412,14 +9457,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9432,7 +9477,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9469,14 +9514,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44812</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9488,8 +9533,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9526,14 +9576,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45140</v>
+        <v>44433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9546,7 +9596,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9583,14 +9633,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9602,8 +9652,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9640,14 +9695,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9660,7 +9715,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9697,14 +9752,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 52383-2023</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45224.81199074074</v>
+        <v>46037.566875</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9717,7 +9772,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9754,14 +9809,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>45448</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9773,8 +9828,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9811,14 +9871,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 18734-2023</t>
+          <t>A 46190-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45043</v>
+        <v>45196</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9831,7 +9891,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9868,14 +9928,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 48985-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>44860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9887,13 +9947,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9930,14 +9985,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1567-2023</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44937.60682870371</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9949,8 +10004,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9987,14 +10047,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10008,11 +10068,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10049,14 +10109,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>44701</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,13 +10128,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10111,14 +10166,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>44698</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10130,13 +10185,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10173,14 +10223,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10192,13 +10242,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10235,14 +10280,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10255,7 +10300,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10292,14 +10337,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45435</v>
+        <v>44497</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10312,7 +10357,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10349,14 +10394,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10368,8 +10413,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10406,14 +10456,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44433</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10426,7 +10476,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10463,14 +10513,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 52383-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>45224.81199074074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10483,7 +10533,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10520,14 +10570,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,14 +10627,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10596,8 +10646,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10634,14 +10689,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45469</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10654,7 +10709,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10691,14 +10746,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 48106-2025</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45933</v>
+        <v>45408.386875</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10710,8 +10765,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10748,14 +10808,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10768,7 +10828,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>21.6</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10805,14 +10865,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>45356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10825,7 +10885,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10862,14 +10922,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45156</v>
+        <v>45469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10882,7 +10942,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10919,14 +10979,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 12747-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45621.559375</v>
+        <v>45384.54314814815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10939,7 +10999,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10976,14 +11036,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10995,13 +11055,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11038,14 +11093,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>45149</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11058,7 +11113,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11095,14 +11150,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>44386</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,14 +11207,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45356</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11172,7 +11227,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11209,14 +11264,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11229,7 +11284,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11266,14 +11321,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11286,7 +11341,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11323,14 +11378,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>44895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11342,13 +11397,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11385,14 +11435,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44743</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11405,7 +11455,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11442,14 +11492,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 48985-2022</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44860</v>
+        <v>44832</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11462,7 +11512,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11499,14 +11549,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45628</v>
+        <v>46059</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11519,7 +11569,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>8.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11556,14 +11606,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 8701-2023</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44978.35130787037</v>
+        <v>45170</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11575,8 +11625,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11613,14 +11668,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45448</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11632,13 +11687,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11675,14 +11725,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 7974-2025</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45707</v>
+        <v>45469</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11695,7 +11745,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11732,14 +11782,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>45313.3825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11752,7 +11802,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11789,14 +11839,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>44687</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11808,13 +11858,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11851,14 +11896,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>45043</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11870,13 +11915,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11913,14 +11953,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11933,7 +11973,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11970,14 +12010,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 50043-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45313</v>
+        <v>45215.49396990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11990,7 +12030,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>11.7</v>
+        <v>0.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12027,14 +12067,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>44957</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12046,13 +12086,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12089,14 +12124,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 9691-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45959</v>
+        <v>46072.40653935185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12109,7 +12144,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12146,14 +12181,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45959</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12166,7 +12201,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12203,14 +12238,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 59841-2024</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45639.67075231481</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12223,7 +12258,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12260,14 +12295,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 49435-2024</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45595.85221064815</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12280,7 +12315,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12317,14 +12352,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 58683-2024</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45635.61765046296</v>
+        <v>44496</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12337,7 +12372,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>9.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12374,14 +12409,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46037.566875</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12394,7 +12429,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12431,14 +12466,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45716</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12450,13 +12485,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12493,14 +12523,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12512,13 +12542,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12555,14 +12580,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12574,13 +12599,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12617,14 +12637,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12636,13 +12656,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12679,14 +12694,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 25222-2025</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45800.47864583333</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12699,7 +12714,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12736,14 +12751,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12756,7 +12771,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12793,14 +12808,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 25219-2025</t>
+          <t>A 18734-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45800</v>
+        <v>45043</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12813,7 +12828,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12850,14 +12865,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 25407-2025</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45800.6600925926</v>
+        <v>45140</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12870,7 +12885,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12907,14 +12922,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12927,7 +12942,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12964,14 +12979,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>44995</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12984,7 +12999,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>13.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13021,14 +13036,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13040,13 +13055,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13083,14 +13093,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>44743</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13102,13 +13112,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13145,14 +13150,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>45099</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13165,7 +13170,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13202,14 +13207,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>44812</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13222,7 +13227,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13259,14 +13264,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>45621.559375</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13279,7 +13284,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13316,14 +13321,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13336,7 +13341,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.9</v>
+        <v>21.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13373,14 +13378,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44946</v>
+        <v>45223</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13393,7 +13398,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13430,14 +13435,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 7530-2026</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46059.61744212963</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13450,7 +13455,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13487,14 +13492,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13506,13 +13511,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13549,14 +13549,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45820.439375</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13568,13 +13568,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13611,14 +13606,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7531-2026</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46059.61849537037</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13631,7 +13626,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13668,14 +13663,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 7522-2026</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46059</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13688,7 +13683,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>8.4</v>
+        <v>0.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13725,14 +13720,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>45448</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13744,8 +13739,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13782,14 +13782,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13801,8 +13801,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13839,14 +13844,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44953</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13859,7 +13864,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13896,14 +13901,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 9691-2026</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46072.40653935185</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13916,7 +13921,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13953,14 +13958,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>45156</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13973,7 +13978,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14010,14 +14015,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14030,7 +14035,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14067,14 +14072,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14087,7 +14092,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14124,14 +14129,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 20721-2025</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45776.50532407407</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14144,7 +14149,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14181,14 +14186,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44687</v>
+        <v>45109</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14200,13 +14205,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14243,14 +14243,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 60233-2023</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45258</v>
+        <v>45313</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.5</v>
+        <v>11.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14300,14 +14300,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 13509-2024</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45387.68763888889</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>10.7</v>
+        <v>0.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14357,14 +14357,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 20063-2025</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45772</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 48101-2025</t>
+          <t>A 9277-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45933</v>
+        <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1241,389 +1241,389 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 17546-2021</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44299</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 48101-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45933</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Plattsäv</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 48101-2025 artfynd.xlsx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 48101-2025 karta.png", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 48101-2025 FSC-klagomål.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 48101-2025 FSC-klagomål mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 48101-2025 tillsynsbegäran.docx", "A 48101-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 48101-2025 tillsynsbegäran mail.docx", "A 48101-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 33610-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45841.61888888889</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>11.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Lundbräsma</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 17546-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44299</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 55928-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45973.43586805555</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 55928-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45973.43586805555</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 9277-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SKARA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 9277-2023 artfynd.xlsx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 9277-2023 karta.png", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 9277-2023 FSC-klagomål.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 9277-2023 FSC-klagomål mail.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 9277-2023 tillsynsbegäran.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 9277-2023 tillsynsbegäran mail.docx", "A 9277-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,14 +1684,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 74438-2021</t>
+          <t>A 35607-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44560</v>
+        <v>44799</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1741,14 +1741,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 35607-2022</t>
+          <t>A 40946-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44799</v>
+        <v>44421.5517824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1798,14 +1798,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 40946-2021</t>
+          <t>A 74438-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44421.5517824074</v>
+        <v>44560</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,14 +2373,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 30060-2021</t>
+          <t>A 34658-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44363.47837962963</v>
+        <v>44382</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2430,14 +2430,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 30687-2021</t>
+          <t>A 33940-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44365.40762731482</v>
+        <v>44378.80239583334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2487,14 +2487,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35768-2021</t>
+          <t>A 30060-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44386</v>
+        <v>44363.47837962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2544,14 +2544,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34658-2021</t>
+          <t>A 30687-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44382</v>
+        <v>44365.40762731482</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2601,14 +2601,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33940-2021</t>
+          <t>A 11934-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44378.80239583334</v>
+        <v>44265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2658,14 +2658,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 11934-2021</t>
+          <t>A 35768-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44265</v>
+        <v>44386</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,14 +2772,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 5594-2022</t>
+          <t>A 33938-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44595</v>
+        <v>44378</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2829,14 +2829,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 34656-2021</t>
+          <t>A 5598-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44382</v>
+        <v>44595</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2886,14 +2886,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33938-2021</t>
+          <t>A 5600-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44378</v>
+        <v>44595</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>8.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2943,14 +2943,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 5598-2022</t>
+          <t>A 5594-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3000,14 +3000,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5600-2022</t>
+          <t>A 34656-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44595</v>
+        <v>44382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>8.9</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3057,14 +3057,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 15415-2022</t>
+          <t>A 4409-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44659</v>
+        <v>44589.46652777777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3076,13 +3076,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3119,14 +3114,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 72213-2021</t>
+          <t>A 15415-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44544.69722222222</v>
+        <v>44659</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3138,8 +3133,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>44728.73445601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,14 +3233,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22585-2022</t>
+          <t>A 72213-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44714</v>
+        <v>44544.69722222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 50741-2021</t>
+          <t>A 22585-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44460</v>
+        <v>44714</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 4409-2022</t>
+          <t>A 50741-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44589.46652777777</v>
+        <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12503-2021</t>
+          <t>A 38210-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44268</v>
+        <v>44812</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38210-2022</t>
+          <t>A 68932-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44812</v>
+        <v>44530.4952662037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 68932-2021</t>
+          <t>A 12503-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44530.4952662037</v>
+        <v>44268</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44818</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3632,14 +3632,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26567-2024</t>
+          <t>A 62890-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45469</v>
+        <v>45272</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 18017-2024</t>
+          <t>A 5816-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45420</v>
+        <v>45335.54832175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3708,13 +3708,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3751,14 +3746,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20470-2024</t>
+          <t>A 7946-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45435</v>
+        <v>44973.66755787037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3766,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3808,14 +3803,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40264-2024</t>
+          <t>A 5825-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45554.63769675926</v>
+        <v>45335.56065972222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3823,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3865,14 +3860,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30080-2023</t>
+          <t>A 18616-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45110.43502314815</v>
+        <v>45763.50706018518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3880,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3922,14 +3917,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30083-2023</t>
+          <t>A 14844-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45110.43634259259</v>
+        <v>45398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3941,8 +3936,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3979,14 +3979,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 42752-2024</t>
+          <t>A 48098-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45566.49165509259</v>
+        <v>44856.37269675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3998,13 +3998,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4041,14 +4036,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 18616-2025</t>
+          <t>A 1567-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45763.50706018518</v>
+        <v>44937.60682870371</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4056,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4098,14 +4093,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42301-2023</t>
+          <t>A 10176-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45180.44994212963</v>
+        <v>45719.66662037037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4113,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4155,14 +4150,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 59842-2022</t>
+          <t>A 40264-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44908</v>
+        <v>45554.63769675926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4170,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4212,14 +4207,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48088-2025</t>
+          <t>A 2110-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45932.88050925926</v>
+        <v>45309.47417824074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4227,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4269,14 +4264,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31128-2023</t>
+          <t>A 35217-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45113.69722222222</v>
+        <v>45145.64420138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4284,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4326,14 +4321,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 29255-2025</t>
+          <t>A 20470-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45824.38359953704</v>
+        <v>45435</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4341,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4383,14 +4378,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48106-2025</t>
+          <t>A 30513-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45933</v>
+        <v>45492</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4398,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4440,14 +4435,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7974-2025</t>
+          <t>A 9006-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45707</v>
+        <v>44615.3561574074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4455,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4497,14 +4492,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59841-2024</t>
+          <t>A 7971-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45639.67075231481</v>
+        <v>45707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4512,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>7.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4554,14 +4549,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8701-2023</t>
+          <t>A 56849-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44978.35130787037</v>
+        <v>44894.49025462963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4569,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4611,14 +4606,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 60086-2024</t>
+          <t>A 49002-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45642.54302083333</v>
+        <v>44860.390625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4626,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4668,14 +4663,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 4541-2025</t>
+          <t>A 43564-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45687.39320601852</v>
+        <v>44433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4725,14 +4720,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1567-2023</t>
+          <t>A 9118-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44937.60682870371</v>
+        <v>45713.80175925926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4740,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4782,14 +4777,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48097-2025</t>
+          <t>A 12889-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45933.30924768518</v>
+        <v>44642.5922337963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4797,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4839,14 +4834,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38548-2025</t>
+          <t>A 28073-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45883</v>
+        <v>45099</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4854,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4896,14 +4891,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39365-2025</t>
+          <t>A 57258-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45889.5662962963</v>
+        <v>44895</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4915,13 +4910,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4958,14 +4948,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39367-2025</t>
+          <t>A 26570-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45889.57412037037</v>
+        <v>45469</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4977,13 +4967,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5020,14 +5005,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58683-2024</t>
+          <t>A 26268-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45635.61765046296</v>
+        <v>45091.61202546296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5040,7 +5025,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>9.199999999999999</v>
+        <v>21.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5077,14 +5062,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26084-2023</t>
+          <t>A 52381-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45091</v>
+        <v>45224.80859953703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5097,7 +5082,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5134,14 +5119,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 24429-2025</t>
+          <t>A 60840-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45797</v>
+        <v>44497</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,13 +5138,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5196,14 +5176,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49435-2024</t>
+          <t>A 5559-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45595.85221064815</v>
+        <v>44957</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5196,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5253,14 +5233,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39492-2025</t>
+          <t>A 65124-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45890</v>
+        <v>45288.49311342592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5272,13 +5252,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5315,14 +5290,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39494-2025</t>
+          <t>A 37460-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45890.37663194445</v>
+        <v>45156</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5334,13 +5309,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5377,14 +5347,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9756-2025</t>
+          <t>A 27265-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45716.47010416666</v>
+        <v>45096.62655092592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,13 +5366,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5439,14 +5404,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9752-2025</t>
+          <t>A 60654-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45716</v>
+        <v>44496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5458,13 +5423,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5501,14 +5461,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2110-2024</t>
+          <t>A 60086-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45309.47417824074</v>
+        <v>45642.54302083333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5521,7 +5481,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5558,14 +5518,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 41705-2025</t>
+          <t>A 7233-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45902.42136574074</v>
+        <v>44970.6025</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5578,7 +5538,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5615,14 +5575,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 6366-2025</t>
+          <t>A 26567-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45699.38159722222</v>
+        <v>45469</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,13 +5594,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5677,14 +5632,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25153-2024</t>
+          <t>A 57238-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45462</v>
+        <v>44895</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5697,7 +5652,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5734,14 +5689,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14844-2024</t>
+          <t>A 32668-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45398</v>
+        <v>45514.46949074074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,13 +5708,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5796,14 +5746,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25407-2025</t>
+          <t>A 55202-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45800.6600925926</v>
+        <v>45621.559375</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5816,7 +5766,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5853,14 +5803,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25219-2025</t>
+          <t>A 55211-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45800</v>
+        <v>45621.56515046296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5873,7 +5823,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5910,14 +5860,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25222-2025</t>
+          <t>A 31128-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45800.47864583333</v>
+        <v>45113.69722222222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5930,7 +5880,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5967,14 +5917,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 57258-2022</t>
+          <t>A 26575-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44895</v>
+        <v>45469.65163194444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5987,7 +5937,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6024,14 +5974,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 55246-2022</t>
+          <t>A 6366-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44887.2725462963</v>
+        <v>45699.38159722222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6043,8 +5993,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6081,14 +6036,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55247-2022</t>
+          <t>A 515-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44887.28344907407</v>
+        <v>45299.4187037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6101,7 +6056,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6138,14 +6093,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 62890-2023</t>
+          <t>A 8781-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45272</v>
+        <v>45356</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6158,7 +6113,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6195,14 +6150,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 4542-2025</t>
+          <t>A 55247-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45687.39540509259</v>
+        <v>44887.28344907407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6215,7 +6170,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6252,14 +6207,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44819-2025</t>
+          <t>A 30057-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45918.38085648148</v>
+        <v>44363.47548611111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,13 +6226,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6314,14 +6264,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30479-2023</t>
+          <t>A 10827-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45111.60162037037</v>
+        <v>44990.82427083333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6334,7 +6284,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6371,14 +6321,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46155-2025</t>
+          <t>A 25176-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45924.61878472222</v>
+        <v>45086</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6390,13 +6340,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6433,14 +6378,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7946-2023</t>
+          <t>A 27980-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44973.66755787037</v>
+        <v>45098</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6452,8 +6397,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6490,14 +6440,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46211-2025</t>
+          <t>A 42874-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45924.71409722222</v>
+        <v>44832</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6509,13 +6459,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6552,14 +6497,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 3144-2023</t>
+          <t>A 27668-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44946</v>
+        <v>44743</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6572,7 +6517,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.3</v>
+        <v>3.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6609,14 +6554,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46183-2025</t>
+          <t>A 35765-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45924.65844907407</v>
+        <v>44386</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6628,13 +6573,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6671,14 +6611,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46203-2025</t>
+          <t>A 26091-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45924.70355324074</v>
+        <v>45091</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6690,13 +6630,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6733,14 +6668,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26575-2024</t>
+          <t>A 41602-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45469.65163194444</v>
+        <v>45175.64809027778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6752,8 +6687,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6790,14 +6730,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28041-2025</t>
+          <t>A 48985-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45817.64803240741</v>
+        <v>44860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6810,7 +6750,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6847,14 +6787,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47010-2025</t>
+          <t>A 1198-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45929.57181712963</v>
+        <v>45667.3833912037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6866,8 +6806,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6904,14 +6849,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28738-2025</t>
+          <t>A 3822-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45820.38222222222</v>
+        <v>44587.34189814814</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6874,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6966,14 +6911,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 28773-2025</t>
+          <t>A 56922-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45820.439375</v>
+        <v>45628</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6985,13 +6930,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7028,14 +6968,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 50590-2025</t>
+          <t>A 8701-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45945.60101851852</v>
+        <v>44978.35130787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7047,13 +6987,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7090,14 +7025,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 18736-2023</t>
+          <t>A 65095-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45043</v>
+        <v>45288.40486111111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7110,7 +7045,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.7</v>
+        <v>0.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7147,14 +7082,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32844-2025</t>
+          <t>A 22867-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45839.57116898148</v>
+        <v>45448</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7166,8 +7101,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7204,14 +7144,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 32850-2025</t>
+          <t>A 30085-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45839.57383101852</v>
+        <v>45110.43747685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7224,7 +7164,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7261,14 +7201,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 12937-2024</t>
+          <t>A 1566-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45385</v>
+        <v>44937.60599537037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7281,7 +7221,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7318,14 +7258,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4306-2023</t>
+          <t>A 18739-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44953</v>
+        <v>45043</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7338,7 +7278,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7375,14 +7315,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 33095-2025</t>
+          <t>A 7974-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45840.47387731481</v>
+        <v>45707</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7395,7 +7335,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7432,14 +7372,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 30515-2024</t>
+          <t>A 40666-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45492.47263888889</v>
+        <v>45170</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7451,8 +7391,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7489,14 +7434,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 1198-2025</t>
+          <t>A 17705-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45667.3833912037</v>
+        <v>45758.43197916666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7514,7 +7459,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7551,14 +7496,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 515-2024</t>
+          <t>A 17709-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45299.4187037037</v>
+        <v>45758.43493055556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7570,8 +7515,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7608,14 +7558,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60233-2023</t>
+          <t>A 16510-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45258</v>
+        <v>45408.386875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7625,6 +7575,11 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -7665,14 +7620,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 64551-2023</t>
+          <t>A 15927-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45281.40021990741</v>
+        <v>45022.54587962963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7685,7 +7640,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7722,14 +7677,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 20721-2025</t>
+          <t>A 25153-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45776.50532407407</v>
+        <v>45462</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7742,7 +7697,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7779,14 +7734,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 18704-2022</t>
+          <t>A 2590-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44687</v>
+        <v>45313</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7798,13 +7753,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>3.9</v>
+        <v>11.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7841,14 +7791,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 13509-2024</t>
+          <t>A 42753-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45387.68763888889</v>
+        <v>45566.49253472222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7860,8 +7810,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>10.7</v>
+        <v>4.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7898,14 +7853,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9006-2022</t>
+          <t>A 26480-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44615.3561574074</v>
+        <v>45469.55256944444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7918,7 +7873,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7955,14 +7910,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 20063-2025</t>
+          <t>A 26482-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45772</v>
+        <v>45469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7930,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8012,14 +7967,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7233-2023</t>
+          <t>A 12747-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44970.6025</v>
+        <v>45384.54314814815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +7987,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8069,14 +8024,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48098-2022</t>
+          <t>A 42752-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44856.37269675926</v>
+        <v>45566.49165509259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8088,8 +8043,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8126,14 +8086,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 49002-2022</t>
+          <t>A 42301-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44860.390625</v>
+        <v>45180.44994212963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8183,14 +8143,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26091-2023</t>
+          <t>A 30515-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45091</v>
+        <v>45492.47263888889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8203,7 +8163,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8240,14 +8200,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 5825-2024</t>
+          <t>A 21497-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45335.56065972222</v>
+        <v>44321.5434375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8260,7 +8220,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8297,14 +8257,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46185-2023</t>
+          <t>A 59841-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45196</v>
+        <v>45639.67075231481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8317,7 +8277,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8354,14 +8314,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 53170-2025</t>
+          <t>A 18606-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45958.51211805556</v>
+        <v>45763.49371527778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8374,7 +8334,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8411,14 +8371,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 53527-2025</t>
+          <t>A 38548-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45960.36168981482</v>
+        <v>45883</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,13 +8390,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8473,14 +8428,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 7971-2025</t>
+          <t>A 59842-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45707</v>
+        <v>44908</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8493,7 +8448,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8530,14 +8485,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 9117-2025</t>
+          <t>A 29255-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45713.79837962963</v>
+        <v>45824.38359953704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8550,7 +8505,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8587,14 +8542,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37032-2025</t>
+          <t>A 4541-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45874.96774305555</v>
+        <v>45687.39320601852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8607,7 +8562,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8644,14 +8599,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 41562-2022</t>
+          <t>A 24429-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44827</v>
+        <v>45797</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,8 +8618,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8701,14 +8661,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 30513-2024</t>
+          <t>A 9117-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45492</v>
+        <v>45713.79837962963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8721,7 +8681,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8758,14 +8718,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 27980-2023</t>
+          <t>A 37032-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45098</v>
+        <v>45874.96774305555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,13 +8737,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8820,14 +8775,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 10827-2023</t>
+          <t>A 46185-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44990.82427083333</v>
+        <v>45196</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8840,7 +8795,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8877,14 +8832,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 55211-2024</t>
+          <t>A 18736-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45621.56515046296</v>
+        <v>45043</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8897,7 +8852,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8934,14 +8889,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 56274-2025</t>
+          <t>A 30080-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45974.58690972222</v>
+        <v>45110.43502314815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8954,7 +8909,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8991,14 +8946,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 56922-2024</t>
+          <t>A 30083-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45628</v>
+        <v>45110.43634259259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9011,7 +8966,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9048,14 +9003,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56787-2025</t>
+          <t>A 36041-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45978.42547453703</v>
+        <v>45149.40692129629</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9068,7 +9023,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9105,14 +9060,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 25176-2023</t>
+          <t>A 36045-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45086</v>
+        <v>45149</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9125,7 +9080,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9162,14 +9117,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 53476-2025</t>
+          <t>A 39494-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45959</v>
+        <v>45890.37663194445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9181,8 +9136,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9219,14 +9179,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 17705-2025</t>
+          <t>A 45159-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45758.43197916666</v>
+        <v>44844.36292824074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9238,13 +9198,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9281,14 +9236,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 17709-2025</t>
+          <t>A 39365-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45758.43493055556</v>
+        <v>45889.5662962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9306,7 +9261,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9343,14 +9298,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 53474-2025</t>
+          <t>A 39367-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45959</v>
+        <v>45889.57412037037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,8 +9317,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9400,14 +9360,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 1566-2023</t>
+          <t>A 39492-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44937.60599537037</v>
+        <v>45890</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,8 +9379,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9457,14 +9422,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 9118-2025</t>
+          <t>A 26084-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45713.80175925926</v>
+        <v>45091</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9477,7 +9442,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9514,14 +9479,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 3822-2022</t>
+          <t>A 49435-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44587.34189814814</v>
+        <v>45595.85221064815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,13 +9498,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9576,14 +9536,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 43564-2021</t>
+          <t>A 30019-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44433</v>
+        <v>45109</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9596,7 +9556,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9633,14 +9593,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 42753-2024</t>
+          <t>A 30069-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45566.49253472222</v>
+        <v>45110.42650462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9652,13 +9612,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9695,14 +9650,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 516-2024</t>
+          <t>A 30079-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45299.41960648148</v>
+        <v>45110.43378472222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9715,7 +9670,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9752,14 +9707,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2597-2026</t>
+          <t>A 58683-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46037.566875</v>
+        <v>45635.61765046296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9772,7 +9727,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9809,14 +9764,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 22867-2024</t>
+          <t>A 30479-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45448</v>
+        <v>45111.60162037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9828,13 +9783,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9871,14 +9821,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46190-2023</t>
+          <t>A 9752-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45196</v>
+        <v>45716</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9890,8 +9840,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9928,14 +9883,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 48985-2022</t>
+          <t>A 41705-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44860</v>
+        <v>45902.42136574074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9948,7 +9903,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9985,14 +9940,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 61324-2025</t>
+          <t>A 9756-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46001.27658564815</v>
+        <v>45716.47010416666</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10010,7 +9965,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10047,14 +10002,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37036-2024</t>
+          <t>A 27120-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45539.40431712963</v>
+        <v>45096.44828703703</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10066,13 +10021,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10109,14 +10059,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 20870-2022</t>
+          <t>A 25222-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44701</v>
+        <v>45800.47864583333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10129,7 +10079,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10166,14 +10116,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 20098-2022</t>
+          <t>A 25219-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44698</v>
+        <v>45800</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10186,7 +10136,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10223,14 +10173,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 30057-2021</t>
+          <t>A 25407-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44363.47548611111</v>
+        <v>45800.6600925926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10243,7 +10193,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10280,14 +10230,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 62887-2025</t>
+          <t>A 44819-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46009.30550925926</v>
+        <v>45918.38085648148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10299,8 +10249,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10337,14 +10292,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 60840-2021</t>
+          <t>A 46155-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44497</v>
+        <v>45924.61878472222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10356,8 +10311,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10394,14 +10354,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 62643-2025</t>
+          <t>A 46203-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46008.37989583334</v>
+        <v>45924.70355324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10415,11 +10375,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10456,14 +10416,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 18606-2025</t>
+          <t>A 46211-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45763.49371527778</v>
+        <v>45924.71409722222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10475,8 +10435,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10513,14 +10478,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 52383-2023</t>
+          <t>A 46183-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45224.81199074074</v>
+        <v>45924.65844907407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10532,8 +10497,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10570,14 +10540,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 35217-2023</t>
+          <t>A 18017-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45145.64420138889</v>
+        <v>45420</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10589,8 +10559,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10627,14 +10602,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62779-2025</t>
+          <t>A 47010-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46008.6137037037</v>
+        <v>45929.57181712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10646,13 +10621,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10689,14 +10659,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 5897-2026</t>
+          <t>A 28041-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46052.4284375</v>
+        <v>45817.64803240741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10709,7 +10679,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10746,14 +10716,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 16510-2024</t>
+          <t>A 3144-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45408.386875</v>
+        <v>44946</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10765,13 +10735,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10808,14 +10773,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 5900-2026</t>
+          <t>A 48088-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46052.43122685186</v>
+        <v>45932.88050925926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10828,7 +10793,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10865,14 +10830,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 8781-2024</t>
+          <t>A 48097-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45356</v>
+        <v>45933.30924768518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10885,7 +10850,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10922,14 +10887,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 26570-2024</t>
+          <t>A 20870-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45469</v>
+        <v>44701</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10942,7 +10907,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10979,14 +10944,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 12747-2024</t>
+          <t>A 48106-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45384.54314814815</v>
+        <v>45933</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10999,7 +10964,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11036,14 +11001,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 36041-2023</t>
+          <t>A 28738-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45149.40692129629</v>
+        <v>45820.38222222222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11055,8 +11020,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11093,14 +11063,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 36045-2023</t>
+          <t>A 28773-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45149</v>
+        <v>45820.439375</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11112,8 +11082,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11150,14 +11125,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35765-2021</t>
+          <t>A 20098-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44386</v>
+        <v>44698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11170,7 +11145,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11207,14 +11182,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 7530-2026</t>
+          <t>A 50590-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46059.61744212963</v>
+        <v>45945.60101851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11226,8 +11201,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11264,14 +11244,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 7531-2026</t>
+          <t>A 52041-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46059.61849537037</v>
+        <v>45223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11284,7 +11264,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11321,14 +11301,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 64553-2023</t>
+          <t>A 516-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45281.40106481482</v>
+        <v>45299.41960648148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11341,7 +11321,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11378,14 +11358,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 57238-2022</t>
+          <t>A 10913-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44895</v>
+        <v>45370.39414351852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11398,7 +11378,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11435,14 +11415,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 45159-2022</t>
+          <t>A 32844-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44844.36292824074</v>
+        <v>45839.57116898148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11455,7 +11435,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11492,14 +11472,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 42874-2022</t>
+          <t>A 32850-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44832</v>
+        <v>45839.57383101852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11512,7 +11492,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11549,14 +11529,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 7522-2026</t>
+          <t>A 4306-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46059</v>
+        <v>44953</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11569,7 +11549,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>8.4</v>
+        <v>3.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11606,14 +11586,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 40666-2023</t>
+          <t>A 53170-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45170</v>
+        <v>45958.51211805556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11623,11 +11603,6 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>SKARA</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -11668,14 +11643,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 26480-2024</t>
+          <t>A 2472-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45469.55256944444</v>
+        <v>45313.3825</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11688,7 +11663,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11725,14 +11700,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 26482-2024</t>
+          <t>A 33095-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45469</v>
+        <v>45840.47387731481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11745,7 +11720,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11782,14 +11757,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2472-2024</t>
+          <t>A 53527-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45313.3825</v>
+        <v>45960.36168981482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,8 +11776,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11839,14 +11819,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 18701-2022</t>
+          <t>A 22870-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44687</v>
+        <v>45448</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,8 +11838,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11896,14 +11881,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 18739-2023</t>
+          <t>A 20721-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45043</v>
+        <v>45776.50532407407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11916,7 +11901,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11953,14 +11938,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 21497-2021</t>
+          <t>A 18704-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44321.5434375</v>
+        <v>44687</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11972,8 +11957,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12010,14 +12000,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50043-2023</t>
+          <t>A 18701-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45215.49396990741</v>
+        <v>44687</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12030,7 +12020,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12067,14 +12057,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 5559-2023</t>
+          <t>A 60233-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44957</v>
+        <v>45258</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12087,7 +12077,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12124,14 +12114,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 9691-2026</t>
+          <t>A 46190-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46072.40653935185</v>
+        <v>45196</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12181,14 +12171,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 15927-2023</t>
+          <t>A 56274-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45022.54587962963</v>
+        <v>45974.58690972222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12201,7 +12191,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12238,14 +12228,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 1725-2026</t>
+          <t>A 41562-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46034.62398148148</v>
+        <v>44827</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12258,7 +12248,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12295,14 +12285,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 1929-2026</t>
+          <t>A 13509-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46035.57438657407</v>
+        <v>45387.68763888889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12315,7 +12305,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.3</v>
+        <v>10.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12352,14 +12342,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 60654-2021</t>
+          <t>A 20063-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44496</v>
+        <v>45772</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12372,7 +12362,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12409,14 +12399,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 1938-2026</t>
+          <t>A 2701-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46035.58709490741</v>
+        <v>45314.46743055555</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12429,7 +12419,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12466,14 +12456,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 27265-2023</t>
+          <t>A 56787-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45096.62655092592</v>
+        <v>45978.42547453703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12486,7 +12476,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12523,14 +12513,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 30069-2023</t>
+          <t>A 53474-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45110.42650462963</v>
+        <v>45959</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12543,7 +12533,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12580,14 +12570,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 30079-2023</t>
+          <t>A 4542-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45110.43378472222</v>
+        <v>45687.39540509259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12600,7 +12590,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12637,14 +12627,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 1931-2026</t>
+          <t>A 53476-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46035.57903935185</v>
+        <v>45959</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12657,7 +12647,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12694,14 +12684,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 1729-2026</t>
+          <t>A 59996-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46034.63483796296</v>
+        <v>44909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12714,7 +12704,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12751,14 +12741,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 10176-2025</t>
+          <t>A 12937-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45719.66662037037</v>
+        <v>45385</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12771,7 +12761,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12808,14 +12798,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 18734-2023</t>
+          <t>A 11902-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45043</v>
+        <v>44995</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12828,7 +12818,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.1</v>
+        <v>13.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12865,14 +12855,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 34569-2023</t>
+          <t>A 55246-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45140</v>
+        <v>44887.2725462963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12885,7 +12875,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12922,14 +12912,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2701-2024</t>
+          <t>A 2597-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45314.46743055555</v>
+        <v>46037.566875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12942,7 +12932,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12979,14 +12969,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11902-2023</t>
+          <t>A 50043-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44995</v>
+        <v>45215.49396990741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12999,7 +12989,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>13.5</v>
+        <v>0.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13036,14 +13026,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 10913-2024</t>
+          <t>A 64551-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45370.39414351852</v>
+        <v>45281.40021990741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13056,7 +13046,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13093,14 +13083,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 27668-2022</t>
+          <t>A 37036-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44743</v>
+        <v>45539.40431712963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13112,8 +13102,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13150,14 +13145,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 28073-2023</t>
+          <t>A 38205-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45099</v>
+        <v>44812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13170,7 +13165,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13207,14 +13202,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 38205-2022</t>
+          <t>A 34569-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44812</v>
+        <v>45140</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13227,7 +13222,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13264,14 +13259,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 55202-2024</t>
+          <t>A 48579-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45621.559375</v>
+        <v>45593.41236111111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13284,7 +13279,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13321,14 +13316,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 26268-2023</t>
+          <t>A 61324-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45091.61202546296</v>
+        <v>46001.27658564815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13340,8 +13335,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>21.6</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13378,14 +13378,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 52041-2023</t>
+          <t>A 11900-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45223</v>
+        <v>44995.44972222222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13435,14 +13435,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 56849-2022</t>
+          <t>A 52383-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44894.49025462963</v>
+        <v>45224.81199074074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13492,14 +13492,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 59996-2022</t>
+          <t>A 64553-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44909</v>
+        <v>45281.40106481482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13549,14 +13549,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 65124-2023</t>
+          <t>A 18734-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45288.49311342592</v>
+        <v>45043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13606,14 +13606,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 27120-2023</t>
+          <t>A 62643-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45096.44828703703</v>
+        <v>46008.37989583334</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13623,6 +13623,11 @@
       <c r="E221" t="inlineStr">
         <is>
           <t>SKARA</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G221" t="n">
@@ -13663,14 +13668,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 52381-2023</t>
+          <t>A 62779-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45224.80859953703</v>
+        <v>46008.6137037037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13682,8 +13687,13 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>0.2</v>
+        <v>2.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13720,14 +13730,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 22870-2024</t>
+          <t>A 62887-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45448</v>
+        <v>46009.30550925926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13739,13 +13749,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13782,14 +13787,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 41602-2023</t>
+          <t>A 5897-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45175.64809027778</v>
+        <v>46052.4284375</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13801,13 +13806,8 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13844,14 +13844,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 30085-2023</t>
+          <t>A 5900-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45110.43747685185</v>
+        <v>46052.43122685186</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13901,14 +13901,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 32668-2024</t>
+          <t>A 7530-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45514.46949074074</v>
+        <v>46059.61744212963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13958,14 +13958,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 37460-2023</t>
+          <t>A 7531-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45156</v>
+        <v>46059.61849537037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14015,14 +14015,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 11900-2023</t>
+          <t>A 7522-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44995.44972222222</v>
+        <v>46059</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>8.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14072,14 +14072,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 12889-2022</t>
+          <t>A 9691-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44642.5922337963</v>
+        <v>46072.40653935185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14129,14 +14129,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 5816-2024</t>
+          <t>A 1729-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45335.54832175926</v>
+        <v>46034.63483796296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14186,14 +14186,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 30019-2023</t>
+          <t>A 1725-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45109</v>
+        <v>46034.62398148148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14243,14 +14243,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 2590-2024</t>
+          <t>A 1938-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45313</v>
+        <v>46035.58709490741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>11.7</v>
+        <v>1.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14300,14 +14300,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 65095-2023</t>
+          <t>A 1931-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45288.40486111111</v>
+        <v>46035.57903935185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14357,14 +14357,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 48579-2024</t>
+          <t>A 1929-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45593.41236111111</v>
+        <v>46035.57438657407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>

--- a/Översikt SKARA.xlsx
+++ b/Översikt SKARA.xlsx
@@ -575,7 +575,7 @@
         <v>45302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45750</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,14 +1282,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 17546-2021</t>
+          <t>A 33610-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44299</v>
+        <v>45841.61888888889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>11.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,31 +1336,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Lundbräsma</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
         <v/>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>45933</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,14 +1452,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 33610-2025</t>
+          <t>A 55928-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45841.61888888889</v>
+        <v>45973.43586805555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1471,18 +1471,23 @@
           <t>SKARA</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>11.2</v>
+        <v>5.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1496,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1506,45 +1511,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Lundbräsma</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 33610-2025 artfynd.xlsx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 33610-2025 karta.png", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 33610-2025 FSC-klagomål.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 33610-2025 FSC-klagomål mail.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 33610-2025 tillsynsbegäran.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 33610-2025 tillsynsbegäran mail.docx", "A 33610-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55928-2025</t>
+          <t>A 17546-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45973.43586805555</v>
+        <v>44299</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1556,22 +1561,17 @@
           <t>SKARA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1596,31 +1596,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 55928-2025 artfynd.xlsx", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/artfynd/A 17546-2021 artfynd.xlsx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 55928-2025 karta.png", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/kartor/A 17546-2021 karta.png", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 55928-2025 FSC-klagomål.docx", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomål/A 17546-2021 FSC-klagomål.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 55928-2025 FSC-klagomål mail.docx", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/klagomålsmail/A 17546-2021 FSC-klagomål mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 55928-2025 tillsynsbegäran.docx", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsyn/A 17546-2021 tillsynsbegäran.docx", "A 17546-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 55928-2025 tillsynsbegäran mail.docx", "A 55928-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1495/tillsynsmail/A 17546-2021 tillsynsbegäran mail.docx", "A 17546-2021")</f>
         <v/>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
         <v>44319.66627314815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,14 +1684,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 35607-2022</t>
+          <t>A 74438-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44799</v>
+        <v>44560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1741,14 +1741,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 40946-2021</t>
+          <t>A 35607-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44421.5517824074</v>
+        <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1798,14 +1798,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 74438-2021</t>
+          <t>A 40946-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44560</v>
+        <v>44421.5517824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44756.43268518519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44536.59342592592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44560.6203587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44357.31700231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>44600.44402777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>44874</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,14 +2373,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 34658-2021</t>
+          <t>A 30060-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44382</v>
+        <v>44363.47837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2430,14 +2430,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 33940-2021</t>
+          <t>A 30687-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44378.80239583334</v>
+        <v>44365.40762731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2487,14 +2487,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 30060-2021</t>
+          <t>A 35768-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44363.47837962963</v>
+        <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2544,14 +2544,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 30687-2021</t>
+          <t>A 34658-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44365.40762731482</v>
+        <v>44382</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2601,14 +2601,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 11934-2021</t>
+          <t>A 33940-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44265</v>
+        <v>44378.80239583334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2658,14 +2658,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35768-2021</t>
+          <t>A 11934-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44386</v>
+        <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>44467.62484953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,14 +2772,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33938-2021</t>
+          <t>A 5594-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44378</v>
+        <v>44595</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2829,14 +2829,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is